--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="72">
   <si>
     <t>D</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>level-option method, subset approach</t>
-  </si>
-  <si>
-    <t>level-option method, subset approa h</t>
   </si>
   <si>
     <t>Concepts</t>
@@ -244,6 +241,15 @@
   </si>
   <si>
     <t xml:space="preserve">Two Stacks in an Array </t>
+  </si>
+  <si>
+    <t>for backtracking always refer flood fill</t>
+  </si>
+  <si>
+    <t>srno</t>
+  </si>
+  <si>
+    <t>level-option method, subset approac h</t>
   </si>
 </sst>
 </file>
@@ -795,645 +801,738 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J32"/>
+  <dimension ref="A3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="22.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="49.7109375" style="16" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="30" style="17" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="22.28515625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="52.85546875" style="14" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="49.7109375" style="16" customWidth="1"/>
+    <col min="10" max="10" width="51.140625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="30" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="I3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="6">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="B6" s="6">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="B7" s="6">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="6">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="B9" s="6">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="6">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="6">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="10" t="s">
+      <c r="B12" s="6">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="6">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="6">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="6">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="6">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="11" t="s">
+      <c r="B17" s="6">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="11" t="s">
+      <c r="B18" s="6">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="11" t="s">
+      <c r="B19" s="6">
         <v>16</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>35</v>
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="B20" s="6">
         <v>17</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>35</v>
+      <c r="C20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="11" t="s">
+      <c r="B21" s="6">
         <v>18</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>35</v>
+      <c r="C21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="B22" s="6">
         <v>19</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>35</v>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="12" t="s">
+      <c r="B23" s="6">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="12" t="s">
+      <c r="B24" s="6">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="B25" s="6">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="12" t="s">
+      <c r="B26" s="6">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D27" s="12" t="s">
+      <c r="B27" s="6">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="12" t="s">
+      <c r="B28" s="6">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D29" s="13" t="s">
+      <c r="B29" s="6">
+        <v>26</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="13" t="s">
+      <c r="B30" s="6">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="13" t="s">
+      <c r="B31" s="6">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
       </c>
       <c r="I31" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K31" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="13" t="s">
+      <c r="B32" s="6">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1600,7 @@
     </row>
     <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>33</v>
@@ -1522,7 +1621,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>40</v>
@@ -1536,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>35</v>
@@ -1550,7 +1649,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>35</v>
@@ -1564,7 +1663,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>35</v>
@@ -1578,7 +1677,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
@@ -1592,7 +1691,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>35</v>
@@ -1606,7 +1705,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>35</v>
@@ -1620,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>35</v>
@@ -1634,7 +1733,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>35</v>
@@ -1648,7 +1747,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>35</v>
@@ -1662,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>35</v>
@@ -1676,7 +1775,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>35</v>
@@ -1690,7 +1789,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>35</v>
@@ -1704,7 +1803,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>35</v>
@@ -1715,7 +1814,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>35</v>
@@ -1726,7 +1825,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>35</v>
@@ -1737,7 +1836,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>35</v>
@@ -1748,7 +1847,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>35</v>
@@ -1759,7 +1858,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>35</v>
@@ -1770,7 +1869,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>35</v>
@@ -1781,7 +1880,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>35</v>
@@ -1792,7 +1891,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>35</v>
@@ -1803,7 +1902,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>35</v>
@@ -1814,7 +1913,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>35</v>
@@ -1825,7 +1924,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>35</v>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="73">
   <si>
     <t>D</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>level-option method, subset approac h</t>
+  </si>
+  <si>
+    <t>Sort1</t>
   </si>
 </sst>
 </file>
@@ -803,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,12 +1546,62 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="115">
   <si>
     <t>D</t>
   </si>
@@ -252,7 +252,149 @@
     <t>level-option method, subset approac h</t>
   </si>
   <si>
-    <t>Sort1</t>
+    <t>sort01</t>
+  </si>
+  <si>
+    <t>merge2sortedarray</t>
+  </si>
+  <si>
+    <t>sort012, Dutch flag problem</t>
+  </si>
+  <si>
+    <t>keep 2 iterator I and j,
+here 2 array length can be unequal,so when 1 array reach its length you can use max value 
+or you can write separate for loop</t>
+  </si>
+  <si>
+    <t>Solution link</t>
+  </si>
+  <si>
+    <t>CP/MergeTwoSortedArr.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Sort01.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Sorto12.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>segregation approach, when there are 3 types of data you need to sort</t>
+  </si>
+  <si>
+    <t>segregation approach,when there are 2 types of data like even odd , prime not prime. And</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> using this approach only left order is maintained , and right order is not maintained</t>
+  </si>
+  <si>
+    <t>also try to think iterating from right to left</t>
+  </si>
+  <si>
+    <t>keep I =unsolved
+j= first one</t>
+  </si>
+  <si>
+    <t>keep I =unsolved
+j= first one
+k= first 2</t>
+  </si>
+  <si>
+    <t>code link</t>
+  </si>
+  <si>
+    <t>CP/PrintDecreasing.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/PrintIncreasing.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">print n 
+send next level n-1
+</t>
+  </si>
+  <si>
+    <t>send n-1
+print</t>
+  </si>
+  <si>
+    <t>print n 
+send next level n-1
+print n</t>
+  </si>
+  <si>
+    <t>n-1 ka fact mil jayega
+usme n ko multiply</t>
+  </si>
+  <si>
+    <t>Power Log</t>
+  </si>
+  <si>
+    <t>CP/PrintIncreasingDecreasing.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Factorial.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/PowerLinear.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>(x,n-1) milel
+x ko multiply kar denge</t>
+  </si>
+  <si>
+    <t>(x,n/2)  mil jayega 
+multiply twice 
+odd asel tar ek x extra multiply kar</t>
+  </si>
+  <si>
+    <t>CP/PrintZigZag.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>understand the tree flow 
+very imp</t>
+  </si>
+  <si>
+    <t>understand faith and expectation</t>
+  </si>
+  <si>
+    <t>CP/TowerOfHanoi.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/PowerLog.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>think different problrm that can be asked</t>
+  </si>
+  <si>
+    <t>to iterate through arr always pass the indixes alown with it</t>
+  </si>
+  <si>
+    <t>CP/DisplayArr.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>next level pe jo bhejna he bhej (always subproblem/small problem)
+call k pehele an dcall k baad aur call k bich me I will work manually</t>
+  </si>
+  <si>
+    <t>CP/DisplayReverse.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notice . It not arr.length-1, it will go till arr.lenght </t>
+  </si>
+  <si>
+    <t>arr.length tak pahucha toh return if index start frm 0</t>
+  </si>
+  <si>
+    <t>CP/MaxOfArr.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>level-option method</t>
+  </si>
+  <si>
+    <t>All recursion can be done in level -option methd. This print question are done in level-option method</t>
+  </si>
+  <si>
+    <t>basic</t>
   </si>
 </sst>
 </file>
@@ -414,7 +556,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,6 +609,40 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -804,805 +980,965 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="6"/>
-    <col min="3" max="3" width="22.28515625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="52.85546875" style="14" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="49.7109375" style="16" customWidth="1"/>
-    <col min="10" max="10" width="51.140625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="30" style="17" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="6"/>
+    <col min="2" max="2" width="22.28515625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" style="14" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="51.140625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="30" style="16" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="17"/>
+    </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
+      <c r="E3" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="F3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="H3" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="I3" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
+      <c r="H4" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="B6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="6">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="B7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="6">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="9" t="s">
+      <c r="B8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="F8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="6">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>8</v>
+      <c r="E10" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>9</v>
+      <c r="E11" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" s="27" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>10</v>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>11</v>
+      <c r="E13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
+      <c r="E14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="3">
+        <v>36</v>
+      </c>
+      <c r="G14" s="3">
         <v>0</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>13</v>
+      <c r="E15" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="3">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3">
         <v>0</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>14</v>
+      <c r="E16" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="3">
+        <v>36</v>
+      </c>
+      <c r="G16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H16" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>15</v>
+      <c r="E17" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="3">
+        <v>36</v>
+      </c>
+      <c r="G17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H17" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>20</v>
+      <c r="E18" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="3">
+        <v>36</v>
+      </c>
+      <c r="G18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>16</v>
       </c>
-      <c r="B19" s="6">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>16</v>
+      <c r="B19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H19" s="3">
+        <v>36</v>
+      </c>
+      <c r="G19" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>17</v>
       </c>
-      <c r="B20" s="6">
-        <v>17</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>17</v>
+      <c r="B20" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="3">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>18</v>
       </c>
-      <c r="B21" s="6">
-        <v>18</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>18</v>
+      <c r="B21" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="3">
+        <v>36</v>
+      </c>
+      <c r="G21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="6">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>19</v>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="3">
+        <v>36</v>
+      </c>
+      <c r="G22" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="6">
-        <v>20</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>21</v>
+      <c r="B23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="3">
+        <v>36</v>
+      </c>
+      <c r="G23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I23" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="12" t="s">
-        <v>22</v>
+      <c r="E24" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="3">
+        <v>36</v>
+      </c>
+      <c r="G24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I24" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>22</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="12" t="s">
-        <v>23</v>
+      <c r="E25" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="3">
+        <v>36</v>
+      </c>
+      <c r="G25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>23</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>24</v>
+      <c r="E26" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="3">
+        <v>36</v>
+      </c>
+      <c r="G26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I26" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>24</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>25</v>
+      <c r="E27" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="3">
+        <v>36</v>
+      </c>
+      <c r="G27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I27" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>25</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>26</v>
+      <c r="E28" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="3">
+        <v>36</v>
+      </c>
+      <c r="G28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I28" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>26</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>27</v>
+      <c r="E29" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H29" s="3">
+        <v>36</v>
+      </c>
+      <c r="G29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I29" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>27</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>28</v>
+      <c r="E30" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H30" s="3">
+        <v>36</v>
+      </c>
+      <c r="G30" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>28</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>29</v>
+      <c r="E31" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" s="3">
-        <v>1</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="J31" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="K31" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>29</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="E32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
         <v>30</v>
       </c>
-      <c r="F32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="B33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="3">
         <v>1</v>
       </c>
-      <c r="J32" s="16" t="s">
+      <c r="I33" s="16" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintDecreasing.java"/>
+    <hyperlink ref="K5" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintIncreasing.java"/>
+    <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintIncreasingDecreasing.java"/>
+    <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/Factorial.java"/>
+    <hyperlink ref="K8" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PowerLinear.java"/>
+    <hyperlink ref="K10" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintZigZag.java"/>
+    <hyperlink ref="K11" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/TowerOfHanoi.java"/>
+    <hyperlink ref="K9" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PowerLog.java"/>
+    <hyperlink ref="K12" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/DisplayArr.java"/>
+    <hyperlink ref="K13" r:id="rId10" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/DisplayReverse.java"/>
+    <hyperlink ref="K14" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/MaxOfArr.java"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J4"/>
+  <dimension ref="A3:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="23"/>
+    <col min="2" max="2" width="14" style="23" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="23" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="26" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="25" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+      <c r="K3" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>72</v>
       </c>
+      <c r="F4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="23">
+        <v>1</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="23">
+        <v>1</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J5" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="23">
+        <v>1</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/Sorto12.java"/>
+    <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/Sort01.java"/>
+    <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeTwoSortedArr.java"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="151">
   <si>
     <t>D</t>
   </si>
@@ -154,20 +154,9 @@
     <t>Approach used /Points to be remembered</t>
   </si>
   <si>
-    <t>level-option method, subset approach</t>
-  </si>
-  <si>
     <t>Concepts</t>
   </si>
   <si>
-    <t>All possiblity of selecting 4 boxes?
-Possibility of selecting 2 boxes from 4 boxes?
-All Possibility of selecting 4 box in 2darr?
-Possibility of selecting only 2 box of 4 box in 2d?
-within a row, single box select karna he ?
-Queen Direction traversal</t>
-  </si>
-  <si>
     <t>Duplicate Bracket</t>
   </si>
   <si>
@@ -241,9 +230,6 @@
   </si>
   <si>
     <t xml:space="preserve">Two Stacks in an Array </t>
-  </si>
-  <si>
-    <t>for backtracking always refer flood fill</t>
   </si>
   <si>
     <t>srno</t>
@@ -284,9 +270,6 @@
     <t>segregation approach,when there are 2 types of data like even odd , prime not prime. And</t>
   </si>
   <si>
-    <t xml:space="preserve"> using this approach only left order is maintained , and right order is not maintained</t>
-  </si>
-  <si>
     <t>also try to think iterating from right to left</t>
   </si>
   <si>
@@ -391,10 +374,157 @@
     <t>level-option method</t>
   </si>
   <si>
-    <t>All recursion can be done in level -option methd. This print question are done in level-option method</t>
-  </si>
-  <si>
     <t>basic</t>
+  </si>
+  <si>
+    <t>yes call no call, using subset approach</t>
+  </si>
+  <si>
+    <t>All recursion can be done in level -option methd. This print question are done in level-option method, bec while traveling upwards we are solving the our ans at each level</t>
+  </si>
+  <si>
+    <t>always refer this question for backtracking</t>
+  </si>
+  <si>
+    <t>CP/FloodFill.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/TargetSumSubset.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>level-option,
+at every cell we call top left down right call, using direction array</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> using this approach only left order is maintained , and right order is not maintained (even odd)</t>
+  </si>
+  <si>
+    <t>you can either make smart call and stupid base case
+OR
+smart base case and stupid call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level-option method, upar jate hue solve kar rhe he and base me print kar rhe he  </t>
+  </si>
+  <si>
+    <t>yaha niche ate hue solve kar rhe he and base me empty data bhejke</t>
+  </si>
+  <si>
+    <t>level-option method, 
+options are H and V
+next level is (r,c+1) and (r+1,c)</t>
+  </si>
+  <si>
+    <t>level-option method,  with direction and radius,
+find the next level</t>
+  </si>
+  <si>
+    <t>CP/PrintMazePathWithJumps.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/PrintMazePath.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>level-option method,
+only 3 option, and next level is n-option
+ this can also be solved using direction array</t>
+  </si>
+  <si>
+    <t>think of stair path 3 jumps for euler tree- this will help you
+also think of src - &gt; intermediate - &gt; destination</t>
+  </si>
+  <si>
+    <t>src destination problem</t>
+  </si>
+  <si>
+    <t>backtracking Imp,
+src desn problem</t>
+  </si>
+  <si>
+    <t>CP/Recursion.pdf at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Refer this pdf</t>
+  </si>
+  <si>
+    <t>CP/PrintStairPath.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/PrintPermutation.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">level-option method
+if abc is string, the option can be a or b  or c 
+if a selected at current level then pass remaining bc
+similarly for option b and c </t>
+  </si>
+  <si>
+    <t>CP/PrintEncodings.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>get 1 digit and pass remaining,
+or get 2 digit and pass remaining
+make sure to handle case of  0 for one digit and  &lt;=26 for 2 digit</t>
+  </si>
+  <si>
+    <t>upper case to lower case</t>
+  </si>
+  <si>
+    <t>x-a = X-A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">char to number </t>
+  </si>
+  <si>
+    <t>number to char</t>
+  </si>
+  <si>
+    <t>Ascii</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>if char is  '5'  then
+ '5' -'0' will give you number 5</t>
+  </si>
+  <si>
+    <t>if number =5, then 
+5+'a'-1, 
+it will convert 5 to e</t>
+  </si>
+  <si>
+    <t>Knight traversal using direction arry</t>
+  </si>
+  <si>
+    <t>for backtracking always refer flood fill,
+Queen Direction traversal,direction array</t>
+  </si>
+  <si>
+    <t>always get the sum so far at the last index because there can be element 0 at the last index which can produce 2 sum so far from previous level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All possiblity of selecting 4 boxes -&gt;1d array? =subset
+Possibility of selecting 2 boxes from 4 boxes? ans is withing subset
+All Possibility of selecting 4 box in 2d Array?
+Possibility of selecting only 2 box of 4 box in 2d?
+within a row, single box select karna he and then next row se select karna he '?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backtracking , direction array </t>
+  </si>
+  <si>
+    <t>level-option method,
+take row as level and column as option
+below is  subset approach
+think in terrms of box so far i.e posiblilityu of selecting all( if n=4 boxes then posiblity of selecting 0,1,2,3) box in 2d traversal - har ek box pe yes&amp;no call(i.e either i have selected the box or i have not selected the box) and jab last colum ayega toh next row me jane ka (i.e chake the valid column)</t>
   </si>
 </sst>
 </file>
@@ -556,7 +686,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,6 +773,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -931,19 +1064,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E16:E17"/>
+  <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B32"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="66.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="31" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E16" s="18"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
@@ -982,25 +1171,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H17"/>
+    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="6"/>
-    <col min="2" max="2" width="22.28515625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="4" style="14" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" style="14" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="16" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="43.28515625" style="16" customWidth="1"/>
+    <col min="9" max="9" width="48.7109375" style="16" customWidth="1"/>
     <col min="10" max="10" width="30" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>128</v>
+      </c>
       <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -1008,7 +1203,7 @@
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>33</v>
@@ -1029,7 +1224,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>40</v>
@@ -1038,7 +1233,7 @@
         <v>37</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1061,13 +1256,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1090,13 +1285,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1119,13 +1314,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1148,13 +1343,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1177,13 +1372,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1191,19 +1386,19 @@
         <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1226,16 +1421,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1258,16 +1453,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K11" s="27" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1290,13 +1485,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1319,16 +1514,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1351,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1377,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1400,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>14</v>
       </c>
@@ -1423,10 +1618,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>15</v>
       </c>
@@ -1445,8 +1640,14 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>16</v>
       </c>
@@ -1465,8 +1666,11 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>17</v>
       </c>
@@ -1485,8 +1689,11 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>18</v>
       </c>
@@ -1505,8 +1712,11 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>19</v>
       </c>
@@ -1525,8 +1735,11 @@
       <c r="G22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="H22" s="16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>20</v>
       </c>
@@ -1545,14 +1758,17 @@
       <c r="G23" s="3">
         <v>0</v>
       </c>
+      <c r="H23" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="I23" s="16" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>21</v>
       </c>
@@ -1571,11 +1787,17 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
+      <c r="H24" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="I24" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>22</v>
       </c>
@@ -1592,13 +1814,19 @@
         <v>36</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>23</v>
       </c>
@@ -1615,13 +1843,19 @@
         <v>36</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>24</v>
       </c>
@@ -1638,13 +1872,22 @@
         <v>36</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>25</v>
       </c>
@@ -1661,13 +1904,19 @@
         <v>36</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>26</v>
       </c>
@@ -1684,13 +1933,22 @@
         <v>36</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>27</v>
       </c>
@@ -1707,10 +1965,22 @@
         <v>36</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>28</v>
       </c>
@@ -1727,10 +1997,22 @@
         <v>36</v>
       </c>
       <c r="G31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="K31" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -1747,19 +2029,19 @@
         <v>36</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>41</v>
+        <v>150</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>30</v>
       </c>
@@ -1776,10 +2058,16 @@
         <v>36</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>149</v>
       </c>
       <c r="I33" s="16" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1795,9 +2083,17 @@
     <hyperlink ref="K12" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/DisplayArr.java"/>
     <hyperlink ref="K13" r:id="rId10" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/DisplayReverse.java"/>
     <hyperlink ref="K14" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/MaxOfArr.java"/>
+    <hyperlink ref="K30" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/FloodFill.java"/>
+    <hyperlink ref="K31" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/TargetSumSubset.java"/>
+    <hyperlink ref="K27" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintMazePathWithJumps.java"/>
+    <hyperlink ref="K26" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintMazePath.java"/>
+    <hyperlink ref="E1" r:id="rId16" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Recursion.pdf"/>
+    <hyperlink ref="K25" r:id="rId17" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintStairPath.java"/>
+    <hyperlink ref="K28" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintPermutation.java"/>
+    <hyperlink ref="K29" r:id="rId19" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintEncodings.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -1806,13 +2102,13 @@
   <dimension ref="A3:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="14" style="23" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="23" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="23" customWidth="1"/>
     <col min="4" max="4" width="35.28515625" style="24" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" style="23" customWidth="1"/>
@@ -1826,7 +2122,7 @@
   <sheetData>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>33</v>
@@ -1847,7 +2143,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="25" t="s">
         <v>40</v>
@@ -1856,7 +2152,7 @@
         <v>37</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1864,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F4" s="23" t="s">
         <v>36</v>
@@ -1873,16 +2169,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1890,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F5" s="23" t="s">
         <v>36</v>
@@ -1899,16 +2195,16 @@
         <v>1</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -1916,7 +2212,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" s="23" t="s">
         <v>36</v>
@@ -1925,10 +2221,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +2285,7 @@
     </row>
     <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>33</v>
@@ -2010,7 +2306,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>40</v>
@@ -2024,7 +2320,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>35</v>
@@ -2038,7 +2334,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>35</v>
@@ -2052,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>35</v>
@@ -2066,7 +2362,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>35</v>
@@ -2080,7 +2376,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>35</v>
@@ -2094,7 +2390,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>35</v>
@@ -2108,7 +2404,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>35</v>
@@ -2122,7 +2418,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>35</v>
@@ -2136,7 +2432,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>35</v>
@@ -2150,7 +2446,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>35</v>
@@ -2164,7 +2460,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>35</v>
@@ -2178,7 +2474,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>35</v>
@@ -2192,7 +2488,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>35</v>
@@ -2203,7 +2499,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>35</v>
@@ -2214,7 +2510,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>35</v>
@@ -2225,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>35</v>
@@ -2236,7 +2532,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>35</v>
@@ -2247,7 +2543,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>35</v>
@@ -2258,7 +2554,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>35</v>
@@ -2269,7 +2565,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>35</v>
@@ -2280,7 +2576,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>35</v>
@@ -2291,7 +2587,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>35</v>
@@ -2302,7 +2598,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>35</v>
@@ -2313,7 +2609,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>35</v>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="152">
   <si>
     <t>D</t>
   </si>
@@ -521,17 +521,61 @@
     <t xml:space="preserve">backtracking , direction array </t>
   </si>
   <si>
-    <t>level-option method,
+    <t>CP/NQueen.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>level-option method,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 take row as level and column as option
-below is  subset approach
-think in terrms of box so far i.e posiblilityu of selecting all( if n=4 boxes then posiblity of selecting 0,1,2,3) box in 2d traversal - har ek box pe yes&amp;no call(i.e either i have selected the box or i have not selected the box) and jab last colum ayega toh next row me jane ka (i.e chake the valid column)</t>
+if n=4 then 0,1 2 3 are option -for loop
+next level will be your next row
+below is  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>subset approach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+think in terrms of box so far i.e posiblilityu of selecting all( if n=4 boxes then posiblity of selecting 0,1,2,3) box in 2d traversal - har ek box pe yes&amp;no call(i.e either i have selected the box or i have not selected the box) and jab last colum ayega toh next row me jane ka (i.e check the valid column)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +621,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1171,7 +1222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
@@ -2012,7 +2063,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="159" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>29</v>
       </c>
@@ -2035,10 +2086,13 @@
         <v>148</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>146</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2091,9 +2145,10 @@
     <hyperlink ref="K25" r:id="rId17" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintStairPath.java"/>
     <hyperlink ref="K28" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintPermutation.java"/>
     <hyperlink ref="K29" r:id="rId19" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintEncodings.java"/>
+    <hyperlink ref="K32" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueen.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="155">
   <si>
     <t>D</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>Target Sum subset</t>
-  </si>
-  <si>
-    <t>N queen</t>
   </si>
   <si>
     <t>Knight tour</t>
@@ -360,9 +357,6 @@
   </si>
   <si>
     <t>CP/DisplayReverse.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">notice . It not arr.length-1, it will go till arr.lenght </t>
   </si>
   <si>
     <t>arr.length tak pahucha toh return if index start frm 0</t>
@@ -498,9 +492,6 @@
     <t>if number =5, then 
 5+'a'-1, 
 it will convert 5 to e</t>
-  </si>
-  <si>
-    <t>Knight traversal using direction arry</t>
   </si>
   <si>
     <t>for backtracking always refer flood fill,
@@ -521,31 +512,14 @@
     <t xml:space="preserve">backtracking , direction array </t>
   </si>
   <si>
-    <t>CP/NQueen.java at main · spartan4cs/CP (github.com)</t>
+    <t>N queen(Subset approach)</t>
+  </si>
+  <si>
+    <t>N queen(level option approach)</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>level-option method,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
-take row as level and column as option
-if n=4 then 0,1 2 3 are option -for loop
-next level will be your next row
 below is  </t>
     </r>
     <r>
@@ -569,6 +543,25 @@
       <t xml:space="preserve">
 think in terrms of box so far i.e posiblilityu of selecting all( if n=4 boxes then posiblity of selecting 0,1,2,3) box in 2d traversal - har ek box pe yes&amp;no call(i.e either i have selected the box or i have not selected the box) and jab last colum ayega toh next row me jane ka (i.e check the valid column)</t>
     </r>
+  </si>
+  <si>
+    <t>level-option method,
+take row as level and column as option
+if n=4 then 0,1 2 3 are option -for loop
+next level will be your next row</t>
+  </si>
+  <si>
+    <t>CP/NQueenOptionLevelApproach.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/NQueenSubsetApproach.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Knight traversal using direction arry,for backtracking always refer flood fill,</t>
+  </si>
+  <si>
+    <t>notice . Recursive call will not go till arr.length-1, it will go till arr.lenght 
+if started form 0</t>
   </si>
 </sst>
 </file>
@@ -737,7 +730,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -827,6 +820,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1130,21 +1126,21 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1155,13 +1151,13 @@
     </row>
     <row r="4" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
         <v>138</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F4" t="s">
-        <v>140</v>
       </c>
       <c r="G4">
         <v>97</v>
@@ -1169,7 +1165,7 @@
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G5">
         <v>65</v>
@@ -1177,7 +1173,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G6">
         <v>32</v>
@@ -1220,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,10 +1238,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J1" s="17"/>
     </row>
@@ -1254,37 +1250,37 @@
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1292,28 +1288,28 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3">
         <v>1</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -1321,28 +1317,28 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3">
         <v>1</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1350,28 +1346,28 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3">
         <v>1</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1379,28 +1375,28 @@
         <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K7" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1408,28 +1404,28 @@
         <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G8" s="3">
         <v>1</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K8" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1437,19 +1433,19 @@
         <v>6</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="3">
         <v>1</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K9" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1457,31 +1453,31 @@
         <v>7</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3">
         <v>1</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1489,31 +1485,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3">
         <v>1</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J11" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="K11" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1521,60 +1517,60 @@
         <v>9</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3">
         <v>1</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I12" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="K12" s="27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3">
         <v>1</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1582,25 +1578,25 @@
         <v>11</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K14" s="27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -1608,22 +1604,22 @@
         <v>12</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>12</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -1631,22 +1627,22 @@
         <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G16" s="3">
         <v>0</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1654,22 +1650,22 @@
         <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1677,25 +1673,25 @@
         <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G18" s="3">
         <v>0</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1703,22 +1699,22 @@
         <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" s="3">
         <v>0</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1726,22 +1722,22 @@
         <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1749,22 +1745,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" s="3">
         <v>0</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -1772,22 +1768,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -1795,28 +1791,28 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
       <c r="H23" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1824,28 +1820,28 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1853,28 +1849,28 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>22</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G25" s="3">
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1882,28 +1878,28 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26" s="3">
         <v>1</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1911,31 +1907,31 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" s="3">
         <v>1</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -1943,28 +1939,28 @@
         <v>25</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -1972,31 +1968,31 @@
         <v>26</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K29" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2004,31 +2000,31 @@
         <v>27</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>27</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" s="3">
         <v>1</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -2036,31 +2032,31 @@
         <v>28</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" s="3">
         <v>1</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K31" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="177" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,60 +2064,74 @@
         <v>29</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="K32" s="27" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K33" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>30</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="E34" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="3">
         <v>0</v>
       </c>
-      <c r="H32" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="J32" s="16" t="s">
+      <c r="H34" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="K32" s="27" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>30</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="16" t="s">
-        <v>145</v>
+      <c r="I34" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2145,10 +2155,11 @@
     <hyperlink ref="K25" r:id="rId17" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintStairPath.java"/>
     <hyperlink ref="K28" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintPermutation.java"/>
     <hyperlink ref="K29" r:id="rId19" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintEncodings.java"/>
-    <hyperlink ref="K32" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueen.java"/>
+    <hyperlink ref="K33" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenOptionLevelApproach.java"/>
+    <hyperlink ref="K32" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenSubsetApproach.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -2177,37 +2188,37 @@
   <sheetData>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2215,25 +2226,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="23">
         <v>1</v>
       </c>
       <c r="H4" s="26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J4" s="26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K4" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2241,25 +2252,25 @@
         <v>2</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" s="23">
         <v>1</v>
       </c>
       <c r="H5" s="26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K5" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -2267,19 +2278,19 @@
         <v>3</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="23">
         <v>1</v>
       </c>
       <c r="I6" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2340,34 +2351,34 @@
     </row>
     <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2375,13 +2386,13 @@
         <v>1</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,13 +2400,13 @@
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2403,13 +2414,13 @@
         <v>3</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2417,13 +2428,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2431,13 +2442,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2445,13 +2456,13 @@
         <v>6</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2459,13 +2470,13 @@
         <v>7</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2473,13 +2484,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2487,13 +2498,13 @@
         <v>9</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2501,13 +2512,13 @@
         <v>10</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2515,13 +2526,13 @@
         <v>11</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2529,13 +2540,13 @@
         <v>12</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2543,10 +2554,10 @@
         <v>13</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2554,10 +2565,10 @@
         <v>14</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2565,10 +2576,10 @@
         <v>15</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2576,10 +2587,10 @@
         <v>16</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2587,10 +2598,10 @@
         <v>17</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2598,10 +2609,10 @@
         <v>18</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -2609,10 +2620,10 @@
         <v>19</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2620,10 +2631,10 @@
         <v>20</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -2631,10 +2642,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -2642,10 +2653,10 @@
         <v>22</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -2653,10 +2664,10 @@
         <v>23</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -2664,10 +2675,10 @@
         <v>24</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="156">
   <si>
     <t>D</t>
   </si>
@@ -545,23 +545,45 @@
     </r>
   </si>
   <si>
-    <t>level-option method,
+    <t>CP/NQueenOptionLevelApproach.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/NQueenSubsetApproach.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Knight traversal using direction arry,for backtracking always refer flood fill,</t>
+  </si>
+  <si>
+    <t>notice . Recursive call will not go till arr.length-1, it will go till arr.lenght 
+if started form 0</t>
+  </si>
+  <si>
+    <t>CP/KnightsTour.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>level-option method,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 take row as level and column as option
 if n=4 then 0,1 2 3 are option -for loop
 next level will be your next row</t>
-  </si>
-  <si>
-    <t>CP/NQueenOptionLevelApproach.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/NQueenSubsetApproach.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>Knight traversal using direction arry,for backtracking always refer flood fill,</t>
-  </si>
-  <si>
-    <t>notice . Recursive call will not go till arr.length-1, it will go till arr.lenght 
-if started form 0</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1218,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,7 +1589,7 @@
         <v>104</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K13" s="27" t="s">
         <v>103</v>
@@ -2088,7 +2110,7 @@
         <v>143</v>
       </c>
       <c r="K32" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
@@ -2099,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="I33" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="K33" s="27" t="s">
         <v>150</v>
-      </c>
-      <c r="K33" s="27" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2122,7 +2144,7 @@
         <v>35</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>146</v>
@@ -2131,7 +2153,10 @@
         <v>67</v>
       </c>
       <c r="J34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
+      </c>
+      <c r="K34" s="27" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2157,9 +2182,10 @@
     <hyperlink ref="K29" r:id="rId19" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintEncodings.java"/>
     <hyperlink ref="K33" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenOptionLevelApproach.java"/>
     <hyperlink ref="K32" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenSubsetApproach.java"/>
+    <hyperlink ref="K34" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/KnightsTour.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="158">
   <si>
     <t>D</t>
   </si>
@@ -584,6 +584,12 @@
 if n=4 then 0,1 2 3 are option -for loop
 next level will be your next row</t>
     </r>
+  </si>
+  <si>
+    <t>Comments &amp; Suggestion</t>
+  </si>
+  <si>
+    <t>Merge Sort</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1142,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1305,7 @@
         <v>39</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>81</v>
@@ -2034,7 +2040,7 @@
         <v>35</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="16" t="s">
         <v>125</v>
@@ -2066,7 +2072,7 @@
         <v>35</v>
       </c>
       <c r="G31" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>107</v>
@@ -2098,7 +2104,7 @@
         <v>35</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>145</v>
@@ -2118,7 +2124,7 @@
         <v>148</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" s="16" t="s">
         <v>155</v>
@@ -2144,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="G34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>146</v>
@@ -2191,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K6"/>
+  <dimension ref="A3:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,6 +2323,14 @@
       </c>
       <c r="K6" s="29" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>4</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2352,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2420,6 +2434,9 @@
       <c r="F4" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2434,6 +2451,9 @@
       <c r="F5" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2448,6 +2468,9 @@
       <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -2462,6 +2485,9 @@
       <c r="F7" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2490,6 +2516,9 @@
       <c r="F9" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2504,6 +2533,9 @@
       <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2518,6 +2550,9 @@
       <c r="F11" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2532,6 +2567,9 @@
       <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2546,6 +2584,9 @@
       <c r="F13" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2560,6 +2601,9 @@
       <c r="F14" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2573,6 +2617,9 @@
       </c>
       <c r="F15" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="159">
   <si>
     <t>D</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>recursive approach</t>
   </si>
 </sst>
 </file>
@@ -758,7 +761,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -837,12 +840,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
@@ -852,6 +849,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
@@ -1148,7 +1150,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="66.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="29" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1156,7 +1158,7 @@
       <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="29" t="s">
         <v>134</v>
       </c>
       <c r="G2" t="s">
@@ -1167,7 +1169,7 @@
       <c r="B3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>141</v>
       </c>
       <c r="F3">
@@ -1181,7 +1183,7 @@
       <c r="B4" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>142</v>
       </c>
       <c r="F4" t="s">
@@ -2094,7 +2096,7 @@
       <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="30" t="s">
         <v>147</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -2120,7 +2122,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="32" t="s">
+      <c r="D33" s="30" t="s">
         <v>148</v>
       </c>
       <c r="G33" s="3">
@@ -2197,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2212,12 +2214,18 @@
     <col min="5" max="5" width="20.7109375" style="23" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="23" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="24" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" style="26" customWidth="1"/>
     <col min="10" max="10" width="33.28515625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="30" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="33" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K1" s="28"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="28"/>
+    </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
         <v>54</v>
@@ -2249,7 +2257,7 @@
       <c r="J3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="31" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2275,7 +2283,7 @@
       <c r="J4" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="K4" s="32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2301,7 +2309,7 @@
       <c r="J5" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="29" t="s">
+      <c r="K5" s="32" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2321,7 +2329,7 @@
       <c r="I6" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="32" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2331,6 +2339,9 @@
       </c>
       <c r="D7" s="24" t="s">
         <v>157</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="160">
   <si>
     <t>D</t>
   </si>
@@ -593,6 +593,9 @@
   </si>
   <si>
     <t>recursive approach</t>
+  </si>
+  <si>
+    <t>CP/MergeSort.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -2202,7 +2205,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2343,15 +2346,19 @@
       <c r="I7" s="24" t="s">
         <v>158</v>
       </c>
+      <c r="K7" s="27" t="s">
+        <v>159</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/Sorto12.java"/>
     <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/Sort01.java"/>
     <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeTwoSortedArr.java"/>
+    <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeSort.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -2205,7 +2205,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="163">
   <si>
     <t>D</t>
   </si>
@@ -592,10 +592,22 @@
     <t>Merge Sort</t>
   </si>
   <si>
-    <t>recursive approach</t>
-  </si>
-  <si>
     <t>CP/MergeSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Partition of array</t>
+  </si>
+  <si>
+    <t>iterative appraoch</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>recursive approach, faith and expectation
+faith -from 0 to  mid I will get sorted 
+and from mid+1 to last I get sorted
+then I will merge manually both array(sr no 3)</t>
   </si>
 </sst>
 </file>
@@ -2202,10 +2214,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2336,18 +2348,55 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <v>4</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="24" t="s">
+      <c r="F7" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="23">
+        <v>0</v>
+      </c>
+      <c r="I7" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="K7" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="K7" s="27" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>5</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="I8" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>159</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="165">
   <si>
     <t>D</t>
   </si>
@@ -608,6 +608,12 @@
 faith -from 0 to  mid I will get sorted 
 and from mid+1 to last I get sorted
 then I will merge manually both array(sr no 3)</t>
+  </si>
+  <si>
+    <t>CP/PartitionOfArray.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
   </si>
 </sst>
 </file>
@@ -2214,10 +2220,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2393,9 +2399,23 @@
         <v>159</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="G9" s="23">
+        <v>0</v>
+      </c>
+      <c r="K9" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>7</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="23">
         <v>0</v>
       </c>
     </row>
@@ -2405,9 +2425,10 @@
     <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/Sort01.java"/>
     <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeTwoSortedArr.java"/>
     <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeSort.java"/>
+    <hyperlink ref="K9" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PartitionOfArray.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="173">
   <si>
     <t>D</t>
   </si>
@@ -614,6 +614,40 @@
   </si>
   <si>
     <t>Quick Sort</t>
+  </si>
+  <si>
+    <t>CP/QuickSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>refer sort 01.segregation approach</t>
+  </si>
+  <si>
+    <t>merge extra space leta he 
+aur
+if arry is sorted , quick sort takes time O(n^2)and merge sort is efficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+pivot is last element because it will come to its correct position
+if arry is sorted then complexity is O(n^2), bec pivot elemetn is at its correct position
+quick sort ,existing array me change karke sort kar rha he 
+</t>
+  </si>
+  <si>
+    <t>recursive approach, partition is done using segreagation approach,</t>
+  </si>
+  <si>
+    <t>Quick Select</t>
+  </si>
+  <si>
+    <t>need to get the kth smallest index</t>
+  </si>
+  <si>
+    <t>assume last index as pivot element
+get the partition index(means bring last index which is at correct position),
+if k==pivot then  returen
+elseif k&lt;pivot recusive call on left 
+elsfe k&gt;pivot -&gt;recursive call on right</t>
   </si>
 </sst>
 </file>
@@ -782,7 +816,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -873,8 +907,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
@@ -1270,7 +1305,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2220,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,7 +2273,7 @@
     <col min="8" max="8" width="28.28515625" style="24" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" style="26" customWidth="1"/>
     <col min="10" max="10" width="33.28515625" style="26" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="33" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2370,7 +2405,10 @@
       <c r="I7" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="J7" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2404,19 +2442,51 @@
       <c r="G9" s="23">
         <v>0</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="I9" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="K9" s="32" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="23">
         <v>7</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>164</v>
       </c>
+      <c r="F10" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="G10" s="23">
         <v>0</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>8</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -2426,9 +2496,10 @@
     <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeTwoSortedArr.java"/>
     <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeSort.java"/>
     <hyperlink ref="K9" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PartitionOfArray.java"/>
+    <hyperlink ref="K10" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSort.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2454,8 +2525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2523,7 +2594,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2540,7 +2611,7 @@
         <v>35</v>
       </c>
       <c r="G5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2557,7 +2628,7 @@
         <v>35</v>
       </c>
       <c r="G6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -2574,7 +2645,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2590,6 +2661,9 @@
       <c r="F8" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2605,7 +2679,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2690,7 +2764,7 @@
         <v>35</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -2707,7 +2781,7 @@
         <v>35</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2720,8 +2794,14 @@
       <c r="E16" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2731,8 +2811,14 @@
       <c r="E17" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2742,8 +2828,14 @@
       <c r="E18" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2754,7 +2846,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2765,7 +2857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2776,7 +2868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2787,7 +2879,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2798,7 +2890,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2809,7 +2901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2820,7 +2912,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2831,7 +2923,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2842,7 +2934,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="106.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="174">
   <si>
     <t>D</t>
   </si>
@@ -648,6 +648,9 @@
 if k==pivot then  returen
 elseif k&lt;pivot recusive call on left 
 elsfe k&gt;pivot -&gt;recursive call on right</t>
+  </si>
+  <si>
+    <t>CP/QuickSelect.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -2258,7 +2261,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2488,6 +2491,9 @@
       <c r="J11" s="26" t="s">
         <v>171</v>
       </c>
+      <c r="K11" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2497,9 +2503,10 @@
     <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeSort.java"/>
     <hyperlink ref="K9" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PartitionOfArray.java"/>
     <hyperlink ref="K10" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSort.java"/>
+    <hyperlink ref="K11" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSelect.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="178">
   <si>
     <t>D</t>
   </si>
@@ -651,6 +651,19 @@
   </si>
   <si>
     <t>CP/QuickSelect.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Target sum pair</t>
+  </si>
+  <si>
+    <t>generic problem for solving any type of pair</t>
+  </si>
+  <si>
+    <t>CP/TargetSumPair.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>sort
+then I and j iterator at left and right</t>
   </si>
 </sst>
 </file>
@@ -819,7 +832,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -880,9 +893,6 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1209,7 +1219,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="66.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="28" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1217,7 +1227,7 @@
       <c r="B2" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>134</v>
       </c>
       <c r="G2" t="s">
@@ -1228,7 +1238,7 @@
       <c r="B3" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="28" t="s">
         <v>141</v>
       </c>
       <c r="F3">
@@ -1242,7 +1252,7 @@
       <c r="B4" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="28" t="s">
         <v>142</v>
       </c>
       <c r="F4" t="s">
@@ -1329,7 +1339,7 @@
       <c r="D1" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="26" t="s">
         <v>126</v>
       </c>
       <c r="J1" s="17"/>
@@ -1397,7 +1407,7 @@
       <c r="I4" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K4" s="26" t="s">
         <v>82</v>
       </c>
     </row>
@@ -1426,7 +1436,7 @@
       <c r="I5" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="K5" s="27" t="s">
+      <c r="K5" s="26" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1455,7 +1465,7 @@
       <c r="I6" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="K6" s="27" t="s">
+      <c r="K6" s="26" t="s">
         <v>89</v>
       </c>
     </row>
@@ -1484,7 +1494,7 @@
       <c r="I7" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="27" t="s">
+      <c r="K7" s="26" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1513,7 +1523,7 @@
       <c r="I8" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="27" t="s">
+      <c r="K8" s="26" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1533,7 +1543,7 @@
       <c r="I9" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="K9" s="27" t="s">
+      <c r="K9" s="26" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1565,7 +1575,7 @@
       <c r="J10" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="K10" s="27" t="s">
+      <c r="K10" s="26" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1597,7 +1607,7 @@
       <c r="J11" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1626,7 +1636,7 @@
       <c r="I12" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="27" t="s">
+      <c r="K12" s="26" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1658,7 +1668,7 @@
       <c r="J13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="K13" s="27" t="s">
+      <c r="K13" s="26" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1684,7 +1694,7 @@
       <c r="H14" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="27" t="s">
+      <c r="K14" s="26" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1958,7 +1968,7 @@
       <c r="I25" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="27" t="s">
+      <c r="K25" s="26" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1987,7 +1997,7 @@
       <c r="I26" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="K26" s="27" t="s">
+      <c r="K26" s="26" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2019,7 +2029,7 @@
       <c r="J27" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="K27" s="27" t="s">
+      <c r="K27" s="26" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2048,7 +2058,7 @@
       <c r="I28" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K28" s="26" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2080,7 +2090,7 @@
       <c r="J29" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="K29" s="27" t="s">
+      <c r="K29" s="26" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2112,7 +2122,7 @@
       <c r="J30" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="26" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2144,7 +2154,7 @@
       <c r="J31" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="K31" s="27" t="s">
+      <c r="K31" s="26" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2155,7 +2165,7 @@
       <c r="B32" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="29" t="s">
         <v>147</v>
       </c>
       <c r="E32" s="6" t="s">
@@ -2176,12 +2186,12 @@
       <c r="J32" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="K32" s="27" t="s">
+      <c r="K32" s="26" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="29" t="s">
         <v>148</v>
       </c>
       <c r="G33" s="3">
@@ -2190,7 +2200,7 @@
       <c r="I33" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="K33" s="27" t="s">
+      <c r="K33" s="26" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2222,7 +2232,7 @@
       <c r="J34" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="K34" s="27" t="s">
+      <c r="K34" s="26" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2258,32 +2268,36 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="23"/>
-    <col min="2" max="2" width="8.5703125" style="23" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="23" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="39.7109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="33.28515625" style="26" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="22"/>
+    <col min="2" max="2" width="8.5703125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="22" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" style="23" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="22" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" style="25" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K1" s="28"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K2" s="28"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
@@ -2301,198 +2315,224 @@
       <c r="E3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="23">
+      <c r="F4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="6">
         <v>1</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="K4" s="31" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="F5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="6">
         <v>1</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="23">
+      <c r="F6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="31" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="23">
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" s="31" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="23" t="s">
+      <c r="F8" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="23">
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="31" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="23">
+      <c r="F10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="K10" s="31" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>8</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="23">
+      <c r="F11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="6">
         <v>0</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="27" t="s">
+      <c r="K11" s="26" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="22">
+        <v>9</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K12" s="26" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2504,9 +2544,10 @@
     <hyperlink ref="K9" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PartitionOfArray.java"/>
     <hyperlink ref="K10" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSort.java"/>
     <hyperlink ref="K11" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSelect.java"/>
+    <hyperlink ref="K12" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/TargetSumPair.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="180">
   <si>
     <t>D</t>
   </si>
@@ -664,6 +664,12 @@
   <si>
     <t>sort
 then I and j iterator at left and right</t>
+  </si>
+  <si>
+    <t>CP/PivotInSortedAndRotatedArray.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Pivot In Sorted  Rotated Array</t>
   </si>
 </sst>
 </file>
@@ -2268,10 +2274,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2535,6 +2541,17 @@
         <v>176</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="22">
+        <v>10</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/Sorto12.java"/>
@@ -2545,9 +2562,10 @@
     <hyperlink ref="K10" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSort.java"/>
     <hyperlink ref="K11" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSelect.java"/>
     <hyperlink ref="K12" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/TargetSumPair.java"/>
+    <hyperlink ref="K13" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PivotInSortedAndRotatedArray.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="183">
   <si>
     <t>D</t>
   </si>
@@ -670,6 +670,16 @@
   </si>
   <si>
     <t>Pivot In Sorted  Rotated Array</t>
+  </si>
+  <si>
+    <t>Bubble Sort</t>
+  </si>
+  <si>
+    <t>You are given an array(arr) of distinct integers, which is sorted and rotated around an unknown point. 2. You have to find the smallest element in O(logN) time-complexity</t>
+  </si>
+  <si>
+    <t>very imp ,
+from this you can also find k(no of rotation done) and largest element and smallest element</t>
   </si>
 </sst>
 </file>
@@ -2274,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,15 +2551,35 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>10</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>179</v>
       </c>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>181</v>
+      </c>
       <c r="K13" s="26" t="s">
         <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="22">
+        <v>11</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="186">
   <si>
     <t>D</t>
   </si>
@@ -680,6 +680,15 @@
   <si>
     <t>very imp ,
 from this you can also find k(no of rotation done) and largest element and smallest element</t>
+  </si>
+  <si>
+    <t>CP/BubbleSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Selection sort</t>
+  </si>
+  <si>
+    <t>CP/SelectionSort.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -1333,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -2284,10 +2293,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2581,6 +2590,29 @@
       <c r="D14" s="23" t="s">
         <v>180</v>
       </c>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2593,9 +2625,11 @@
     <hyperlink ref="K11" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSelect.java"/>
     <hyperlink ref="K12" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/TargetSumPair.java"/>
     <hyperlink ref="K13" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PivotInSortedAndRotatedArray.java"/>
+    <hyperlink ref="K14" r:id="rId10" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BubbleSort.java"/>
+    <hyperlink ref="K15" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/SelectionSort.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId10"/>
+  <pageSetup orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="187">
   <si>
     <t>D</t>
   </si>
@@ -689,6 +689,14 @@
   </si>
   <si>
     <t>CP/SelectionSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering we start from left to right
+We find  the index with min element(min index) and swap with current iteration index(i)
+Other variation
+Considering we start from right to left
+ find the index with max element(max index) and swap with current iteration index(i)
+</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1350,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -2295,8 +2303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2600,7 +2608,10 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>12</v>
+      </c>
       <c r="D15" s="23" t="s">
         <v>184</v>
       </c>
@@ -2609,6 +2620,9 @@
       </c>
       <c r="G15" s="6">
         <v>0</v>
+      </c>
+      <c r="J15" s="25" t="s">
+        <v>186</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>185</v>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -692,7 +692,7 @@
   </si>
   <si>
     <t xml:space="preserve">Considering we start from left to right
-We find  the index with min element(min index) and swap with current iteration index(i)
+We find  the index with min element(min index) and swap with current iteration index(i) if elemtn is smaller
 Other variation
 Considering we start from right to left
  find the index with max element(max index) and swap with current iteration index(i)
@@ -865,7 +865,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -955,6 +955,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1246,7 +1249,7 @@
   <dimension ref="B2:G17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,7 +1695,7 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="32" t="s">
         <v>107</v>
       </c>
       <c r="I13" s="16" t="s">
@@ -2303,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,7 +2611,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>12</v>
       </c>
@@ -2651,7 +2654,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -2670,7 +2675,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D4" sqref="D4:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -1353,8 +1353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -865,7 +865,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -958,6 +958,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1353,8 +1356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:G24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,7 +1931,7 @@
       <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -2306,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,7 +2678,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D20"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="191">
   <si>
     <t>D</t>
   </si>
@@ -697,6 +697,21 @@
 Considering we start from right to left
  find the index with max element(max index) and swap with current iteration index(i)
 </t>
+  </si>
+  <si>
+    <t>Insertion sort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">done </t>
+  </si>
+  <si>
+    <t>We find  the index with min element(min index) and swap with current iteration index(i) if elemtn is smaller</t>
+  </si>
+  <si>
+    <t>from 1 to n-1 , we will bring those element to correct position 
+how? by comparing with predessor and 
+swaping if predessor is &gt;then current element and
+ j--;</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2307,10 +2322,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F17" sqref="F16:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2627,11 +2642,31 @@
       <c r="G15" s="6">
         <v>0</v>
       </c>
+      <c r="I15" s="25" t="s">
+        <v>189</v>
+      </c>
       <c r="J15" s="25" t="s">
         <v>186</v>
       </c>
       <c r="K15" s="26" t="s">
         <v>185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="22">
+        <v>13</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="G16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="194">
   <si>
     <t>D</t>
   </si>
@@ -709,9 +709,20 @@
   </si>
   <si>
     <t>from 1 to n-1 , we will bring those element to correct position 
-how? by comparing with predessor and 
-swaping if predessor is &gt;then current element and
- j--;</t>
+how? by 
+1. comparing with predessor and ifpredessor is &gt;then current element
+2. swaping  and
+ 3. j--;
+till all element on left is sorted</t>
+  </si>
+  <si>
+    <t>Base Count Sort</t>
+  </si>
+  <si>
+    <t>Count Sort</t>
+  </si>
+  <si>
+    <t>freqmap, fill the array</t>
   </si>
 </sst>
 </file>
@@ -2322,10 +2333,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F17" sqref="F16:F17"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2652,7 +2663,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>13</v>
       </c>
@@ -2667,6 +2678,25 @@
       </c>
       <c r="I16" s="25" t="s">
         <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="22">
+        <v>14</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="22">
+        <v>15</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="200">
   <si>
     <t>D</t>
   </si>
@@ -723,6 +723,25 @@
   </si>
   <si>
     <t>freqmap, fill the array</t>
+  </si>
+  <si>
+    <t>CP/InsertionSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>swap till you put the largest to end
+similarly do for 2nd largest</t>
+  </si>
+  <si>
+    <t>CP/CountSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/BaseCountSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Count Sort Stability</t>
+  </si>
+  <si>
+    <t>same as base count but handle -ve number</t>
   </si>
 </sst>
 </file>
@@ -891,7 +910,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -976,17 +995,20 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1724,7 +1746,7 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-      <c r="H13" s="32" t="s">
+      <c r="H13" s="30" t="s">
         <v>107</v>
       </c>
       <c r="I13" s="16" t="s">
@@ -1957,7 +1979,7 @@
       <c r="B23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="31" t="s">
         <v>19</v>
       </c>
       <c r="E23" s="6" t="s">
@@ -2333,10 +2355,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2351,7 +2373,7 @@
     <col min="8" max="8" width="28.28515625" style="23" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" style="25" customWidth="1"/>
     <col min="10" max="10" width="33.28515625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="20.85546875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -2395,7 +2417,7 @@
       <c r="J3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="32" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2421,7 +2443,7 @@
       <c r="J4" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="33" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2447,7 +2469,7 @@
       <c r="J5" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="K5" s="33" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2467,7 +2489,7 @@
       <c r="I6" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="K6" s="33" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2490,7 +2512,7 @@
       <c r="J7" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="31" t="s">
+      <c r="K7" s="33" t="s">
         <v>158</v>
       </c>
     </row>
@@ -2527,7 +2549,7 @@
       <c r="I9" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="K9" s="31" t="s">
+      <c r="K9" s="33" t="s">
         <v>163</v>
       </c>
     </row>
@@ -2550,7 +2572,7 @@
       <c r="J10" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="K10" s="31" t="s">
+      <c r="K10" s="33" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2573,7 +2595,7 @@
       <c r="J11" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="33" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2596,7 +2618,7 @@
       <c r="J12" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="33" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2619,11 +2641,11 @@
       <c r="J13" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>11</v>
       </c>
@@ -2636,7 +2658,10 @@
       <c r="G14" s="6">
         <v>0</v>
       </c>
-      <c r="K14" s="26" t="s">
+      <c r="I14" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="33" t="s">
         <v>183</v>
       </c>
     </row>
@@ -2659,7 +2684,7 @@
       <c r="J15" s="25" t="s">
         <v>186</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="33" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2679,24 +2704,62 @@
       <c r="I16" s="25" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>14</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>191</v>
       </c>
+      <c r="F17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
       <c r="I17" s="25" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="26" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <v>15</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>192</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K18" s="26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="22">
+        <v>16</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2712,9 +2775,12 @@
     <hyperlink ref="K13" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PivotInSortedAndRotatedArray.java"/>
     <hyperlink ref="K14" r:id="rId10" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BubbleSort.java"/>
     <hyperlink ref="K15" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/SelectionSort.java"/>
+    <hyperlink ref="K16" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/InsertionSort.java"/>
+    <hyperlink ref="K18" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSort.java"/>
+    <hyperlink ref="K17" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BaseCountSort.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId12"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="202">
   <si>
     <t>D</t>
   </si>
@@ -742,6 +742,12 @@
   </si>
   <si>
     <t>same as base count but handle -ve number</t>
+  </si>
+  <si>
+    <t>CP/CountSortStability.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>here we are maintaining the order of repeated elements</t>
   </si>
 </sst>
 </file>
@@ -2358,7 +2364,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,7 +2754,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>16</v>
       </c>
@@ -2760,6 +2766,12 @@
       </c>
       <c r="G19" s="6">
         <v>0</v>
+      </c>
+      <c r="I19" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2778,9 +2790,10 @@
     <hyperlink ref="K16" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/InsertionSort.java"/>
     <hyperlink ref="K18" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSort.java"/>
     <hyperlink ref="K17" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BaseCountSort.java"/>
+    <hyperlink ref="K19" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSortStability.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -2364,7 +2364,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="206">
   <si>
     <t>D</t>
   </si>
@@ -640,9 +640,6 @@
     <t>Quick Select</t>
   </si>
   <si>
-    <t>need to get the kth smallest index</t>
-  </si>
-  <si>
     <t>assume last index as pivot element
 get the partition index(means bring last index which is at correct position),
 if k==pivot then  returen
@@ -660,10 +657,6 @@
   </si>
   <si>
     <t>CP/TargetSumPair.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>sort
-then I and j iterator at left and right</t>
   </si>
   <si>
     <t>CP/PivotInSortedAndRotatedArray.java at main · spartan4cs/CP (github.com)</t>
@@ -708,7 +701,60 @@
     <t>We find  the index with min element(min index) and swap with current iteration index(i) if elemtn is smaller</t>
   </si>
   <si>
-    <t>from 1 to n-1 , we will bring those element to correct position 
+    <t>Base Count Sort</t>
+  </si>
+  <si>
+    <t>Count Sort</t>
+  </si>
+  <si>
+    <t>freqmap, fill the array</t>
+  </si>
+  <si>
+    <t>CP/InsertionSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>swap till you put the largest to end
+similarly do for 2nd largest</t>
+  </si>
+  <si>
+    <t>CP/CountSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/BaseCountSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Count Sort Stability</t>
+  </si>
+  <si>
+    <t>same as base count but handle -ve number</t>
+  </si>
+  <si>
+    <t>CP/CountSortStability.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Seive Of Erathosthenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+partition will brig the pivot at correct index of sorting 
+element ot left (in order )will be less then pivot element and 
+element to right(random order based on swaps) will be greater then pivot</t>
+  </si>
+  <si>
+    <t>need to get the kth smallest index(logn)</t>
+  </si>
+  <si>
+    <t>sort and 
+then I and j iterator at left and right
+but duplicacy will not be managed using this approach</t>
+  </si>
+  <si>
+    <t>at every iteration , 1 element will be sorted from back
+for eg, iteration1  - 1 element
+iteration 2 -2 elemtn</t>
+  </si>
+  <si>
+    <t>from 1 to n-1 , we will bring those element to correct position one by one
 how? by 
 1. comparing with predessor and ifpredessor is &gt;then current element
 2. swaping  and
@@ -716,38 +762,10 @@
 till all element on left is sorted</t>
   </si>
   <si>
-    <t>Base Count Sort</t>
-  </si>
-  <si>
-    <t>Count Sort</t>
-  </si>
-  <si>
-    <t>freqmap, fill the array</t>
-  </si>
-  <si>
-    <t>CP/InsertionSort.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>swap till you put the largest to end
-similarly do for 2nd largest</t>
-  </si>
-  <si>
-    <t>CP/CountSort.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/BaseCountSort.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>Count Sort Stability</t>
-  </si>
-  <si>
-    <t>same as base count but handle -ve number</t>
-  </si>
-  <si>
-    <t>CP/CountSortStability.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>here we are maintaining the order of repeated elements</t>
+    <t>if element is sorted then insertion is very fast and for quick sort it is worst case - case dependent and merge sort is avg case i.e &gt;insertion and &lt;quick</t>
+  </si>
+  <si>
+    <t>here we are maintaining the order of repeated elements using prefix sum of frequency</t>
   </si>
 </sst>
 </file>
@@ -916,7 +934,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,6 +1033,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2361,10 +2382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2376,7 +2397,7 @@
     <col min="5" max="5" width="20.7109375" style="22" customWidth="1"/>
     <col min="6" max="6" width="20.42578125" style="6" customWidth="1"/>
     <col min="7" max="7" width="18.140625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" style="23" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" style="25" customWidth="1"/>
     <col min="9" max="9" width="39.7109375" style="25" customWidth="1"/>
     <col min="10" max="10" width="33.28515625" style="25" customWidth="1"/>
     <col min="11" max="11" width="20.85546875" style="34" customWidth="1"/>
@@ -2385,11 +2406,13 @@
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F1" s="22"/>
       <c r="G1" s="22"/>
+      <c r="H1" s="23"/>
       <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
       <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,7 +2533,7 @@
         <v>35</v>
       </c>
       <c r="G7" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="25" t="s">
         <v>162</v>
@@ -2529,7 +2552,7 @@
       <c r="D8" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="35" t="s">
         <v>161</v>
       </c>
       <c r="G8" s="6">
@@ -2544,194 +2567,197 @@
         <v>6</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>35</v>
+        <v>198</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>161</v>
       </c>
       <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <v>7</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10" s="25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K10" s="33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <v>8</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G11" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J11" s="25" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="K11" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <v>9</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>171</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="J12" s="25" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="K12" s="33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <v>10</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="J13" s="25" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K13" s="33" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <v>11</v>
       </c>
       <c r="D14" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>195</v>
+      <c r="J14" s="25" t="s">
+        <v>179</v>
       </c>
       <c r="K14" s="33" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <v>12</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>202</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="J15" s="25" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>13</v>
       </c>
       <c r="D16" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="I16" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>190</v>
+      <c r="J16" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="22">
         <v>14</v>
       </c>
       <c r="D17" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="K17" s="33" t="s">
         <v>191</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="K17" s="26" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -2739,39 +2765,59 @@
         <v>15</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G18" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <v>16</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="25" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>200</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="22">
+        <v>17</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="I20" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2780,17 +2826,17 @@
     <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/Sort01.java"/>
     <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeTwoSortedArr.java"/>
     <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeSort.java"/>
-    <hyperlink ref="K9" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PartitionOfArray.java"/>
-    <hyperlink ref="K10" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSort.java"/>
-    <hyperlink ref="K11" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSelect.java"/>
-    <hyperlink ref="K12" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/TargetSumPair.java"/>
-    <hyperlink ref="K13" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PivotInSortedAndRotatedArray.java"/>
-    <hyperlink ref="K14" r:id="rId10" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BubbleSort.java"/>
-    <hyperlink ref="K15" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/SelectionSort.java"/>
-    <hyperlink ref="K16" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/InsertionSort.java"/>
-    <hyperlink ref="K18" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSort.java"/>
-    <hyperlink ref="K17" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BaseCountSort.java"/>
-    <hyperlink ref="K19" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSortStability.java"/>
+    <hyperlink ref="K10" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PartitionOfArray.java"/>
+    <hyperlink ref="K11" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSort.java"/>
+    <hyperlink ref="K12" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSelect.java"/>
+    <hyperlink ref="K13" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/TargetSumPair.java"/>
+    <hyperlink ref="K14" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PivotInSortedAndRotatedArray.java"/>
+    <hyperlink ref="K15" r:id="rId10" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BubbleSort.java"/>
+    <hyperlink ref="K16" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/SelectionSort.java"/>
+    <hyperlink ref="K17" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/InsertionSort.java"/>
+    <hyperlink ref="K19" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSort.java"/>
+    <hyperlink ref="K18" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BaseCountSort.java"/>
+    <hyperlink ref="K20" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSortStability.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="362">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1222,6 +1222,20 @@
   </si>
   <si>
     <t xml:space="preserve"> Order Of Compilation </t>
+  </si>
+  <si>
+    <t>from right to left, applying count sort on each element
+doesn’t work on -ve no , 
+used for sorting mobile nos , date sort</t>
+  </si>
+  <si>
+    <t>Java tricks for competitive programming (for Java 8) - GeeksforGeeks</t>
+  </si>
+  <si>
+    <t>tips and tricks</t>
+  </si>
+  <si>
+    <t>Fast I/O in Java in Competitive Programming - GeeksforGeeks</t>
   </si>
 </sst>
 </file>
@@ -1794,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G17"/>
+  <dimension ref="B2:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,7 +1821,7 @@
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>132</v>
       </c>
@@ -1817,8 +1831,11 @@
       <c r="G2" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>134</v>
       </c>
@@ -1831,8 +1848,11 @@
       <c r="G3">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="J3" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>135</v>
       </c>
@@ -1845,8 +1865,11 @@
       <c r="G4">
         <v>97</v>
       </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="J4" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>138</v>
       </c>
@@ -1854,7 +1877,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>139</v>
       </c>
@@ -1862,13 +1885,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="12"/>
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E17" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" display="https://www.geeksforgeeks.org/java-tricks-competitive-programming-java-8/"/>
+    <hyperlink ref="J4" r:id="rId2" display="https://www.geeksforgeeks.org/fast-io-in-java-in-competitive-programming/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1878,7 +1905,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A1048576"/>
+      <selection activeCell="D4" sqref="D4:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,7 +2081,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2264,8 +2291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3218,8 +3245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3656,12 +3683,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
         <v>205</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3715,8 +3745,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4120,10 +4150,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4139,13 +4169,13 @@
     <col min="10" max="10" width="30" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>53</v>
       </c>
@@ -4176,8 +4206,11 @@
       <c r="J3" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4194,7 +4227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4211,7 +4244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -4228,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -4245,7 +4278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -4262,7 +4295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -4279,7 +4312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -4293,10 +4326,10 @@
         <v>34</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -4310,10 +4343,10 @@
         <v>34</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -4327,10 +4360,10 @@
         <v>34</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -4344,10 +4377,10 @@
         <v>34</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -4364,7 +4397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -4381,7 +4414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -4442,6 +4475,12 @@
       <c r="E19" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="F19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -4453,6 +4492,12 @@
       <c r="E20" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="F20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -4464,6 +4509,12 @@
       <c r="E21" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="F21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -4475,6 +4526,12 @@
       <c r="E22" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="F22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -4486,6 +4543,12 @@
       <c r="E23" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="F23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -4497,6 +4560,12 @@
       <c r="E24" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="F24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -4508,6 +4577,12 @@
       <c r="E25" s="5" t="s">
         <v>33</v>
       </c>
+      <c r="F25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -4518,6 +4593,12 @@
       </c>
       <c r="E26" s="5" t="s">
         <v>33</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -4543,7 +4624,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4817,7 +4898,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D33" sqref="D4:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5123,7 +5204,7 @@
   <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D20" sqref="D20:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="366">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1236,6 +1236,22 @@
   </si>
   <si>
     <t>Fast I/O in Java in Competitive Programming - GeeksforGeeks</t>
+  </si>
+  <si>
+    <t>((a + b) + (c + d)) -&gt; false
+(a + b) + ((c + d)) -&gt; true</t>
+  </si>
+  <si>
+    <t>CP/BalancedBracket.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Duplicatebracket.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // [(a + b) + {(c + d) * (e / f)}] -&gt; true
+    // [(a + b) + {(c + d) * (e / f)]} -&gt; false
+    // [(a + b) + {(c + d) * (e / f)} -&gt; false
+    // ([(a + b) + {(c + d) * (e / f)}] -&gt; false</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1420,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1520,6 +1536,9 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -4153,7 +4172,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4164,16 +4183,19 @@
     <col min="5" max="5" width="15.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="33.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="44.140625" style="10" customWidth="1"/>
     <col min="9" max="9" width="51.140625" style="10" customWidth="1"/>
     <col min="10" max="10" width="30" style="11" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" s="8"/>
+      <c r="K1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D2" s="8"/>
+      <c r="K2"/>
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -4224,10 +4246,16 @@
         <v>34</v>
       </c>
       <c r="G4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -4241,7 +4269,13 @@
         <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -4615,6 +4649,10 @@
     <row r="32" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/BalancedBracket.java"/>
+    <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Duplicatebracket.java"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="372">
   <si>
     <t>TOPIC</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>Balanced Bracket</t>
-  </si>
-  <si>
-    <t>Next Greater Element</t>
   </si>
   <si>
     <t>Stock span</t>
@@ -1252,6 +1249,35 @@
     // [(a + b) + {(c + d) * (e / f)]} -&gt; false
     // [(a + b) + {(c + d) * (e / f)} -&gt; false
     // ([(a + b) + {(c + d) * (e / f)}] -&gt; false</t>
+  </si>
+  <si>
+    <t>checking If there is content between 2 bracket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cehcking the corresponign opening bracket annd stack not empty </t>
+  </si>
+  <si>
+    <t>CP/NGETR.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Next Greater Element to right</t>
+  </si>
+  <si>
+    <t>other variation, next small element to right and left
+NGETL,NSETR,NSETL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to right , means always start from right
+to left mean always start from left
+consider like this, you will start form right
+you always push the element from right but before pushing you need to do some things,
+cehck if current elemtn is &gt;peek then pop,
+but if you get some greater elemt then set else there willbe time when stack will be empty, so set -1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">consider there is sun, and
+jo greater he uske shadow me jitne log he vo span he, including greater element itself </t>
   </si>
 </sst>
 </file>
@@ -1842,24 +1868,24 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>133</v>
-      </c>
       <c r="G2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1868,29 +1894,29 @@
         <v>48</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G4">
         <v>97</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G5">
         <v>65</v>
@@ -1898,7 +1924,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G6">
         <v>32</v>
@@ -1945,7 +1971,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -1975,7 +2001,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1983,7 +2009,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1991,7 +2017,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1999,7 +2025,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2007,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2015,7 +2041,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2023,7 +2049,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2031,7 +2057,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2039,7 +2065,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2047,7 +2073,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2055,7 +2081,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2063,7 +2089,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2071,7 +2097,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2079,7 +2105,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,7 +2113,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2124,7 +2150,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -2154,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2162,7 +2188,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2170,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2178,7 +2204,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2186,7 +2212,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2194,7 +2220,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2202,7 +2228,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2210,7 +2236,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2218,7 +2244,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2226,7 +2252,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2234,7 +2260,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2242,7 +2268,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2250,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2258,7 +2284,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2266,7 +2292,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2274,7 +2300,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2282,7 +2308,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2290,7 +2316,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2298,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2330,10 +2356,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J1" s="11"/>
     </row>
@@ -2343,7 +2369,7 @@
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -2370,10 +2396,10 @@
         <v>38</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2396,13 +2422,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2425,13 +2451,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2454,13 +2480,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2483,13 +2509,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2512,13 +2538,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2526,19 +2552,19 @@
         <v>6</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2561,16 +2587,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2593,16 +2619,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2625,13 +2651,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2654,16 +2680,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2686,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2712,7 +2738,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2735,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2758,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2781,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -2807,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -2830,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2853,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -2876,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -2899,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -2928,13 +2954,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2957,13 +2983,13 @@
         <v>1</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2986,13 +3012,13 @@
         <v>1</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3015,16 +3041,16 @@
         <v>1</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I27" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="K27" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3047,13 +3073,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3076,16 +3102,16 @@
         <v>1</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3108,16 +3134,16 @@
         <v>2</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J30" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3140,16 +3166,16 @@
         <v>2</v>
       </c>
       <c r="H31" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="J31" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="177" customHeight="1" x14ac:dyDescent="0.25">
@@ -3160,7 +3186,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>33</v>
@@ -3172,30 +3198,30 @@
         <v>2</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3218,16 +3244,16 @@
         <v>2</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3299,7 +3325,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -3329,7 +3355,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3337,7 +3363,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>34</v>
@@ -3346,16 +3372,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3363,7 +3389,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
@@ -3372,16 +3398,16 @@
         <v>1</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -3389,7 +3415,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>34</v>
@@ -3398,10 +3424,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3409,7 +3435,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>34</v>
@@ -3418,13 +3444,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3432,16 +3458,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3449,10 +3475,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -3463,7 +3489,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>34</v>
@@ -3472,10 +3498,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -3483,7 +3509,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>34</v>
@@ -3492,13 +3518,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -3506,7 +3532,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>34</v>
@@ -3515,16 +3541,16 @@
         <v>1</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="K12" s="21" t="s">
         <v>170</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3532,7 +3558,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>34</v>
@@ -3541,13 +3567,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J13" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="21" t="s">
         <v>173</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -3555,7 +3581,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>34</v>
@@ -3564,13 +3590,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3578,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>34</v>
@@ -3587,13 +3613,13 @@
         <v>1</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="195" x14ac:dyDescent="0.25">
@@ -3601,7 +3627,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>34</v>
@@ -3610,13 +3636,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -3624,22 +3650,22 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>185</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3647,7 +3673,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>34</v>
@@ -3656,10 +3682,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3667,7 +3693,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>34</v>
@@ -3676,10 +3702,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3687,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>34</v>
@@ -3696,10 +3722,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3707,10 +3733,10 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3718,7 +3744,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3726,7 +3752,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3734,7 +3760,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3787,7 +3813,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -3817,7 +3843,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -3825,7 +3851,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G4" s="38">
         <v>0</v>
@@ -3836,7 +3862,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G5" s="38">
         <v>0</v>
@@ -3847,7 +3873,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G6" s="38">
         <v>0</v>
@@ -3858,7 +3884,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G7" s="38">
         <v>0</v>
@@ -3869,7 +3895,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G8" s="38">
         <v>0</v>
@@ -3880,7 +3906,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G9" s="38">
         <v>0</v>
@@ -3891,10 +3917,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G10" s="38">
         <v>0</v>
@@ -3905,7 +3931,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G11" s="38">
         <v>0</v>
@@ -3916,10 +3942,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G12" s="38">
         <v>0</v>
@@ -3930,7 +3956,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="36" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G13" s="38">
         <v>0</v>
@@ -3941,7 +3967,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="36" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G14" s="38">
         <v>0</v>
@@ -3952,7 +3978,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G15" s="38">
         <v>0</v>
@@ -3963,7 +3989,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G16" s="38">
         <v>0</v>
@@ -3974,7 +4000,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="38">
         <v>0</v>
@@ -3985,7 +4011,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="36" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G18" s="38">
         <v>0</v>
@@ -3996,7 +4022,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G19" s="38">
         <v>0</v>
@@ -4007,7 +4033,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G20" s="38">
         <v>0</v>
@@ -4018,7 +4044,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="36" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G21" s="38">
         <v>0</v>
@@ -4029,7 +4055,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G22" s="38">
         <v>0</v>
@@ -4040,7 +4066,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G23" s="38">
         <v>0</v>
@@ -4051,7 +4077,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G24" s="38">
         <v>0</v>
@@ -4062,7 +4088,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G25" s="38">
         <v>0</v>
@@ -4073,7 +4099,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G26" s="38">
         <v>0</v>
@@ -4084,7 +4110,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G27" s="38">
         <v>0</v>
@@ -4095,7 +4121,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G28" s="38">
         <v>0</v>
@@ -4106,7 +4132,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G29" s="38">
         <v>0</v>
@@ -4117,10 +4143,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E30" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G30" s="38">
         <v>0</v>
@@ -4131,10 +4157,10 @@
         <v>28</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G31" s="38">
         <v>0</v>
@@ -4145,7 +4171,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G32" s="38">
         <v>0</v>
@@ -4156,7 +4182,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G33" s="38">
         <v>0</v>
@@ -4172,34 +4198,37 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="6.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="8" customWidth="1"/>
     <col min="4" max="4" width="52.85546875" style="18" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="44.140625" style="10" customWidth="1"/>
     <col min="9" max="9" width="51.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="30" style="11" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="11" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1"/>
       <c r="D1" s="8"/>
       <c r="K1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2"/>
       <c r="D2" s="8"/>
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -4229,11 +4258,11 @@
         <v>35</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="31" t="s">
@@ -4249,14 +4278,17 @@
         <v>3</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>365</v>
       </c>
       <c r="K4" s="40" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="D5" s="34" t="s">
@@ -4272,18 +4304,21 @@
         <v>3</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="K5" s="40" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="31" t="s">
-        <v>42</v>
+      <c r="D6" s="30" t="s">
+        <v>368</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>33</v>
@@ -4294,13 +4329,22 @@
       <c r="G6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="H6" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>33</v>
@@ -4311,13 +4355,16 @@
       <c r="G7" s="2">
         <v>2</v>
       </c>
+      <c r="I7" s="10" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>33</v>
@@ -4330,11 +4377,11 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>33</v>
@@ -4347,11 +4394,11 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="D10" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>33</v>
@@ -4364,11 +4411,11 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>33</v>
@@ -4381,11 +4428,11 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>33</v>
@@ -4398,11 +4445,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>33</v>
@@ -4415,11 +4462,11 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>33</v>
@@ -4432,11 +4479,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>33</v>
@@ -4449,11 +4496,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="D16" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>33</v>
@@ -4466,11 +4513,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>33</v>
@@ -4483,11 +4530,11 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>33</v>
@@ -4500,11 +4547,11 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>33</v>
@@ -4517,11 +4564,11 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="D20" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>33</v>
@@ -4534,11 +4581,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>33</v>
@@ -4551,11 +4598,11 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="D22" s="29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>33</v>
@@ -4568,11 +4615,11 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>33</v>
@@ -4585,11 +4632,11 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="5">
         <v>21</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>33</v>
@@ -4602,11 +4649,11 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="5">
         <v>22</v>
       </c>
       <c r="D25" s="29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>33</v>
@@ -4619,11 +4666,11 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="5">
         <v>23</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>33</v>
@@ -4636,11 +4683,11 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="5">
         <v>24</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>33</v>
@@ -4652,8 +4699,10 @@
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/BalancedBracket.java"/>
     <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Duplicatebracket.java"/>
+    <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NGETR.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -4685,7 +4734,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -4715,7 +4764,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4723,7 +4772,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -4731,7 +4780,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -4739,7 +4788,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -4747,7 +4796,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4755,7 +4804,7 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4763,7 +4812,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4771,7 +4820,7 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -4779,7 +4828,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4787,7 +4836,7 @@
         <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -4795,7 +4844,7 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -4803,7 +4852,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -4811,7 +4860,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -4819,7 +4868,7 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4827,7 +4876,7 @@
         <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -4835,7 +4884,7 @@
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -4843,7 +4892,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -4851,7 +4900,7 @@
         <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,7 +4908,7 @@
         <v>18</v>
       </c>
       <c r="D21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -4867,7 +4916,7 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,7 +4924,7 @@
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -4883,7 +4932,7 @@
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4891,7 +4940,7 @@
         <v>22</v>
       </c>
       <c r="D25" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -4899,7 +4948,7 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4907,7 +4956,7 @@
         <v>24</v>
       </c>
       <c r="D27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4915,7 +4964,7 @@
         <v>25</v>
       </c>
       <c r="D28" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -4923,7 +4972,7 @@
         <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4959,7 +5008,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -4989,7 +5038,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -4997,7 +5046,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5005,7 +5054,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5013,7 +5062,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5021,7 +5070,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5029,7 +5078,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5037,7 +5086,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5045,7 +5094,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5053,7 +5102,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5061,7 +5110,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5069,7 +5118,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5077,7 +5126,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5085,7 +5134,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5093,7 +5142,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5101,7 +5150,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5109,7 +5158,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5117,7 +5166,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5125,7 +5174,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5133,7 +5182,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5141,7 +5190,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5149,7 +5198,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5157,7 +5206,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5165,7 +5214,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -5173,7 +5222,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5181,7 +5230,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,7 +5238,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,7 +5246,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5205,7 +5254,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5213,7 +5262,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -5221,7 +5270,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -5229,7 +5278,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5265,7 +5314,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -5295,7 +5344,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5303,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5311,7 +5360,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5319,7 +5368,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5327,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5335,7 +5384,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5343,7 +5392,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5351,7 +5400,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5359,7 +5408,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5367,7 +5416,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5375,7 +5424,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5383,7 +5432,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5391,7 +5440,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5399,7 +5448,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5407,7 +5456,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5415,7 +5464,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5423,7 +5472,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5431,7 +5480,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5439,7 +5488,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5447,7 +5496,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5455,7 +5504,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5489,7 +5538,7 @@
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -5519,7 +5568,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5527,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5535,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5543,7 +5592,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5551,7 +5600,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5559,7 +5608,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5567,7 +5616,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5575,7 +5624,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5583,7 +5632,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5591,7 +5640,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5599,7 +5648,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="373">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1278,6 +1278,9 @@
   <si>
     <t xml:space="preserve">consider there is sun, and
 jo greater he uske shadow me jitne log he vo span he, including greater element itself </t>
+  </si>
+  <si>
+    <t>CP/StockSpan.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -2336,7 +2339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -3290,7 +3293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4198,7 +4201,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4327,7 +4330,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>369</v>
@@ -4335,7 +4338,7 @@
       <c r="I6" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="21" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4353,10 +4356,13 @@
         <v>34</v>
       </c>
       <c r="G7" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>371</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -4700,9 +4706,10 @@
     <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/BalancedBracket.java"/>
     <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Duplicatebracket.java"/>
     <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NGETR.java"/>
+    <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/StockSpan.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="375">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1281,6 +1281,14 @@
   </si>
   <si>
     <t>CP/StockSpan.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>you have height= arr[i],
+you need to find width-&gt; how? Right boundary(nsetr)-leftboundary(nsetl)
+and get max area.</t>
+  </si>
+  <si>
+    <t>CP/LargestAreaHistogram.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -4201,7 +4209,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4365,7 +4373,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -4379,7 +4387,13 @@
         <v>34</v>
       </c>
       <c r="G8" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4707,9 +4721,10 @@
     <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Duplicatebracket.java"/>
     <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NGETR.java"/>
     <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/StockSpan.java"/>
+    <hyperlink ref="K8" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/LargestAreaHistogram.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="377">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1289,6 +1289,12 @@
   </si>
   <si>
     <t>CP/LargestAreaHistogram.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Searching&amp;Sorting.pdf at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Stacks and queues.pdf at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -2347,8 +2353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3284,13 +3290,13 @@
     <hyperlink ref="K31" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/TargetSumSubset.java"/>
     <hyperlink ref="K27" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintMazePathWithJumps.java"/>
     <hyperlink ref="K26" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintMazePath.java"/>
-    <hyperlink ref="E1" r:id="rId16" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Recursion.pdf"/>
-    <hyperlink ref="K25" r:id="rId17" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintStairPath.java"/>
-    <hyperlink ref="K28" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintPermutation.java"/>
-    <hyperlink ref="K29" r:id="rId19" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintEncodings.java"/>
-    <hyperlink ref="K33" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenOptionLevelApproach.java"/>
-    <hyperlink ref="K32" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenSubsetApproach.java"/>
-    <hyperlink ref="K34" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/KnightsTour.java"/>
+    <hyperlink ref="K25" r:id="rId16" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintStairPath.java"/>
+    <hyperlink ref="K28" r:id="rId17" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintPermutation.java"/>
+    <hyperlink ref="K29" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintEncodings.java"/>
+    <hyperlink ref="K33" r:id="rId19" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenOptionLevelApproach.java"/>
+    <hyperlink ref="K32" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenSubsetApproach.java"/>
+    <hyperlink ref="K34" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/KnightsTour.java"/>
+    <hyperlink ref="E1" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Recursion.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId23"/>
@@ -3301,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3321,7 +3327,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D1" s="14"/>
+      <c r="D1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>375</v>
+      </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="14"/>
@@ -3791,9 +3802,10 @@
     <hyperlink ref="K19" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSort.java"/>
     <hyperlink ref="K18" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BaseCountSort.java"/>
     <hyperlink ref="K20" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSortStability.java"/>
+    <hyperlink ref="E1" r:id="rId16" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Searching%26Sorting.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -3801,7 +3813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -4209,7 +4221,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4229,7 +4241,12 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="D1" s="8"/>
+      <c r="D1" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>376</v>
+      </c>
       <c r="K1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -4722,9 +4739,10 @@
     <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NGETR.java"/>
     <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/StockSpan.java"/>
     <hyperlink ref="K8" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/LargestAreaHistogram.java"/>
+    <hyperlink ref="E1" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Stacks and queues.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5007,7 +5025,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D4:D33"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="381">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1296,12 +1296,24 @@
   <si>
     <t>CP/Stacks and queues.pdf at main · spartan4cs/CP (github.com)</t>
   </si>
+  <si>
+    <t>Leet Code</t>
+  </si>
+  <si>
+    <t>Daily Temperatures - LeetCode</t>
+  </si>
+  <si>
+    <t>based on nge</t>
+  </si>
+  <si>
+    <t>Next Greater Element II - LeetCode</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1358,8 +1370,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1398,6 +1417,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1453,7 +1477,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1462,8 +1486,9 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1583,13 +1608,33 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
     <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Good" xfId="8" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4218,10 +4263,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4549,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -4566,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -4583,7 +4628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -4600,7 +4645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -4617,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
@@ -4634,7 +4679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>19</v>
       </c>
@@ -4651,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
@@ -4668,7 +4713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>21</v>
       </c>
@@ -4685,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>22</v>
       </c>
@@ -4702,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>23</v>
       </c>
@@ -4719,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>24</v>
       </c>
@@ -4730,8 +4775,34 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:11" s="47" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="41"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="42"/>
+    </row>
+    <row r="33" spans="4:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D34" s="16" t="s">
+        <v>380</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/BalancedBracket.java"/>
@@ -4740,9 +4811,11 @@
     <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/StockSpan.java"/>
     <hyperlink ref="K8" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/LargestAreaHistogram.java"/>
     <hyperlink ref="E1" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Stacks and queues.pdf"/>
+    <hyperlink ref="D33" r:id="rId7" display="https://leetcode.com/problems/daily-temperatures/"/>
+    <hyperlink ref="D34" r:id="rId8" display="https://leetcode.com/problems/next-greater-element-ii/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -4751,7 +4824,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:D29"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="383">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1308,12 +1308,20 @@
   <si>
     <t>Next Greater Element II - LeetCode</t>
   </si>
+  <si>
+    <t>PEPCODE</t>
+  </si>
+  <si>
+    <t>iterator I and I
+i= current element to window sized
+j will jump from nge to nge</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1372,6 +1380,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="48"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1614,9 +1629,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="8" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1627,6 +1639,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
@@ -4265,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4284,7 +4299,7 @@
     <col min="11" max="11" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="D1" s="5" t="s">
         <v>125</v>
@@ -4294,10 +4309,20 @@
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="D2" s="8"/>
-      <c r="K2"/>
+    <row r="2" spans="1:11" s="46" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="47" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -4458,7 +4483,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -4473,6 +4498,9 @@
       </c>
       <c r="G9" s="2">
         <v>2</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4774,23 +4802,32 @@
       <c r="E27" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" s="47" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="46" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="41"/>
       <c r="C32" s="42"/>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="47" t="s">
         <v>377</v>
       </c>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="45"/>
-      <c r="J32" s="46"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
       <c r="K32" s="42"/>
     </row>
-    <row r="33" spans="4:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>1</v>
+      </c>
       <c r="D33" s="16" t="s">
         <v>378</v>
       </c>
@@ -4798,7 +4835,10 @@
         <v>379</v>
       </c>
     </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>2</v>
+      </c>
       <c r="D34" s="16" t="s">
         <v>380</v>
       </c>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="385">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1315,6 +1315,12 @@
     <t>iterator I and I
 i= current element to window sized
 j will jump from nge to nge</t>
+  </si>
+  <si>
+    <t>CP/SlidingWindowMax.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Next Greater Element I - LeetCode</t>
   </si>
 </sst>
 </file>
@@ -4278,10 +4284,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4497,10 +4503,13 @@
         <v>34</v>
       </c>
       <c r="G9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>382</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -4831,6 +4840,12 @@
       <c r="D33" s="16" t="s">
         <v>378</v>
       </c>
+      <c r="E33" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" s="2">
+        <v>1</v>
+      </c>
       <c r="H33" s="10" t="s">
         <v>379</v>
       </c>
@@ -4841,6 +4856,20 @@
       </c>
       <c r="D34" s="16" t="s">
         <v>380</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D35" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -4853,9 +4882,11 @@
     <hyperlink ref="E1" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Stacks and queues.pdf"/>
     <hyperlink ref="D33" r:id="rId7" display="https://leetcode.com/problems/daily-temperatures/"/>
     <hyperlink ref="D34" r:id="rId8" display="https://leetcode.com/problems/next-greater-element-ii/"/>
+    <hyperlink ref="K9" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/SlidingWindowMax.java"/>
+    <hyperlink ref="D35" r:id="rId10" display="https://leetcode.com/problems/next-greater-element-i/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="388">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1321,6 +1321,15 @@
   </si>
   <si>
     <t>Next Greater Element I - LeetCode</t>
+  </si>
+  <si>
+    <t>CP/Leet_NextGreaterElement_I.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Leet_DailyTemperature.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>based on nge, but trick here is, there is we can also check circulaly</t>
   </si>
 </sst>
 </file>
@@ -4286,8 +4295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4833,7 +4842,7 @@
       <c r="J32" s="45"/>
       <c r="K32" s="42"/>
     </row>
-    <row r="33" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1</v>
       </c>
@@ -4849,8 +4858,11 @@
       <c r="H33" s="10" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K33" s="16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2</v>
       </c>
@@ -4863,13 +4875,22 @@
       <c r="G34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H34" s="10" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="16" t="s">
         <v>384</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>33</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4884,9 +4905,11 @@
     <hyperlink ref="D34" r:id="rId8" display="https://leetcode.com/problems/next-greater-element-ii/"/>
     <hyperlink ref="K9" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/SlidingWindowMax.java"/>
     <hyperlink ref="D35" r:id="rId10" display="https://leetcode.com/problems/next-greater-element-i/"/>
+    <hyperlink ref="K35" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_NextGreaterElement_I.java"/>
+    <hyperlink ref="K33" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_DailyTemperature.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="390">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1330,6 +1330,12 @@
   </si>
   <si>
     <t>based on nge, but trick here is, there is we can also check circulaly</t>
+  </si>
+  <si>
+    <t>CP/Leet_Next_Greater_Element_II.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>iterate twice fromm right to left, to see the circular nature</t>
   </si>
 </sst>
 </file>
@@ -4295,8 +4301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4878,8 +4884,17 @@
       <c r="H34" s="10" t="s">
         <v>387</v>
       </c>
+      <c r="I34" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="K34" s="16" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>3</v>
+      </c>
       <c r="D35" s="16" t="s">
         <v>384</v>
       </c>
@@ -4907,9 +4922,10 @@
     <hyperlink ref="D35" r:id="rId10" display="https://leetcode.com/problems/next-greater-element-i/"/>
     <hyperlink ref="K35" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_NextGreaterElement_I.java"/>
     <hyperlink ref="K33" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_DailyTemperature.java"/>
+    <hyperlink ref="K34" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Next_Greater_Element_II.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="389">
   <si>
     <t>TOPIC</t>
   </si>
@@ -867,9 +867,6 @@
     <t>medium</t>
   </si>
   <si>
-    <t xml:space="preserve"> Linked Lists - Introduction</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Odd Even Linked List Medium</t>
   </si>
   <si>
@@ -1335,7 +1332,9 @@
     <t>CP/Leet_Next_Greater_Element_II.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
-    <t>iterate twice fromm right to left, to see the circular nature</t>
+    <t>iterate twice fromm right to left, to see the circular nature
+in first iteration, it will store large number in stack
+then in 2ns iteration you can get the data from 1st iter</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1512,6 +1511,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1524,7 +1560,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1602,30 +1638,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="6" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1662,6 +1674,69 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1975,7 +2050,7 @@
         <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
@@ -1992,7 +2067,7 @@
         <v>48</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
@@ -2009,7 +2084,7 @@
         <v>97</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -2068,7 +2143,7 @@
       <c r="A2"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2086,16 +2161,16 @@
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="27" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
@@ -2107,7 +2182,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2115,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2123,7 +2198,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2131,7 +2206,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2139,7 +2214,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2147,7 +2222,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2155,7 +2230,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2163,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2171,7 +2246,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2179,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2187,7 +2262,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2195,7 +2270,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2203,7 +2278,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2211,7 +2286,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2229,7 +2304,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="38"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
     <col min="4" max="4" width="51.140625" style="25" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="60.85546875" customWidth="1"/>
@@ -2247,7 +2322,7 @@
       <c r="D2"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -2265,16 +2340,16 @@
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="27" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
@@ -2282,147 +2357,147 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>3</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>4</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>6</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>8</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>9</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>10</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>11</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>12</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>13</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>14</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>15</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>16</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>17</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>18</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
-        <v>2</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <v>3</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
-        <v>4</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
-        <v>5</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
-        <v>6</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>7</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>8</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>9</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <v>10</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>11</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>12</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>13</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>14</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>15</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>16</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>17</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>18</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2434,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,7 +2540,7 @@
       <c r="D2" s="8"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>64</v>
       </c>
@@ -2507,7 +2582,7 @@
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="46" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2536,7 +2611,7 @@
       <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="47" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2565,7 +2640,7 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="47" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2594,7 +2669,7 @@
       <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="47" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2623,7 +2698,7 @@
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="47" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2649,7 +2724,7 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="47" t="s">
         <v>86</v>
       </c>
       <c r="G9" s="2">
@@ -2672,7 +2747,7 @@
       <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="47" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2697,14 +2772,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="48" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -2736,7 +2811,7 @@
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="49" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2765,7 +2840,7 @@
       <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="50" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2797,7 +2872,7 @@
       <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="50" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2823,7 +2898,7 @@
       <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="50" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2846,7 +2921,7 @@
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="50" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -2862,14 +2937,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="51" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -2892,7 +2967,7 @@
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2918,7 +2993,7 @@
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="53" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2941,7 +3016,7 @@
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="53" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2964,7 +3039,7 @@
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="53" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2980,14 +3055,14 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="54" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -3010,7 +3085,7 @@
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="55" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3039,7 +3114,7 @@
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="31" t="s">
+      <c r="D24" s="56" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -3068,7 +3143,7 @@
       <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="56" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -3097,7 +3172,7 @@
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="31" t="s">
+      <c r="D26" s="56" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3126,7 +3201,7 @@
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="56" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -3158,7 +3233,7 @@
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="31" t="s">
+      <c r="D28" s="56" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -3180,14 +3255,14 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="57" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3219,7 +3294,7 @@
       <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="61" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -3251,7 +3326,7 @@
       <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" s="58" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -3283,7 +3358,7 @@
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="59" t="s">
         <v>145</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -3309,7 +3384,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="59" t="s">
         <v>146</v>
       </c>
       <c r="G33" s="2">
@@ -3322,14 +3397,14 @@
         <v>148</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
         <v>30</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="60" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -3388,7 +3463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -3412,7 +3487,7 @@
         <v>125</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3448,13 +3523,13 @@
       <c r="G3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="27" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
@@ -3839,7 +3914,7 @@
         <v>204</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3900,9 +3975,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="38"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
     <col min="4" max="4" width="41.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="38" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="51.85546875" customWidth="1"/>
     <col min="9" max="9" width="43.140625" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
@@ -3916,7 +3991,7 @@
       <c r="G2"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -3934,16 +4009,16 @@
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="27" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
@@ -3951,344 +4026,344 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
+      <c r="A5" s="30">
         <v>2</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
+      <c r="A6" s="30">
         <v>3</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
+      <c r="A7" s="30">
         <v>4</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
+      <c r="A8" s="30">
         <v>5</v>
       </c>
-      <c r="D8" s="36" t="s">
+      <c r="D8" s="28" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
+      <c r="A9" s="30">
         <v>6</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="28" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+      <c r="A10" s="30">
         <v>7</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="28" t="s">
         <v>214</v>
       </c>
       <c r="E10" t="s">
         <v>238</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
+      <c r="A11" s="30">
         <v>8</v>
       </c>
-      <c r="D11" s="36" t="s">
+      <c r="D11" s="28" t="s">
         <v>215</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
+      <c r="A12" s="30">
         <v>9</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="28" t="s">
         <v>216</v>
       </c>
       <c r="E12" t="s">
         <v>238</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
+      <c r="A13" s="30">
         <v>10</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="28" t="s">
         <v>217</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
+      <c r="A14" s="30">
         <v>11</v>
       </c>
-      <c r="D14" s="36" t="s">
+      <c r="D14" s="28" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
+      <c r="A15" s="30">
         <v>12</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
+      <c r="A16" s="30">
         <v>13</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="28" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
+      <c r="A17" s="30">
         <v>14</v>
       </c>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="28" t="s">
         <v>221</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
+      <c r="A18" s="30">
         <v>15</v>
       </c>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="28" t="s">
         <v>222</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
+      <c r="A19" s="30">
         <v>16</v>
       </c>
-      <c r="D19" s="36" t="s">
+      <c r="D19" s="28" t="s">
         <v>223</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
+      <c r="A20" s="30">
         <v>17</v>
       </c>
-      <c r="D20" s="36" t="s">
+      <c r="D20" s="28" t="s">
         <v>224</v>
       </c>
-      <c r="G20" s="38">
+      <c r="G20" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
+      <c r="A21" s="30">
         <v>18</v>
       </c>
-      <c r="D21" s="36" t="s">
+      <c r="D21" s="28" t="s">
         <v>225</v>
       </c>
-      <c r="G21" s="38">
+      <c r="G21" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
+      <c r="A22" s="30">
         <v>19</v>
       </c>
-      <c r="D22" s="36" t="s">
+      <c r="D22" s="28" t="s">
         <v>226</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
+      <c r="A23" s="30">
         <v>20</v>
       </c>
-      <c r="D23" s="36" t="s">
+      <c r="D23" s="28" t="s">
         <v>227</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
+      <c r="A24" s="30">
         <v>21</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="G24" s="38">
+      <c r="G24" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
+      <c r="A25" s="30">
         <v>22</v>
       </c>
-      <c r="D25" s="36" t="s">
+      <c r="D25" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
+      <c r="A26" s="30">
         <v>23</v>
       </c>
-      <c r="D26" s="36" t="s">
+      <c r="D26" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="G26" s="38">
+      <c r="G26" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
+      <c r="A27" s="30">
         <v>24</v>
       </c>
-      <c r="D27" s="36" t="s">
+      <c r="D27" s="28" t="s">
         <v>231</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
+      <c r="A28" s="30">
         <v>25</v>
       </c>
-      <c r="D28" s="36" t="s">
+      <c r="D28" s="28" t="s">
         <v>232</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
+      <c r="A29" s="30">
         <v>26</v>
       </c>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
+      <c r="A30" s="30">
         <v>27</v>
       </c>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="28" t="s">
         <v>234</v>
       </c>
       <c r="E30" t="s">
         <v>238</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
+      <c r="A31" s="30">
         <v>28</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="28" t="s">
         <v>235</v>
       </c>
       <c r="E31" t="s">
         <v>238</v>
       </c>
-      <c r="G31" s="38">
+      <c r="G31" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
+      <c r="A32" s="30">
         <v>29</v>
       </c>
-      <c r="D32" s="36" t="s">
+      <c r="D32" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="30">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
+      <c r="A33" s="30">
         <v>30</v>
       </c>
-      <c r="D33" s="36" t="s">
+      <c r="D33" s="28" t="s">
         <v>237</v>
       </c>
-      <c r="G33" s="38">
+      <c r="G33" s="30">
         <v>0</v>
       </c>
     </row>
@@ -4301,8 +4376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4326,26 +4401,26 @@
         <v>125</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" s="46" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="42"/>
-    </row>
-    <row r="3" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="39" t="s">
+        <v>380</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="34"/>
+    </row>
+    <row r="3" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
@@ -4384,7 +4459,7 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="62" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -4397,20 +4472,20 @@
         <v>3</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="K4" s="32" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="34" t="s">
+      <c r="D5" s="63" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -4423,21 +4498,21 @@
         <v>3</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="K5" s="40" t="s">
-        <v>362</v>
+        <v>365</v>
+      </c>
+      <c r="K5" s="32" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>368</v>
+      <c r="D6" s="64" t="s">
+        <v>367</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>33</v>
@@ -4449,20 +4524,20 @@
         <v>3</v>
       </c>
       <c r="H6" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>370</v>
-      </c>
       <c r="K6" s="21" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="56" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -4475,17 +4550,17 @@
         <v>3</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="K7" s="21" t="s">
         <v>371</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="56" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -4498,17 +4573,17 @@
         <v>3</v>
       </c>
       <c r="I8" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="K8" s="21" t="s">
         <v>373</v>
-      </c>
-      <c r="K8" s="21" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="56" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -4521,17 +4596,17 @@
         <v>3</v>
       </c>
       <c r="I9" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>382</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="56" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -4548,7 +4623,7 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="56" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -4565,7 +4640,7 @@
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="56" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4582,7 +4657,7 @@
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="56" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -4599,7 +4674,7 @@
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="56" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -4616,7 +4691,7 @@
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="56" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -4633,7 +4708,7 @@
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="56" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -4650,7 +4725,7 @@
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="D17" s="31" t="s">
+      <c r="D17" s="56" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -4667,7 +4742,7 @@
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="56" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -4684,7 +4759,7 @@
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="D19" s="31" t="s">
+      <c r="D19" s="56" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -4697,11 +4772,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="57" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -4718,7 +4793,7 @@
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="52" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -4735,7 +4810,7 @@
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="53" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -4752,7 +4827,7 @@
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="D23" s="29" t="s">
+      <c r="D23" s="53" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -4769,7 +4844,7 @@
       <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="D24" s="29" t="s">
+      <c r="D24" s="53" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -4786,7 +4861,7 @@
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="53" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -4803,7 +4878,7 @@
       <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="D26" s="29" t="s">
+      <c r="D26" s="53" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -4816,11 +4891,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="D27" s="29" t="s">
+      <c r="D27" s="54" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -4833,62 +4908,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="46" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="47" t="s">
-        <v>377</v>
-      </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="44"/>
-      <c r="I32" s="44"/>
-      <c r="J32" s="45"/>
-      <c r="K32" s="42"/>
+    <row r="32" spans="1:11" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="34"/>
     </row>
     <row r="33" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>238</v>
       </c>
+      <c r="F33" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="G33" s="2">
         <v>1</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>238</v>
       </c>
+      <c r="F34" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="G34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="K34" s="16" t="s">
         <v>387</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4896,16 +4977,22 @@
         <v>3</v>
       </c>
       <c r="D35" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" s="2">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>384</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -4933,16 +5020,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="38"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="5" customWidth="1"/>
     <col min="8" max="8" width="41" customWidth="1"/>
     <col min="9" max="9" width="42.7109375" customWidth="1"/>
     <col min="10" max="10" width="36.140625" customWidth="1"/>
@@ -4951,12 +5038,14 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1"/>
+      <c r="G1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2"/>
+      <c r="G2"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4974,228 +5063,344 @@
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="27" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>2</v>
+      </c>
+      <c r="D6" s="41" t="s">
+        <v>272</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>3</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>4</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>5</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>6</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>7</v>
+      </c>
+      <c r="D11" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30">
+        <v>8</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>9</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>10</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>11</v>
+      </c>
+      <c r="D15" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>12</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>13</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>14</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>15</v>
+      </c>
+      <c r="D19" s="44" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>16</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>286</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>17</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>287</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>18</v>
+      </c>
+      <c r="D22" s="44" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <v>10</v>
-      </c>
-      <c r="D13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>13</v>
-      </c>
-      <c r="D16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>18</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>19</v>
+      </c>
+      <c r="D23" s="44" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>20</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>289</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>21</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>290</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>22</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>291</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>23</v>
+      </c>
+      <c r="D27" s="44" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>24</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>293</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30">
+        <v>25</v>
+      </c>
+      <c r="D29" s="45" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>21</v>
-      </c>
-      <c r="D24" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
-        <v>22</v>
-      </c>
-      <c r="D25" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>23</v>
-      </c>
-      <c r="D26" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>241</v>
+      <c r="E29" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5213,7 +5418,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="38"/>
+    <col min="1" max="1" width="9.140625" style="30"/>
     <col min="4" max="4" width="45.140625" style="25" customWidth="1"/>
     <col min="7" max="7" width="21.42578125" customWidth="1"/>
     <col min="8" max="8" width="49.42578125" customWidth="1"/>
@@ -5230,7 +5435,7 @@
       <c r="D2"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5248,16 +5453,16 @@
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="27" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
@@ -5265,243 +5470,243 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
-        <v>2</v>
-      </c>
-      <c r="D5" s="25" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>3</v>
+      </c>
+      <c r="D6" s="25" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="38">
-        <v>3</v>
-      </c>
-      <c r="D6" s="25" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>4</v>
+      </c>
+      <c r="D7" s="25" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="38">
-        <v>4</v>
-      </c>
-      <c r="D7" s="25" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="38">
-        <v>5</v>
-      </c>
-      <c r="D8" s="25" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>6</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="38">
-        <v>6</v>
-      </c>
-      <c r="D9" s="25" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>7</v>
-      </c>
-      <c r="D10" s="25" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>8</v>
+      </c>
+      <c r="D11" s="25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>8</v>
-      </c>
-      <c r="D11" s="25" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>9</v>
+      </c>
+      <c r="D12" s="25" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="38">
-        <v>9</v>
-      </c>
-      <c r="D12" s="25" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>10</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38">
-        <v>10</v>
-      </c>
-      <c r="D13" s="25" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>11</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>11</v>
-      </c>
-      <c r="D14" s="25" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>12</v>
+      </c>
+      <c r="D15" s="25" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>12</v>
-      </c>
-      <c r="D15" s="25" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>13</v>
+      </c>
+      <c r="D16" s="25" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="38">
-        <v>13</v>
-      </c>
-      <c r="D16" s="25" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>14</v>
+      </c>
+      <c r="D17" s="25" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="38">
-        <v>14</v>
-      </c>
-      <c r="D17" s="25" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>15</v>
+      </c>
+      <c r="D18" s="25" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="38">
-        <v>15</v>
-      </c>
-      <c r="D18" s="25" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>16</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>16</v>
-      </c>
-      <c r="D19" s="25" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>17</v>
+      </c>
+      <c r="D20" s="25" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>17</v>
-      </c>
-      <c r="D20" s="25" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>18</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>18</v>
-      </c>
-      <c r="D21" s="25" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>19</v>
+      </c>
+      <c r="D22" s="25" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="38">
-        <v>19</v>
-      </c>
-      <c r="D22" s="25" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>20</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>20</v>
-      </c>
-      <c r="D23" s="25" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>21</v>
+      </c>
+      <c r="D24" s="25" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="38">
-        <v>21</v>
-      </c>
-      <c r="D24" s="25" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>22</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="38">
-        <v>22</v>
-      </c>
-      <c r="D25" s="25" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>23</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="38">
-        <v>23</v>
-      </c>
-      <c r="D26" s="25" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>24</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="38">
-        <v>24</v>
-      </c>
-      <c r="D27" s="25" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>25</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>25</v>
-      </c>
-      <c r="D28" s="25" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>26</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="38">
-        <v>26</v>
-      </c>
-      <c r="D29" s="25" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>27</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="38">
-        <v>27</v>
-      </c>
-      <c r="D30" s="25" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>28</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="38">
-        <v>28</v>
-      </c>
-      <c r="D31" s="25" t="s">
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>29</v>
+      </c>
+      <c r="D32" s="25" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="38">
-        <v>29</v>
-      </c>
-      <c r="D32" s="25" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>30</v>
+      </c>
+      <c r="D33" s="25" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
-        <v>30</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5536,7 +5741,7 @@
       <c r="D2"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5554,16 +5759,16 @@
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="27" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
@@ -5575,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5583,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5591,7 +5796,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5599,7 +5804,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5607,7 +5812,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5615,7 +5820,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5623,7 +5828,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5631,7 +5836,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5639,7 +5844,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5647,7 +5852,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5655,7 +5860,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -5663,7 +5868,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -5671,7 +5876,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -5679,7 +5884,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -5687,7 +5892,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -5695,7 +5900,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -5703,7 +5908,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5711,7 +5916,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5719,7 +5924,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5727,7 +5932,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5760,7 +5965,7 @@
       <c r="D2"/>
     </row>
     <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="29" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5778,16 +5983,16 @@
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="27" t="s">
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
@@ -5799,7 +6004,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -5807,7 +6012,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -5815,7 +6020,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -5823,7 +6028,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5831,7 +6036,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -5839,7 +6044,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -5847,7 +6052,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5855,7 +6060,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5863,7 +6068,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -5871,7 +6076,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="390">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1335,6 +1335,9 @@
     <t>iterate twice fromm right to left, to see the circular nature
 in first iteration, it will store large number in stack
 then in 2ns iteration you can get the data from 1st iter</t>
+  </si>
+  <si>
+    <t>Maximal Rectangle - LeetCode</t>
   </si>
 </sst>
 </file>
@@ -2510,7 +2513,7 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4374,10 +4377,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4995,6 +4998,14 @@
         <v>384</v>
       </c>
     </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>4</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/BalancedBracket.java"/>
@@ -5010,9 +5021,10 @@
     <hyperlink ref="K35" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_NextGreaterElement_I.java"/>
     <hyperlink ref="K33" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_DailyTemperature.java"/>
     <hyperlink ref="K34" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Next_Greater_Element_II.java"/>
+    <hyperlink ref="D36" r:id="rId14" display="https://leetcode.com/problems/maximal-rectangle/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId14"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -5020,7 +5032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="393">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1338,6 +1338,15 @@
   </si>
   <si>
     <t>Maximal Rectangle - LeetCode</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>recursicve approach and stack approach</t>
+  </si>
+  <si>
+    <t>trick is to create arr at every row</t>
   </si>
 </sst>
 </file>
@@ -4380,7 +4389,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5004,6 +5013,18 @@
       </c>
       <c r="D36" s="16" t="s">
         <v>389</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="394">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1343,10 +1343,16 @@
     <t>hard</t>
   </si>
   <si>
-    <t>recursicve approach and stack approach</t>
-  </si>
-  <si>
-    <t>trick is to create arr at every row</t>
+    <t>CP/Leet_Maximal_Rectangle.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursicve approach and stack approach
+</t>
+  </si>
+  <si>
+    <t>trick is to create arr at every row,
+then use largest area histogram for each row
+then get max of each row</t>
   </si>
 </sst>
 </file>
@@ -4389,7 +4395,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5007,7 +5013,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>4</v>
       </c>
@@ -5021,10 +5027,13 @@
         <v>34</v>
       </c>
       <c r="H36" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="K36" s="16" t="s">
         <v>391</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -5043,9 +5052,10 @@
     <hyperlink ref="K33" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_DailyTemperature.java"/>
     <hyperlink ref="K34" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Next_Greater_Element_II.java"/>
     <hyperlink ref="D36" r:id="rId14" display="https://leetcode.com/problems/maximal-rectangle/"/>
+    <hyperlink ref="K36" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Maximal_Rectangle.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="396">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1346,13 +1346,19 @@
     <t>CP/Leet_Maximal_Rectangle.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
-    <t xml:space="preserve">recursicve approach and stack approach
-</t>
-  </si>
-  <si>
     <t>trick is to create arr at every row,
 then use largest area histogram for each row
 then get max of each row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursive Approach,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> stack appraoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recursive approaach </t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1584,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1755,6 +1761,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -4392,10 +4401,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4955,7 +4964,7 @@
         <v>34</v>
       </c>
       <c r="G33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="10" t="s">
         <v>378</v>
@@ -4978,7 +4987,7 @@
         <v>34</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="10" t="s">
         <v>386</v>
@@ -5004,7 +5013,7 @@
         <v>34</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="10" t="s">
         <v>378</v>
@@ -5026,15 +5035,43 @@
       <c r="F36" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
       <c r="H36" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="I36" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="I36" s="10" t="s">
-        <v>393</v>
-      </c>
+      <c r="J36" s="65"/>
       <c r="K36" s="16" t="s">
         <v>391</v>
       </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>5</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="J37" s="65" t="s">
+        <v>393</v>
+      </c>
+      <c r="K37" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5053,9 +5090,11 @@
     <hyperlink ref="K34" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Next_Greater_Element_II.java"/>
     <hyperlink ref="D36" r:id="rId14" display="https://leetcode.com/problems/maximal-rectangle/"/>
     <hyperlink ref="K36" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Maximal_Rectangle.java"/>
+    <hyperlink ref="D37" r:id="rId16" display="https://leetcode.com/problems/maximal-rectangle/"/>
+    <hyperlink ref="J37" r:id="rId17" display="Recursive Approach"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="399">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1359,6 +1359,15 @@
   </si>
   <si>
     <t xml:space="preserve">recursive approaach </t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum - LeetCode</t>
+  </si>
+  <si>
+    <t>stack approach</t>
+  </si>
+  <si>
+    <t>check the edge case for last element, when nge jumps</t>
   </si>
 </sst>
 </file>
@@ -4401,10 +4410,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5073,6 +5082,20 @@
       </c>
       <c r="K37" s="16"/>
     </row>
+    <row r="38" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>6</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/BalancedBracket.java"/>
@@ -5092,9 +5115,10 @@
     <hyperlink ref="K36" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Maximal_Rectangle.java"/>
     <hyperlink ref="D37" r:id="rId16" display="https://leetcode.com/problems/maximal-rectangle/"/>
     <hyperlink ref="J37" r:id="rId17" display="Recursive Approach"/>
+    <hyperlink ref="D38" r:id="rId18" display="https://leetcode.com/problems/sliding-window-maximum/submissions/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="400">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1368,6 +1368,9 @@
   </si>
   <si>
     <t>check the edge case for last element, when nge jumps</t>
+  </si>
+  <si>
+    <t>CP/Leet_Sliding_Window_Maximum.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -4412,8 +4415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4421,7 +4424,7 @@
     <col min="1" max="1" width="6.28515625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="7.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
@@ -4944,6 +4947,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D28" s="18"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="18"/>
+    </row>
     <row r="32" spans="1:11" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="33"/>
@@ -4963,7 +4978,7 @@
       <c r="A33" s="5">
         <v>1</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="32" t="s">
         <v>377</v>
       </c>
       <c r="E33" s="5" t="s">
@@ -4978,7 +4993,7 @@
       <c r="H33" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="K33" s="32" t="s">
         <v>385</v>
       </c>
     </row>
@@ -4986,7 +5001,7 @@
       <c r="A34" s="5">
         <v>2</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="32" t="s">
         <v>379</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -5004,7 +5019,7 @@
       <c r="I34" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="K34" s="16" t="s">
+      <c r="K34" s="32" t="s">
         <v>387</v>
       </c>
     </row>
@@ -5012,7 +5027,7 @@
       <c r="A35" s="5">
         <v>3</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="32" t="s">
         <v>383</v>
       </c>
       <c r="E35" s="5" t="s">
@@ -5027,7 +5042,7 @@
       <c r="H35" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="K35" s="16" t="s">
+      <c r="K35" s="32" t="s">
         <v>384</v>
       </c>
     </row>
@@ -5035,7 +5050,7 @@
       <c r="A36" s="5">
         <v>4</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E36" s="5" t="s">
@@ -5054,15 +5069,15 @@
         <v>392</v>
       </c>
       <c r="J36" s="65"/>
-      <c r="K36" s="16" t="s">
+      <c r="K36" s="32" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>5</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="32" t="s">
         <v>389</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -5077,23 +5092,35 @@
       <c r="H37" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="J37" s="65" t="s">
+      <c r="J37" s="65"/>
+      <c r="K37" s="32" t="s">
         <v>393</v>
       </c>
-      <c r="K37" s="16"/>
     </row>
     <row r="38" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>6</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="32" t="s">
         <v>396</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>397</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>398</v>
+      </c>
+      <c r="K38" s="32" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5114,11 +5141,12 @@
     <hyperlink ref="D36" r:id="rId14" display="https://leetcode.com/problems/maximal-rectangle/"/>
     <hyperlink ref="K36" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Maximal_Rectangle.java"/>
     <hyperlink ref="D37" r:id="rId16" display="https://leetcode.com/problems/maximal-rectangle/"/>
-    <hyperlink ref="J37" r:id="rId17" display="Recursive Approach"/>
-    <hyperlink ref="D38" r:id="rId18" display="https://leetcode.com/problems/sliding-window-maximum/submissions/"/>
+    <hyperlink ref="D38" r:id="rId17" display="https://leetcode.com/problems/sliding-window-maximum/submissions/"/>
+    <hyperlink ref="K38" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Sliding_Window_Maximum.java"/>
+    <hyperlink ref="K37" r:id="rId19" display="Recursive Approach"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="401">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1367,10 +1367,13 @@
     <t>stack approach</t>
   </si>
   <si>
-    <t>check the edge case for last element, when nge jumps</t>
-  </si>
-  <si>
     <t>CP/Leet_Sliding_Window_Maximum.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>dry for last element, when nge jumps for better understanding the nge jumps</t>
+  </si>
+  <si>
+    <t>imp</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1452,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1493,6 +1496,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -1585,7 +1594,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1595,8 +1604,9 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1777,8 +1787,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="10">
+    <cellStyle name="20% - Accent6" xfId="9" builtinId="50"/>
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
     <cellStyle name="40% - Accent6" xfId="6" builtinId="51"/>
@@ -4415,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4618,7 +4641,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -4645,7 +4668,7 @@
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="68" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -4662,7 +4685,7 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="67" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -4679,7 +4702,7 @@
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="67" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4692,11 +4715,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="69" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -4815,7 +4838,10 @@
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="C20" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="D20" s="66" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -5117,10 +5143,10 @@
         <v>397</v>
       </c>
       <c r="I38" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="K38" s="32" t="s">
         <v>398</v>
-      </c>
-      <c r="K38" s="32" t="s">
-        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -5154,7 +5180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="404">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1374,6 +1374,15 @@
   </si>
   <si>
     <t>imp</t>
+  </si>
+  <si>
+    <t>pinball problem</t>
+  </si>
+  <si>
+    <t>CP/PinBall.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>basic path recursion</t>
   </si>
 </sst>
 </file>
@@ -2569,10 +2578,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3489,6 +3498,20 @@
       </c>
       <c r="K34" s="16" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>31</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3515,9 +3538,10 @@
     <hyperlink ref="K32" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenSubsetApproach.java"/>
     <hyperlink ref="K34" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/KnightsTour.java"/>
     <hyperlink ref="E1" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Recursion.pdf"/>
+    <hyperlink ref="K35" r:id="rId23" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/PinBall.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -5180,7 +5204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="404">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1615,7 +1615,7 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1733,7 +1733,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2580,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2653,7 +2652,7 @@
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -2682,7 +2681,7 @@
       <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="46" t="s">
         <v>2</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -2711,7 +2710,7 @@
       <c r="B6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -2740,7 +2739,7 @@
       <c r="B7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -2769,7 +2768,7 @@
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="46" t="s">
         <v>5</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2795,7 +2794,7 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="47" t="s">
+      <c r="D9" s="46" t="s">
         <v>86</v>
       </c>
       <c r="G9" s="2">
@@ -2818,7 +2817,7 @@
       <c r="B10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="46" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2850,7 +2849,7 @@
       <c r="B11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="47" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -2882,7 +2881,7 @@
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="48" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2911,7 +2910,7 @@
       <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="49" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2943,7 +2942,7 @@
       <c r="B14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="49" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -2969,7 +2968,7 @@
       <c r="B15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="49" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2992,7 +2991,7 @@
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="49" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -3015,7 +3014,7 @@
       <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="50" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -3038,7 +3037,7 @@
       <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -3064,7 +3063,7 @@
       <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="53" t="s">
+      <c r="D19" s="52" t="s">
         <v>19</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -3087,7 +3086,7 @@
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -3110,7 +3109,7 @@
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="53" t="s">
+      <c r="D21" s="52" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -3133,7 +3132,7 @@
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -3156,7 +3155,7 @@
       <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="54" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -3185,7 +3184,7 @@
       <c r="B24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="55" t="s">
         <v>20</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -3214,7 +3213,7 @@
       <c r="B25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="55" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -3243,7 +3242,7 @@
       <c r="B26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="55" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3272,7 +3271,7 @@
       <c r="B27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="55" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -3304,7 +3303,7 @@
       <c r="B28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="55" t="s">
         <v>24</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -3333,7 +3332,7 @@
       <c r="B29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="56" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3365,7 +3364,7 @@
       <c r="B30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="61" t="s">
+      <c r="D30" s="60" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="5" t="s">
@@ -3397,7 +3396,7 @@
       <c r="B31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="58" t="s">
+      <c r="D31" s="57" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -3429,7 +3428,7 @@
       <c r="B32" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="58" t="s">
         <v>145</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -3455,7 +3454,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="58" t="s">
         <v>146</v>
       </c>
       <c r="G33" s="2">
@@ -3475,7 +3474,7 @@
       <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="60" t="s">
+      <c r="D34" s="59" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="5" t="s">
@@ -4462,7 +4461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -4545,7 +4544,7 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="61" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -4571,7 +4570,7 @@
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="63" t="s">
+      <c r="D5" s="62" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -4597,7 +4596,7 @@
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="63" t="s">
         <v>367</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -4623,7 +4622,7 @@
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="55" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -4646,7 +4645,7 @@
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="55" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -4669,7 +4668,7 @@
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="55" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -4692,7 +4691,7 @@
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="67" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -4709,7 +4708,7 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="D11" s="67" t="s">
+      <c r="D11" s="66" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -4726,7 +4725,7 @@
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="66" t="s">
         <v>47</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -4743,7 +4742,7 @@
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="68" t="s">
         <v>48</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -4760,7 +4759,7 @@
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="55" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -4777,7 +4776,7 @@
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -4794,7 +4793,7 @@
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="55" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -4811,7 +4810,7 @@
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="55" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -4828,7 +4827,7 @@
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="55" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -4845,7 +4844,7 @@
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="55" t="s">
         <v>55</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -4865,7 +4864,7 @@
       <c r="C20" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="65" t="s">
         <v>56</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -4882,7 +4881,7 @@
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="51" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -4899,7 +4898,7 @@
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="D22" s="53" t="s">
+      <c r="D22" s="52" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -4916,7 +4915,7 @@
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="D23" s="53" t="s">
+      <c r="D23" s="52" t="s">
         <v>59</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -4933,7 +4932,7 @@
       <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="D24" s="53" t="s">
+      <c r="D24" s="52" t="s">
         <v>60</v>
       </c>
       <c r="E24" s="5" t="s">
@@ -4950,7 +4949,7 @@
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="52" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -4967,7 +4966,7 @@
       <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="D26" s="53" t="s">
+      <c r="D26" s="52" t="s">
         <v>62</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -4984,7 +4983,7 @@
       <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -5118,7 +5117,7 @@
       <c r="I36" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="J36" s="65"/>
+      <c r="J36" s="64"/>
       <c r="K36" s="32" t="s">
         <v>391</v>
       </c>
@@ -5142,7 +5141,7 @@
       <c r="H37" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="J37" s="65"/>
+      <c r="J37" s="64"/>
       <c r="K37" s="32" t="s">
         <v>393</v>
       </c>
@@ -5204,8 +5203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5383,11 +5382,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
         <v>8</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>278</v>
       </c>
       <c r="E12" t="s">
@@ -5404,29 +5403,41 @@
       <c r="A13" s="30">
         <v>9</v>
       </c>
-      <c r="D13" s="43" t="s">
+      <c r="D13" s="41" t="s">
         <v>279</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>10</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="42" t="s">
         <v>280</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="30">
         <v>11</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="43" t="s">
         <v>281</v>
       </c>
       <c r="E15" t="s">
@@ -5437,7 +5448,7 @@
       <c r="A16" s="30">
         <v>12</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="43" t="s">
         <v>282</v>
       </c>
       <c r="E16" t="s">
@@ -5448,7 +5459,7 @@
       <c r="A17" s="30">
         <v>13</v>
       </c>
-      <c r="D17" s="44" t="s">
+      <c r="D17" s="43" t="s">
         <v>283</v>
       </c>
       <c r="E17" t="s">
@@ -5459,7 +5470,7 @@
       <c r="A18" s="30">
         <v>14</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="43" t="s">
         <v>284</v>
       </c>
       <c r="E18" t="s">
@@ -5470,7 +5481,7 @@
       <c r="A19" s="30">
         <v>15</v>
       </c>
-      <c r="D19" s="44" t="s">
+      <c r="D19" s="43" t="s">
         <v>285</v>
       </c>
       <c r="E19" t="s">
@@ -5481,7 +5492,7 @@
       <c r="A20" s="30">
         <v>16</v>
       </c>
-      <c r="D20" s="44" t="s">
+      <c r="D20" s="43" t="s">
         <v>286</v>
       </c>
       <c r="E20" t="s">
@@ -5492,7 +5503,7 @@
       <c r="A21" s="30">
         <v>17</v>
       </c>
-      <c r="D21" s="44" t="s">
+      <c r="D21" s="43" t="s">
         <v>287</v>
       </c>
       <c r="E21" t="s">
@@ -5503,7 +5514,7 @@
       <c r="A22" s="30">
         <v>18</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="43" t="s">
         <v>239</v>
       </c>
       <c r="E22" t="s">
@@ -5514,7 +5525,7 @@
       <c r="A23" s="30">
         <v>19</v>
       </c>
-      <c r="D23" s="44" t="s">
+      <c r="D23" s="43" t="s">
         <v>288</v>
       </c>
       <c r="E23" t="s">
@@ -5525,7 +5536,7 @@
       <c r="A24" s="30">
         <v>20</v>
       </c>
-      <c r="D24" s="44" t="s">
+      <c r="D24" s="43" t="s">
         <v>289</v>
       </c>
       <c r="E24" t="s">
@@ -5536,7 +5547,7 @@
       <c r="A25" s="30">
         <v>21</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="D25" s="43" t="s">
         <v>290</v>
       </c>
       <c r="E25" t="s">
@@ -5547,7 +5558,7 @@
       <c r="A26" s="30">
         <v>22</v>
       </c>
-      <c r="D26" s="44" t="s">
+      <c r="D26" s="43" t="s">
         <v>291</v>
       </c>
       <c r="E26" t="s">
@@ -5558,7 +5569,7 @@
       <c r="A27" s="30">
         <v>23</v>
       </c>
-      <c r="D27" s="44" t="s">
+      <c r="D27" s="43" t="s">
         <v>292</v>
       </c>
       <c r="E27" t="s">
@@ -5569,7 +5580,7 @@
       <c r="A28" s="30">
         <v>24</v>
       </c>
-      <c r="D28" s="44" t="s">
+      <c r="D28" s="43" t="s">
         <v>293</v>
       </c>
       <c r="E28" t="s">
@@ -5580,7 +5591,7 @@
       <c r="A29" s="30">
         <v>25</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="44" t="s">
         <v>240</v>
       </c>
       <c r="E29" t="s">

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="406">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1383,6 +1383,15 @@
   </si>
   <si>
     <t>basic path recursion</t>
+  </si>
+  <si>
+    <t>CP/InfixEvaluation.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>look into how precedence is used and operation is used
+for equal priority, it will be solved from left to right 
+and 
+op in stack should be solved first that has high precedence and will be sollved from left ot right</t>
   </si>
 </sst>
 </file>
@@ -2579,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -4461,8 +4470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4687,7 +4696,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -4702,6 +4711,12 @@
       </c>
       <c r="G10" s="2">
         <v>0</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -5193,9 +5208,10 @@
     <hyperlink ref="D38" r:id="rId17" display="https://leetcode.com/problems/sliding-window-maximum/submissions/"/>
     <hyperlink ref="K38" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Sliding_Window_Maximum.java"/>
     <hyperlink ref="K37" r:id="rId19" display="Recursive Approach"/>
+    <hyperlink ref="K10" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixEvaluation.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -5203,7 +5219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="408">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1392,6 +1392,12 @@
 for equal priority, it will be solved from left to right 
 and 
 op in stack should be solved first that has high precedence and will be sollved from left ot right</t>
+  </si>
+  <si>
+    <t>CP/InfixConversion.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>refer infix evaluation</t>
   </si>
 </sst>
 </file>
@@ -4471,7 +4477,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4710,7 +4716,7 @@
         <v>34</v>
       </c>
       <c r="G10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>405</v>
@@ -4719,7 +4725,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -4733,7 +4739,13 @@
         <v>34</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -5209,9 +5221,10 @@
     <hyperlink ref="K38" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Sliding_Window_Maximum.java"/>
     <hyperlink ref="K37" r:id="rId19" display="Recursive Approach"/>
     <hyperlink ref="K10" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixEvaluation.java"/>
+    <hyperlink ref="K11" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixConversion.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="411">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1398,6 +1398,15 @@
   </si>
   <si>
     <t>refer infix evaluation</t>
+  </si>
+  <si>
+    <t>2stack are required</t>
+  </si>
+  <si>
+    <t>can be solved in 1 stack</t>
+  </si>
+  <si>
+    <t>understand evaluate, conversion is similar to evaluate</t>
   </si>
 </sst>
 </file>
@@ -4477,7 +4486,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4718,6 +4727,9 @@
       <c r="G10" s="2">
         <v>1</v>
       </c>
+      <c r="H10" s="10" t="s">
+        <v>408</v>
+      </c>
       <c r="I10" s="10" t="s">
         <v>405</v>
       </c>
@@ -4741,6 +4753,9 @@
       <c r="G11" s="2">
         <v>1</v>
       </c>
+      <c r="H11" s="10" t="s">
+        <v>408</v>
+      </c>
       <c r="I11" s="10" t="s">
         <v>407</v>
       </c>
@@ -4763,6 +4778,12 @@
       </c>
       <c r="G12" s="2">
         <v>0</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="414">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1407,6 +1407,16 @@
   </si>
   <si>
     <t>understand evaluate, conversion is similar to evaluate</t>
+  </si>
+  <si>
+    <t>CP/PostFixEvaluationConversion.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>evaluate from right to left</t>
+  </si>
+  <si>
+    <t>2stack are required, WHY? Because we need to look at the precedence of solving,
+and for making decision val1 and val2, think for a+b. +ab, ab+</t>
   </si>
 </sst>
 </file>
@@ -4486,7 +4496,7 @@
   <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4728,7 +4738,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>405</v>
@@ -4763,7 +4773,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -4785,8 +4795,11 @@
       <c r="I12" s="10" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12" s="16" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -4801,6 +4814,9 @@
       </c>
       <c r="G13" s="2">
         <v>0</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5243,9 +5259,10 @@
     <hyperlink ref="K37" r:id="rId19" display="Recursive Approach"/>
     <hyperlink ref="K10" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixEvaluation.java"/>
     <hyperlink ref="K11" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixConversion.java"/>
+    <hyperlink ref="K12" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PostFixEvaluationConversion.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="419">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1406,17 +1406,33 @@
     <t>can be solved in 1 stack</t>
   </si>
   <si>
-    <t>understand evaluate, conversion is similar to evaluate</t>
-  </si>
-  <si>
     <t>CP/PostFixEvaluationConversion.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>evaluate from right to left</t>
   </si>
   <si>
     <t>2stack are required, WHY? Because we need to look at the precedence of solving,
 and for making decision val1 and val2, think for a+b. +ab, ab+</t>
+  </si>
+  <si>
+    <t>evaluate from right to left, approach is same as posfox evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> for making decision val1 and val2, think for a+b. +ab, ab+</t>
+  </si>
+  <si>
+    <t>understand evaluate, conversion is similar to evaluate
+ for making decision val1 and val2, think for a+b. +ab, ab+</t>
+  </si>
+  <si>
+    <t>CP/PrefixEvaluationConversion.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Min Stack - LeetCode</t>
+  </si>
+  <si>
+    <t>Basic Calculator - LeetCode</t>
+  </si>
+  <si>
+    <t>Basic Calculator II - LeetCode</t>
   </si>
 </sst>
 </file>
@@ -4493,10 +4509,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4738,7 +4754,7 @@
         <v>1</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>405</v>
@@ -4793,10 +4809,10 @@
         <v>409</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>410</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4818,6 +4834,12 @@
       <c r="H13" s="10" t="s">
         <v>412</v>
       </c>
+      <c r="I13" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
@@ -4939,6 +4961,9 @@
       </c>
       <c r="G20" s="2">
         <v>1</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5234,6 +5259,37 @@
       </c>
       <c r="K38" s="32" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>7</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -5260,9 +5316,13 @@
     <hyperlink ref="K10" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixEvaluation.java"/>
     <hyperlink ref="K11" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixConversion.java"/>
     <hyperlink ref="K12" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PostFixEvaluationConversion.java"/>
+    <hyperlink ref="K13" r:id="rId23" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PrefixEvaluationConversion.java"/>
+    <hyperlink ref="J20" r:id="rId24" display="https://leetcode.com/problems/min-stack/"/>
+    <hyperlink ref="D39" r:id="rId25" display="https://leetcode.com/problems/basic-calculator/"/>
+    <hyperlink ref="D40" r:id="rId26" display="https://leetcode.com/problems/basic-calculator-ii/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId23"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="423">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1433,6 +1433,23 @@
   </si>
   <si>
     <t>Basic Calculator II - LeetCode</t>
+  </si>
+  <si>
+    <t>CP/Leet_BasicCalculator.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>maintain sum and stack.
+Divide in 3 parts
+1.traverse karatana sum sove kar ani 
+2. ( asel tar sum and sign push kar in stack  and tayna reset kar
+3. ) ala tar, 1st pop madhe sign asel tyala sum madhe multiply kar and 2nd pop la sum madhe add kar 
+4.  + or - asel tar sign updaet kar</t>
+  </si>
+  <si>
+    <t>refer infix evaluation, ned to handle multiple digits</t>
+  </si>
+  <si>
+    <t>refer infix evaluation, need to handle multiple digits and -ve sign</t>
   </si>
 </sst>
 </file>
@@ -3598,7 +3615,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -4511,8 +4528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5261,35 +5278,47 @@
         <v>398</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>7</v>
       </c>
       <c r="D39" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>8</v>
+      </c>
+      <c r="D40" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="E39" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="16" t="s">
-        <v>418</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>238</v>
+      <c r="F40" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>407</v>
+        <v>422</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -5318,11 +5347,12 @@
     <hyperlink ref="K12" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PostFixEvaluationConversion.java"/>
     <hyperlink ref="K13" r:id="rId23" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PrefixEvaluationConversion.java"/>
     <hyperlink ref="J20" r:id="rId24" display="https://leetcode.com/problems/min-stack/"/>
-    <hyperlink ref="D39" r:id="rId25" display="https://leetcode.com/problems/basic-calculator/"/>
-    <hyperlink ref="D40" r:id="rId26" display="https://leetcode.com/problems/basic-calculator-ii/"/>
+    <hyperlink ref="D40" r:id="rId25" display="https://leetcode.com/problems/basic-calculator/"/>
+    <hyperlink ref="D39" r:id="rId26" display="https://leetcode.com/problems/basic-calculator-ii/"/>
+    <hyperlink ref="K40" r:id="rId27" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="424">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1450,6 +1450,9 @@
   </si>
   <si>
     <t>refer infix evaluation, need to handle multiple digits and -ve sign</t>
+  </si>
+  <si>
+    <t>CP/Leet_BasicCalculator_II.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -3615,7 +3618,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -4121,8 +4124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,6 +4187,9 @@
       <c r="D4" s="28" t="s">
         <v>208</v>
       </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
       <c r="G4" s="30">
         <v>0</v>
       </c>
@@ -4195,6 +4201,9 @@
       <c r="D5" s="28" t="s">
         <v>209</v>
       </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
       <c r="G5" s="30">
         <v>0</v>
       </c>
@@ -4206,6 +4215,9 @@
       <c r="D6" s="28" t="s">
         <v>210</v>
       </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
       <c r="G6" s="30">
         <v>0</v>
       </c>
@@ -4217,6 +4229,9 @@
       <c r="D7" s="28" t="s">
         <v>211</v>
       </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
       <c r="G7" s="30">
         <v>0</v>
       </c>
@@ -4228,6 +4243,9 @@
       <c r="D8" s="28" t="s">
         <v>212</v>
       </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
       <c r="G8" s="30">
         <v>0</v>
       </c>
@@ -4239,6 +4257,9 @@
       <c r="D9" s="28" t="s">
         <v>213</v>
       </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
       <c r="G9" s="30">
         <v>0</v>
       </c>
@@ -4264,6 +4285,9 @@
       <c r="D11" s="28" t="s">
         <v>215</v>
       </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="30">
         <v>0</v>
       </c>
@@ -4289,6 +4313,9 @@
       <c r="D13" s="28" t="s">
         <v>217</v>
       </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
       <c r="G13" s="30">
         <v>0</v>
       </c>
@@ -4300,6 +4327,9 @@
       <c r="D14" s="28" t="s">
         <v>218</v>
       </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
       <c r="G14" s="30">
         <v>0</v>
       </c>
@@ -4311,6 +4341,9 @@
       <c r="D15" s="28" t="s">
         <v>219</v>
       </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="30">
         <v>0</v>
       </c>
@@ -4322,6 +4355,9 @@
       <c r="D16" s="28" t="s">
         <v>220</v>
       </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
       <c r="G16" s="30">
         <v>0</v>
       </c>
@@ -4333,6 +4369,9 @@
       <c r="D17" s="28" t="s">
         <v>221</v>
       </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
       <c r="G17" s="30">
         <v>0</v>
       </c>
@@ -4344,6 +4383,9 @@
       <c r="D18" s="28" t="s">
         <v>222</v>
       </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
       <c r="G18" s="30">
         <v>0</v>
       </c>
@@ -4355,6 +4397,9 @@
       <c r="D19" s="28" t="s">
         <v>223</v>
       </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
       <c r="G19" s="30">
         <v>0</v>
       </c>
@@ -4366,6 +4411,9 @@
       <c r="D20" s="28" t="s">
         <v>224</v>
       </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
       <c r="G20" s="30">
         <v>0</v>
       </c>
@@ -4377,6 +4425,9 @@
       <c r="D21" s="28" t="s">
         <v>225</v>
       </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
       <c r="G21" s="30">
         <v>0</v>
       </c>
@@ -4388,6 +4439,9 @@
       <c r="D22" s="28" t="s">
         <v>226</v>
       </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
       <c r="G22" s="30">
         <v>0</v>
       </c>
@@ -4399,6 +4453,9 @@
       <c r="D23" s="28" t="s">
         <v>227</v>
       </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
       <c r="G23" s="30">
         <v>0</v>
       </c>
@@ -4410,6 +4467,9 @@
       <c r="D24" s="28" t="s">
         <v>228</v>
       </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
       <c r="G24" s="30">
         <v>0</v>
       </c>
@@ -4421,6 +4481,9 @@
       <c r="D25" s="28" t="s">
         <v>229</v>
       </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
       <c r="G25" s="30">
         <v>0</v>
       </c>
@@ -4432,6 +4495,9 @@
       <c r="D26" s="28" t="s">
         <v>230</v>
       </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
       <c r="G26" s="30">
         <v>0</v>
       </c>
@@ -4443,6 +4509,9 @@
       <c r="D27" s="28" t="s">
         <v>231</v>
       </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
       <c r="G27" s="30">
         <v>0</v>
       </c>
@@ -4454,6 +4523,9 @@
       <c r="D28" s="28" t="s">
         <v>232</v>
       </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
       <c r="G28" s="30">
         <v>0</v>
       </c>
@@ -4464,6 +4536,9 @@
       </c>
       <c r="D29" s="28" t="s">
         <v>233</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
       </c>
       <c r="G29" s="30">
         <v>0</v>
@@ -4528,8 +4603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4820,7 +4895,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="10" t="s">
         <v>409</v>
@@ -4846,7 +4921,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="10" t="s">
         <v>412</v>
@@ -5288,11 +5363,17 @@
       <c r="E39" s="5" t="s">
         <v>238</v>
       </c>
+      <c r="F39" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="G39" s="2">
         <v>0</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>421</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -5350,9 +5431,10 @@
     <hyperlink ref="D40" r:id="rId25" display="https://leetcode.com/problems/basic-calculator/"/>
     <hyperlink ref="D39" r:id="rId26" display="https://leetcode.com/problems/basic-calculator-ii/"/>
     <hyperlink ref="K40" r:id="rId27" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator.java"/>
+    <hyperlink ref="K39" r:id="rId28" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator_II.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="424">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1346,11 +1346,6 @@
     <t>CP/Leet_Maximal_Rectangle.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
-    <t>trick is to create arr at every row,
-then use largest area histogram for each row
-then get max of each row</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recursive Approach,
 </t>
   </si>
@@ -1453,6 +1448,11 @@
   </si>
   <si>
     <t>CP/Leet_BasicCalculator_II.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>trick is to create arrary at every row,
+then use largest area histogram for that array
+then get max of each row</t>
   </si>
 </sst>
 </file>
@@ -3574,13 +3574,13 @@
         <v>31</v>
       </c>
       <c r="D35" s="25" t="s">
+        <v>400</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>401</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -4124,7 +4124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -4603,8 +4603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4846,13 +4846,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4872,13 +4872,13 @@
         <v>1</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4898,13 +4898,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>409</v>
-      </c>
-      <c r="I12" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4924,13 +4924,13 @@
         <v>1</v>
       </c>
       <c r="H13" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="I13" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>413</v>
-      </c>
       <c r="K13" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -5040,7 +5040,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D20" s="65" t="s">
         <v>56</v>
@@ -5055,7 +5055,7 @@
         <v>1</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -5293,10 +5293,10 @@
         <v>0</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
       <c r="J36" s="64"/>
       <c r="K36" s="32" t="s">
@@ -5320,11 +5320,11 @@
         <v>0</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J37" s="64"/>
       <c r="K37" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5332,7 +5332,7 @@
         <v>6</v>
       </c>
       <c r="D38" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>390</v>
@@ -5344,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="H38" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="K38" s="32" t="s">
         <v>397</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="K38" s="32" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5358,7 +5358,7 @@
         <v>7</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>238</v>
@@ -5370,10 +5370,10 @@
         <v>0</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K39" s="21" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>390</v>
@@ -5393,13 +5393,13 @@
         <v>0</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K40" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -5442,8 +5442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5682,6 +5682,12 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
+      <c r="F15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="30">
@@ -5693,8 +5699,14 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>13</v>
       </c>
@@ -5704,8 +5716,14 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>14</v>
       </c>
@@ -5715,8 +5733,14 @@
       <c r="E18" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>15</v>
       </c>
@@ -5726,8 +5750,14 @@
       <c r="E19" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>16</v>
       </c>
@@ -5737,8 +5767,14 @@
       <c r="E20" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>17</v>
       </c>
@@ -5749,7 +5785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>18</v>
       </c>
@@ -5760,7 +5796,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>19</v>
       </c>
@@ -5771,7 +5807,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>20</v>
       </c>
@@ -5782,7 +5818,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>21</v>
       </c>
@@ -5793,7 +5829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>22</v>
       </c>
@@ -5804,7 +5840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>23</v>
       </c>
@@ -5815,7 +5851,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>24</v>
       </c>
@@ -5826,7 +5862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
         <v>25</v>
       </c>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="437">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1453,6 +1453,48 @@
     <t>trick is to create arrary at every row,
 then use largest area histogram for that array
 then get max of each row</t>
+  </si>
+  <si>
+    <t>Longest Valid Parentheses - LeetCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">you need to keep imaginary value as -1 in stack 
+why? 2 reason
+1. when I get perfect string like (()). So 3-(-1) = 4
+2. we need to update top index when stack is empty and new closing comes closing comes and </t>
+  </si>
+  <si>
+    <t>based on stack push pop</t>
+  </si>
+  <si>
+    <t>Container With Most Water - LeetCode</t>
+  </si>
+  <si>
+    <t>2 pointer approach</t>
+  </si>
+  <si>
+    <t>We'll start from either end and at each step we'll check the container area, then we'll shift the lower-valued pointer inward. Once the two pointers meet, we know that we must have exhausted all possible containers and we should return our answer (ans).</t>
+  </si>
+  <si>
+    <t>Simplify Path - LeetCode</t>
+  </si>
+  <si>
+    <t>The nature of unix paths is that you read them like a set of instructions, from left to right, and the instructions are always in reference to where you currently are, not from where you started. This should immediately bring to mind a stack format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stack approach, </t>
+  </si>
+  <si>
+    <t>whenever you travers and you want to remove something from back then use always stack data structure</t>
+  </si>
+  <si>
+    <t>Whenever we have to iterate through a data type and remove potentially nested information, the natural thought is to use some kind of stack or recursive solution to keep track of the nesting data while we search for our matches.</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates in String II - LeetCode</t>
+  </si>
+  <si>
+    <t>stack /recursion</t>
   </si>
 </sst>
 </file>
@@ -4601,10 +4643,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4618,7 +4660,7 @@
     <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="44.140625" style="10" customWidth="1"/>
     <col min="9" max="9" width="51.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="39" style="11" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="8"/>
   </cols>
   <sheetData>
@@ -5357,7 +5399,7 @@
       <c r="A39" s="5">
         <v>7</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="21" t="s">
         <v>417</v>
       </c>
       <c r="E39" s="5" t="s">
@@ -5380,7 +5422,7 @@
       <c r="A40" s="5">
         <v>8</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="21" t="s">
         <v>416</v>
       </c>
       <c r="E40" s="5" t="s">
@@ -5400,6 +5442,101 @@
       </c>
       <c r="K40" s="21" t="s">
         <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>9</v>
+      </c>
+      <c r="D41" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>10</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>11</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="J43" s="10" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>12</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="J44" s="25" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -5432,9 +5569,13 @@
     <hyperlink ref="D39" r:id="rId26" display="https://leetcode.com/problems/basic-calculator-ii/"/>
     <hyperlink ref="K40" r:id="rId27" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator.java"/>
     <hyperlink ref="K39" r:id="rId28" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator_II.java"/>
+    <hyperlink ref="D41" r:id="rId29" display="https://leetcode.com/problems/longest-valid-parentheses/"/>
+    <hyperlink ref="D42" r:id="rId30" display="https://leetcode.com/problems/container-with-most-water/"/>
+    <hyperlink ref="D43" r:id="rId31" display="https://leetcode.com/problems/simplify-path/"/>
+    <hyperlink ref="D44" r:id="rId32" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -5442,7 +5583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="802" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="440">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1368,9 +1368,6 @@
     <t>dry for last element, when nge jumps for better understanding the nge jumps</t>
   </si>
   <si>
-    <t>imp</t>
-  </si>
-  <si>
     <t>pinball problem</t>
   </si>
   <si>
@@ -1494,7 +1491,20 @@
     <t>Remove All Adjacent Duplicates in String II - LeetCode</t>
   </si>
   <si>
-    <t>stack /recursion</t>
+    <t>CP/Leet_Longest_Valid_Parentheses.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Leet_ContainerWithMostWater.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Leet_Simplify_Path.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Leet_Remove_All_Adjacent_Duplicates_in_String_II.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>stack /recursion
+ TLEin leet- Naive recursive solution</t>
   </si>
 </sst>
 </file>
@@ -3616,13 +3626,13 @@
         <v>31</v>
       </c>
       <c r="D35" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>400</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -4643,939 +4653,940 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" style="8" customWidth="1"/>
-    <col min="4" max="4" width="52.85546875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="44.140625" style="10" customWidth="1"/>
-    <col min="9" max="9" width="51.140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="39" style="11" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="8"/>
+    <col min="2" max="2" width="52.85546875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="44.140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" style="10" customWidth="1"/>
+    <col min="8" max="8" width="39" style="11" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
-      <c r="D1" s="5" t="s">
+      <c r="B1" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="K1"/>
-    </row>
-    <row r="2" spans="1:11" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="1:9" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="39" t="s">
+      <c r="B2" s="39" t="s">
         <v>380</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="34"/>
-    </row>
-    <row r="3" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="1:9" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="B3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="G3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="B4" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="K4" s="32" t="s">
+      <c r="I4" s="32" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="B5" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="2">
+      <c r="C5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="I5" s="32" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="B6" s="63" t="s">
         <v>367</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
         <v>3</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>369</v>
       </c>
-      <c r="K6" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="B7" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="2">
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="I7" s="21" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="B8" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2">
         <v>3</v>
       </c>
-      <c r="I8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="K8" s="21" t="s">
+      <c r="I8" s="21" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="B9" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2">
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2">
         <v>3</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="I9" s="21" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="D10" s="67" t="s">
+      <c r="B10" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="2">
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="H10" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="I10" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="K10" s="16" t="s">
+      <c r="F10" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="16" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="B11" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="2">
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="I11" s="10" t="s">
+      <c r="F11" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="G11" s="10" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="B12" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2">
+      <c r="C12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="B13" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>411</v>
       </c>
-      <c r="I13" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I13" s="32" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="B14" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2">
+      <c r="C14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="B15" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="2">
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2">
+      <c r="C16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="B17" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="C17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="C18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="B19" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="2">
+      <c r="C19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D20" s="65" t="s">
+      <c r="B20" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="2">
+      <c r="C20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="J20" s="16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H20" s="16" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>18</v>
       </c>
-      <c r="D21" s="51" t="s">
+      <c r="B21" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>19</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="B22" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="D23" s="52" t="s">
+      <c r="B23" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>21</v>
       </c>
-      <c r="D24" s="52" t="s">
+      <c r="B24" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>22</v>
       </c>
-      <c r="D25" s="52" t="s">
+      <c r="B25" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>23</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="B26" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="5">
         <v>24</v>
       </c>
-      <c r="D27" s="53" t="s">
+      <c r="B27" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D28" s="18"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D29" s="18"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D30" s="18"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D31" s="18"/>
-    </row>
-    <row r="32" spans="1:11" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="18"/>
+    </row>
+    <row r="32" spans="1:9" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="39" t="s">
+      <c r="B32" s="39" t="s">
         <v>376</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="34"/>
-    </row>
-    <row r="33" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="34"/>
+    </row>
+    <row r="33" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>1</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="B33" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="C33" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G33" s="2">
-        <v>0</v>
-      </c>
-      <c r="H33" s="10" t="s">
+      <c r="D33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="K33" s="32" t="s">
+      <c r="I33" s="32" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="B34" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="C34" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10" t="s">
+      <c r="D34" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="I34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="I34" s="32" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>3</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="B35" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10" t="s">
+      <c r="C35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10" t="s">
         <v>378</v>
       </c>
-      <c r="K35" s="32" t="s">
+      <c r="I35" s="32" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>4</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="B36" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="10" t="s">
+      <c r="D36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="I36" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="J36" s="64"/>
-      <c r="K36" s="32" t="s">
+      <c r="G36" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H36" s="64"/>
+      <c r="I36" s="32" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>5</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="B37" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="C37" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="2">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10" t="s">
+      <c r="D37" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="J37" s="64"/>
-      <c r="K37" s="32" t="s">
+      <c r="H37" s="64"/>
+      <c r="I37" s="32" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>6</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="B38" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="F38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G38" s="2">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10" t="s">
+      <c r="D38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="I38" s="10" t="s">
+      <c r="G38" s="10" t="s">
         <v>398</v>
       </c>
-      <c r="K38" s="32" t="s">
+      <c r="I38" s="32" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>7</v>
       </c>
-      <c r="D39" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="B39" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F39" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="2">
-        <v>0</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="D39" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>8</v>
       </c>
-      <c r="D40" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="B40" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="F40" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="K40" s="21" t="s">
+      <c r="D40" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="I40" s="32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>9</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="B41" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G41" s="2">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="I41" s="32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>10</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="B42" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G42" s="2">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="32" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>11</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="B43" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="E43" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="I43" s="32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>12</v>
       </c>
-      <c r="D44" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="B44" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="2">
-        <v>0</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="J44" s="25" t="s">
-        <v>434</v>
+      <c r="D44" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="I44" s="21" t="s">
+        <v>438</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/BalancedBracket.java"/>
-    <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Duplicatebracket.java"/>
-    <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NGETR.java"/>
-    <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/StockSpan.java"/>
-    <hyperlink ref="K8" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/LargestAreaHistogram.java"/>
-    <hyperlink ref="E1" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Stacks and queues.pdf"/>
-    <hyperlink ref="D33" r:id="rId7" display="https://leetcode.com/problems/daily-temperatures/"/>
-    <hyperlink ref="D34" r:id="rId8" display="https://leetcode.com/problems/next-greater-element-ii/"/>
-    <hyperlink ref="K9" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/SlidingWindowMax.java"/>
-    <hyperlink ref="D35" r:id="rId10" display="https://leetcode.com/problems/next-greater-element-i/"/>
-    <hyperlink ref="K35" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_NextGreaterElement_I.java"/>
-    <hyperlink ref="K33" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_DailyTemperature.java"/>
-    <hyperlink ref="K34" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Next_Greater_Element_II.java"/>
-    <hyperlink ref="D36" r:id="rId14" display="https://leetcode.com/problems/maximal-rectangle/"/>
-    <hyperlink ref="K36" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Maximal_Rectangle.java"/>
-    <hyperlink ref="D37" r:id="rId16" display="https://leetcode.com/problems/maximal-rectangle/"/>
-    <hyperlink ref="D38" r:id="rId17" display="https://leetcode.com/problems/sliding-window-maximum/submissions/"/>
-    <hyperlink ref="K38" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Sliding_Window_Maximum.java"/>
-    <hyperlink ref="K37" r:id="rId19" display="Recursive Approach"/>
-    <hyperlink ref="K10" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixEvaluation.java"/>
-    <hyperlink ref="K11" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixConversion.java"/>
-    <hyperlink ref="K12" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PostFixEvaluationConversion.java"/>
-    <hyperlink ref="K13" r:id="rId23" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PrefixEvaluationConversion.java"/>
-    <hyperlink ref="J20" r:id="rId24" display="https://leetcode.com/problems/min-stack/"/>
-    <hyperlink ref="D40" r:id="rId25" display="https://leetcode.com/problems/basic-calculator/"/>
-    <hyperlink ref="D39" r:id="rId26" display="https://leetcode.com/problems/basic-calculator-ii/"/>
-    <hyperlink ref="K40" r:id="rId27" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator.java"/>
-    <hyperlink ref="K39" r:id="rId28" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator_II.java"/>
-    <hyperlink ref="D41" r:id="rId29" display="https://leetcode.com/problems/longest-valid-parentheses/"/>
-    <hyperlink ref="D42" r:id="rId30" display="https://leetcode.com/problems/container-with-most-water/"/>
-    <hyperlink ref="D43" r:id="rId31" display="https://leetcode.com/problems/simplify-path/"/>
-    <hyperlink ref="D44" r:id="rId32" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/"/>
+    <hyperlink ref="I5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/BalancedBracket.java"/>
+    <hyperlink ref="I4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Duplicatebracket.java"/>
+    <hyperlink ref="I6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NGETR.java"/>
+    <hyperlink ref="I7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/StockSpan.java"/>
+    <hyperlink ref="I8" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/LargestAreaHistogram.java"/>
+    <hyperlink ref="C1" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Stacks and queues.pdf"/>
+    <hyperlink ref="B33" r:id="rId7" display="https://leetcode.com/problems/daily-temperatures/"/>
+    <hyperlink ref="B34" r:id="rId8" display="https://leetcode.com/problems/next-greater-element-ii/"/>
+    <hyperlink ref="I9" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/SlidingWindowMax.java"/>
+    <hyperlink ref="B35" r:id="rId10" display="https://leetcode.com/problems/next-greater-element-i/"/>
+    <hyperlink ref="I35" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_NextGreaterElement_I.java"/>
+    <hyperlink ref="I33" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_DailyTemperature.java"/>
+    <hyperlink ref="I34" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Next_Greater_Element_II.java"/>
+    <hyperlink ref="B36" r:id="rId14" display="https://leetcode.com/problems/maximal-rectangle/"/>
+    <hyperlink ref="I36" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Maximal_Rectangle.java"/>
+    <hyperlink ref="B37" r:id="rId16" display="https://leetcode.com/problems/maximal-rectangle/"/>
+    <hyperlink ref="B38" r:id="rId17" display="https://leetcode.com/problems/sliding-window-maximum/submissions/"/>
+    <hyperlink ref="I38" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Sliding_Window_Maximum.java"/>
+    <hyperlink ref="I37" r:id="rId19" display="Recursive Approach"/>
+    <hyperlink ref="I10" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixEvaluation.java"/>
+    <hyperlink ref="I11" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixConversion.java"/>
+    <hyperlink ref="I12" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PostFixEvaluationConversion.java"/>
+    <hyperlink ref="I13" r:id="rId23" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PrefixEvaluationConversion.java"/>
+    <hyperlink ref="H20" r:id="rId24" display="https://leetcode.com/problems/min-stack/"/>
+    <hyperlink ref="B40" r:id="rId25" display="https://leetcode.com/problems/basic-calculator/"/>
+    <hyperlink ref="B39" r:id="rId26" display="https://leetcode.com/problems/basic-calculator-ii/"/>
+    <hyperlink ref="I40" r:id="rId27" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator.java"/>
+    <hyperlink ref="I39" r:id="rId28" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator_II.java"/>
+    <hyperlink ref="B41" r:id="rId29" display="https://leetcode.com/problems/longest-valid-parentheses/"/>
+    <hyperlink ref="B42" r:id="rId30" display="https://leetcode.com/problems/container-with-most-water/"/>
+    <hyperlink ref="B43" r:id="rId31" display="https://leetcode.com/problems/simplify-path/"/>
+    <hyperlink ref="B44" r:id="rId32" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/"/>
+    <hyperlink ref="I41" r:id="rId33" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Longest_Valid_Parentheses.java"/>
+    <hyperlink ref="I42" r:id="rId34" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_ContainerWithMostWater.java"/>
+    <hyperlink ref="I43" r:id="rId35" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Simplify_Path.java"/>
+    <hyperlink ref="I44" r:id="rId36" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Remove_All_Adjacent_Duplicates_in_String_II.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="443">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1505,6 +1505,15 @@
   <si>
     <t>stack /recursion
  TLEin leet- Naive recursive solution</t>
+  </si>
+  <si>
+    <t>use 2 pointer fr travesing and stack for storing 1st occurrence index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  sb.insert(0, "one"); --it will append at front -will be used in stack</t>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates In String - LeetCode</t>
   </si>
 </sst>
 </file>
@@ -2221,7 +2230,7 @@
   <dimension ref="B2:J17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2280,6 +2289,9 @@
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>441</v>
+      </c>
       <c r="F5" t="s">
         <v>137</v>
       </c>
@@ -2307,6 +2319,7 @@
     <hyperlink ref="J4" r:id="rId2" display="https://www.geeksforgeeks.org/fast-io-in-java-in-competitive-programming/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4653,10 +4666,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5539,11 +5552,28 @@
       <c r="F44" s="10" t="s">
         <v>439</v>
       </c>
+      <c r="G44" s="10" t="s">
+        <v>440</v>
+      </c>
       <c r="H44" s="25" t="s">
         <v>433</v>
       </c>
       <c r="I44" s="21" t="s">
         <v>438</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5584,9 +5614,10 @@
     <hyperlink ref="I42" r:id="rId34" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_ContainerWithMostWater.java"/>
     <hyperlink ref="I43" r:id="rId35" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Simplify_Path.java"/>
     <hyperlink ref="I44" r:id="rId36" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Remove_All_Adjacent_Duplicates_in_String_II.java"/>
+    <hyperlink ref="B45" r:id="rId37" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="452">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1514,6 +1514,42 @@
   </si>
   <si>
     <t>Remove All Adjacent Duplicates In String - LeetCode</t>
+  </si>
+  <si>
+    <t>CP/Leet_RemoveAllAdjacentDuplicatesInString.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simple stack </t>
+  </si>
+  <si>
+    <t>while print ing from stack you can use sb.insert(),stack.pop) -- it will append at front</t>
+  </si>
+  <si>
+    <t>Maximum Frequency Stack - LeetCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> any time the word "frequency" is used, we're most likely going to need to make a frequency map.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nge to left
+stock span for left/sun covering left side 
+similarly
+nge to right means 
+stockspan on right /
+sun voering all elemets to right </t>
+  </si>
+  <si>
+    <t>understand the evaluation 
+conversion is easy for infix ,postfix and prefix</t>
+  </si>
+  <si>
+    <t>if 2 is celebrity then, everybody should know 2 and 2 don’t know anybody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   // if i knows j means
+  it comes under category of everybody knows j ,  so j is petential candidate
+if i does not know j   -&gt;  comes under category of i does not know everybody
+            // i is potential candidate</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1641,6 +1677,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -1734,7 +1776,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1745,8 +1787,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1938,8 +1981,12 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="6" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
+    <cellStyle name="20% - Accent1" xfId="10" builtinId="30"/>
     <cellStyle name="20% - Accent6" xfId="9" builtinId="50"/>
     <cellStyle name="40% - Accent2" xfId="3" builtinId="35"/>
     <cellStyle name="40% - Accent3" xfId="4" builtinId="39"/>
@@ -2714,7 +2761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -3683,8 +3730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4666,10 +4713,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4751,7 +4798,7 @@
         <v>34</v>
       </c>
       <c r="E4" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>360</v>
@@ -4777,7 +4824,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>363</v>
@@ -4803,7 +4850,7 @@
         <v>34</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="10" t="s">
         <v>368</v>
@@ -4815,7 +4862,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -4829,10 +4876,13 @@
         <v>34</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>370</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>448</v>
       </c>
       <c r="I7" s="21" t="s">
         <v>371</v>
@@ -4852,7 +4902,7 @@
         <v>34</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>372</v>
@@ -4875,7 +4925,7 @@
         <v>34</v>
       </c>
       <c r="E9" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>381</v>
@@ -4898,13 +4948,16 @@
         <v>34</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>409</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>403</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>449</v>
       </c>
       <c r="I10" s="16" t="s">
         <v>402</v>
@@ -4924,7 +4977,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>406</v>
@@ -4950,7 +5003,7 @@
         <v>34</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>407</v>
@@ -4976,7 +5029,7 @@
         <v>34</v>
       </c>
       <c r="E13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>410</v>
@@ -4988,11 +5041,11 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="69" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -5003,13 +5056,19 @@
       </c>
       <c r="E14" s="2">
         <v>2</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="69" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -5026,7 +5085,7 @@
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -5562,7 +5621,10 @@
         <v>438</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>13</v>
+      </c>
       <c r="B45" s="16" t="s">
         <v>442</v>
       </c>
@@ -5574,6 +5636,26 @@
       </c>
       <c r="E45" s="2">
         <v>0</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>14</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -5601,23 +5683,25 @@
     <hyperlink ref="I11" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixConversion.java"/>
     <hyperlink ref="I12" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PostFixEvaluationConversion.java"/>
     <hyperlink ref="I13" r:id="rId23" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PrefixEvaluationConversion.java"/>
-    <hyperlink ref="H20" r:id="rId24" display="https://leetcode.com/problems/min-stack/"/>
-    <hyperlink ref="B40" r:id="rId25" display="https://leetcode.com/problems/basic-calculator/"/>
-    <hyperlink ref="B39" r:id="rId26" display="https://leetcode.com/problems/basic-calculator-ii/"/>
-    <hyperlink ref="I40" r:id="rId27" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator.java"/>
-    <hyperlink ref="I39" r:id="rId28" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator_II.java"/>
-    <hyperlink ref="B41" r:id="rId29" display="https://leetcode.com/problems/longest-valid-parentheses/"/>
-    <hyperlink ref="B42" r:id="rId30" display="https://leetcode.com/problems/container-with-most-water/"/>
-    <hyperlink ref="B43" r:id="rId31" display="https://leetcode.com/problems/simplify-path/"/>
-    <hyperlink ref="B44" r:id="rId32" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/"/>
-    <hyperlink ref="I41" r:id="rId33" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Longest_Valid_Parentheses.java"/>
-    <hyperlink ref="I42" r:id="rId34" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_ContainerWithMostWater.java"/>
-    <hyperlink ref="I43" r:id="rId35" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Simplify_Path.java"/>
-    <hyperlink ref="I44" r:id="rId36" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Remove_All_Adjacent_Duplicates_in_String_II.java"/>
-    <hyperlink ref="B45" r:id="rId37" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/"/>
+    <hyperlink ref="B40" r:id="rId24" display="https://leetcode.com/problems/basic-calculator/"/>
+    <hyperlink ref="B39" r:id="rId25" display="https://leetcode.com/problems/basic-calculator-ii/"/>
+    <hyperlink ref="I40" r:id="rId26" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator.java"/>
+    <hyperlink ref="I39" r:id="rId27" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator_II.java"/>
+    <hyperlink ref="B41" r:id="rId28" display="https://leetcode.com/problems/longest-valid-parentheses/"/>
+    <hyperlink ref="B42" r:id="rId29" display="https://leetcode.com/problems/container-with-most-water/"/>
+    <hyperlink ref="B43" r:id="rId30" display="https://leetcode.com/problems/simplify-path/"/>
+    <hyperlink ref="B44" r:id="rId31" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/"/>
+    <hyperlink ref="I41" r:id="rId32" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Longest_Valid_Parentheses.java"/>
+    <hyperlink ref="I42" r:id="rId33" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_ContainerWithMostWater.java"/>
+    <hyperlink ref="I43" r:id="rId34" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Simplify_Path.java"/>
+    <hyperlink ref="I44" r:id="rId35" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Remove_All_Adjacent_Duplicates_in_String_II.java"/>
+    <hyperlink ref="B45" r:id="rId36" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/"/>
+    <hyperlink ref="I45" r:id="rId37" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_RemoveAllAdjacentDuplicatesInString.java"/>
+    <hyperlink ref="B46" r:id="rId38" display="https://leetcode.com/problems/maximum-frequency-stack/"/>
+    <hyperlink ref="H20" r:id="rId39" display="https://leetcode.com/problems/min-stack/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="458">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1550,6 +1550,25 @@
   it comes under category of everybody knows j ,  so j is petential candidate
 if i does not know j   -&gt;  comes under category of i does not know everybody
             // i is potential candidate</t>
+  </si>
+  <si>
+    <t>CP/CelebrityProblem.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Merge_Overlapping_Interval.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>take pair and use comparable and compare end time and based on that update end time and push</t>
+  </si>
+  <si>
+    <t>CP/Smallest_Number_Following_Pattern.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>you should know traversal
+identify break point</t>
+  </si>
+  <si>
+    <t>using arr and int top , visualize implementation</t>
   </si>
 </sst>
 </file>
@@ -4715,8 +4734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5063,8 +5082,11 @@
       <c r="H14" s="10" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="16" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -5080,8 +5102,14 @@
       <c r="E15" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -5095,10 +5123,16 @@
         <v>34</v>
       </c>
       <c r="E16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -5112,7 +5146,10 @@
         <v>34</v>
       </c>
       <c r="E17" s="2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5129,7 +5166,7 @@
         <v>34</v>
       </c>
       <c r="E18" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -5146,7 +5183,7 @@
         <v>34</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5699,9 +5736,12 @@
     <hyperlink ref="I45" r:id="rId37" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_RemoveAllAdjacentDuplicatesInString.java"/>
     <hyperlink ref="B46" r:id="rId38" display="https://leetcode.com/problems/maximum-frequency-stack/"/>
     <hyperlink ref="H20" r:id="rId39" display="https://leetcode.com/problems/min-stack/"/>
+    <hyperlink ref="I14" r:id="rId40" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/CelebrityProblem.java"/>
+    <hyperlink ref="I15" r:id="rId41" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Merge_Overlapping_Interval.java"/>
+    <hyperlink ref="I16" r:id="rId42" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Smallest_Number_Following_Pattern.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="461">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1569,6 +1569,15 @@
   </si>
   <si>
     <t>using arr and int top , visualize implementation</t>
+  </si>
+  <si>
+    <t>CP/DynamicStack.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/NormalStack.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/MinimumStack.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,6 +1712,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1808,7 +1823,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1988,9 +2003,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2002,6 +2014,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3749,7 +3770,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4255,7 +4276,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -4734,8 +4755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4957,7 +4978,7 @@
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="66" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -4986,7 +5007,7 @@
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="65" t="s">
         <v>46</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -5012,7 +5033,7 @@
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="65" t="s">
         <v>47</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -5038,7 +5059,7 @@
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="67" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -5064,7 +5085,7 @@
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="68" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -5090,7 +5111,7 @@
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -5113,7 +5134,7 @@
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="68" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -5151,6 +5172,9 @@
       <c r="F17" s="10" t="s">
         <v>457</v>
       </c>
+      <c r="I17" s="16" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
@@ -5168,6 +5192,9 @@
       <c r="E18" s="2">
         <v>2</v>
       </c>
+      <c r="I18" s="16" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
@@ -5185,21 +5212,24 @@
       <c r="E19" s="2">
         <v>2</v>
       </c>
+      <c r="I19" s="16" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="2">
+      <c r="C20" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="71">
         <v>1</v>
       </c>
       <c r="H20" s="16" t="s">
@@ -5739,9 +5769,12 @@
     <hyperlink ref="I14" r:id="rId40" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/CelebrityProblem.java"/>
     <hyperlink ref="I15" r:id="rId41" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Merge_Overlapping_Interval.java"/>
     <hyperlink ref="I16" r:id="rId42" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Smallest_Number_Following_Pattern.java"/>
+    <hyperlink ref="I18" r:id="rId43" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/DynamicStack.java"/>
+    <hyperlink ref="I17" r:id="rId44" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NormalStack.java"/>
+    <hyperlink ref="I19" r:id="rId45" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStack.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
     <sheet name="Recursion&amp; BackTracking" sheetId="1" r:id="rId2"/>
     <sheet name="Time and Space" sheetId="4" r:id="rId3"/>
-    <sheet name="DP" sheetId="2" r:id="rId4"/>
-    <sheet name="Stack and Queues" sheetId="3" r:id="rId5"/>
+    <sheet name="Stack and Queues" sheetId="3" r:id="rId4"/>
+    <sheet name="DP" sheetId="2" r:id="rId5"/>
     <sheet name="Linked List" sheetId="5" r:id="rId6"/>
     <sheet name="Generic Tree" sheetId="6" r:id="rId7"/>
     <sheet name="Binary Tree" sheetId="7" r:id="rId8"/>
@@ -1656,7 +1656,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1717,6 +1717,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,7 +1829,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2023,6 +2029,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2801,8 +2813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3768,10 +3780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3942,7 +3954,7 @@
       <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="72" t="s">
         <v>155</v>
       </c>
       <c r="F8" s="23" t="s">
@@ -3959,7 +3971,7 @@
       <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="72" t="s">
         <v>196</v>
       </c>
       <c r="F9" s="23" t="s">
@@ -4217,7 +4229,7 @@
       <c r="A21" s="13">
         <v>18</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="72" t="s">
         <v>204</v>
       </c>
       <c r="I21" s="15" t="s">
@@ -4228,23 +4240,26 @@
       <c r="A22" s="13">
         <v>19</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="72" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>20</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>206</v>
-      </c>
+    <row r="23" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="73"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
+        <v>20</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
         <v>21</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D25" s="26" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4274,488 +4289,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="30"/>
-    <col min="4" max="4" width="41.85546875" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="51.85546875" customWidth="1"/>
-    <col min="9" max="9" width="43.140625" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" customWidth="1"/>
-    <col min="11" max="11" width="52.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="30">
-        <v>1</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>208</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="30">
-        <v>2</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="30">
-        <v>3</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>4</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="E7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="30">
-        <v>5</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>6</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>7</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>214</v>
-      </c>
-      <c r="E10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>8</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>215</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>9</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" t="s">
-        <v>238</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>10</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>11</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>12</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>13</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G16" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <v>14</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>221</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
-        <v>15</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="E18" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
-        <v>16</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>17</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
-        <v>18</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="30">
-        <v>19</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>226</v>
-      </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="30">
-        <v>20</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="30">
-        <v>21</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="E24" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="30">
-        <v>22</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="30">
-        <v>23</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="30">
-        <v>24</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G27" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="30">
-        <v>25</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="30">
-        <v>26</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="30">
-        <v>27</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="E30" t="s">
-        <v>238</v>
-      </c>
-      <c r="G30" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="30">
-        <v>28</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="E31" t="s">
-        <v>238</v>
-      </c>
-      <c r="G31" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="30">
-        <v>29</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="G32" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="30">
-        <v>30</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="G33" s="30">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
@@ -5778,12 +5314,491 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="30"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="51.85546875" customWidth="1"/>
+    <col min="9" max="9" width="43.140625" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" customWidth="1"/>
+    <col min="11" max="11" width="52.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
+        <v>2</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
+        <v>3</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>4</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
+        <v>6</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="30">
+        <v>7</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="30">
+        <v>8</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="30">
+        <v>9</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="30">
+        <v>10</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>11</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="30">
+        <v>12</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="30">
+        <v>13</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="30">
+        <v>14</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="30">
+        <v>15</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="30">
+        <v>16</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="30">
+        <v>17</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30">
+        <v>18</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30">
+        <v>19</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="30">
+        <v>20</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="30">
+        <v>21</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="30">
+        <v>22</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="E25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="30">
+        <v>23</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="30">
+        <v>24</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="30">
+        <v>25</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="30">
+        <v>26</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="30">
+        <v>27</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="30">
+        <v>28</v>
+      </c>
+      <c r="D31" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" t="s">
+        <v>238</v>
+      </c>
+      <c r="G31" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="30">
+        <v>29</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="30">
+        <v>30</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G33" s="30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G20" sqref="D20:G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="465">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1578,6 +1578,18 @@
   </si>
   <si>
     <t>CP/MinimumStack.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>you can use 2 stack or you can use 1 stack of int arr[2]</t>
+  </si>
+  <si>
+    <t>you need to use 1 stack and min variable</t>
+  </si>
+  <si>
+    <t>Generate Binary Numbers </t>
+  </si>
+  <si>
+    <t>gfg</t>
   </si>
 </sst>
 </file>
@@ -2814,7 +2826,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3782,7 +3794,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4291,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4748,6 +4760,9 @@
       <c r="E19" s="2">
         <v>2</v>
       </c>
+      <c r="G19" s="10" t="s">
+        <v>461</v>
+      </c>
       <c r="I19" s="16" t="s">
         <v>460</v>
       </c>
@@ -4768,6 +4783,9 @@
       <c r="E20" s="71">
         <v>1</v>
       </c>
+      <c r="G20" s="10" t="s">
+        <v>462</v>
+      </c>
       <c r="H20" s="16" t="s">
         <v>414</v>
       </c>
@@ -4892,7 +4910,15 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="18"/>
+      <c r="B28" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="18"/>
@@ -5308,9 +5334,10 @@
     <hyperlink ref="I18" r:id="rId43" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/DynamicStack.java"/>
     <hyperlink ref="I17" r:id="rId44" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NormalStack.java"/>
     <hyperlink ref="I19" r:id="rId45" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStack.java"/>
+    <hyperlink ref="B28" r:id="rId46" display="https://auth.geeksforgeeks.org/?to=https%3A%2F%2Fpractice.geeksforgeeks.org%2Fproblems%2Fgenerate-binary-numbers-1587115620%2F1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="468">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1591,12 +1591,21 @@
   <si>
     <t>gfg</t>
   </si>
+  <si>
+    <t>CP/MinimumStackConstantSpace.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>all the evens end in 0 and the odds end in 1 in binary code. so each iteration you are just incrementing the string</t>
+  </si>
+  <si>
+    <t>so initially push 1 and then attach 0 and 1 and increament the loop</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1666,6 +1675,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2A2E2E"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -2033,20 +2048,20 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="10" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3966,7 +3981,7 @@
       <c r="A8" s="13">
         <v>5</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="69" t="s">
         <v>155</v>
       </c>
       <c r="F8" s="23" t="s">
@@ -3983,7 +3998,7 @@
       <c r="A9" s="13">
         <v>6</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="69" t="s">
         <v>196</v>
       </c>
       <c r="F9" s="23" t="s">
@@ -4241,7 +4256,7 @@
       <c r="A21" s="13">
         <v>18</v>
       </c>
-      <c r="D21" s="72" t="s">
+      <c r="D21" s="69" t="s">
         <v>204</v>
       </c>
       <c r="I21" s="15" t="s">
@@ -4252,12 +4267,12 @@
       <c r="A22" s="13">
         <v>19</v>
       </c>
-      <c r="D22" s="72" t="s">
+      <c r="D22" s="69" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="73"/>
+      <c r="D23" s="70"/>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
@@ -4304,7 +4319,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4763,6 +4778,9 @@
       <c r="G19" s="10" t="s">
         <v>461</v>
       </c>
+      <c r="H19" s="16" t="s">
+        <v>414</v>
+      </c>
       <c r="I19" s="16" t="s">
         <v>460</v>
       </c>
@@ -4771,23 +4789,23 @@
       <c r="A20" s="5">
         <v>17</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="70" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="71">
+      <c r="C20" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="72">
         <v>1</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>414</v>
+      <c r="I20" s="16" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -4909,7 +4927,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>25</v>
+      </c>
       <c r="B28" s="16" t="s">
         <v>463</v>
       </c>
@@ -4918,6 +4939,12 @@
       </c>
       <c r="D28" s="5" t="s">
         <v>34</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>466</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5327,7 +5354,7 @@
     <hyperlink ref="B45" r:id="rId36" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/"/>
     <hyperlink ref="I45" r:id="rId37" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_RemoveAllAdjacentDuplicatesInString.java"/>
     <hyperlink ref="B46" r:id="rId38" display="https://leetcode.com/problems/maximum-frequency-stack/"/>
-    <hyperlink ref="H20" r:id="rId39" display="https://leetcode.com/problems/min-stack/"/>
+    <hyperlink ref="H19" r:id="rId39" display="https://leetcode.com/problems/min-stack/"/>
     <hyperlink ref="I14" r:id="rId40" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/CelebrityProblem.java"/>
     <hyperlink ref="I15" r:id="rId41" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Merge_Overlapping_Interval.java"/>
     <hyperlink ref="I16" r:id="rId42" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Smallest_Number_Following_Pattern.java"/>
@@ -5335,9 +5362,10 @@
     <hyperlink ref="I17" r:id="rId44" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NormalStack.java"/>
     <hyperlink ref="I19" r:id="rId45" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStack.java"/>
     <hyperlink ref="B28" r:id="rId46" display="https://auth.geeksforgeeks.org/?to=https%3A%2F%2Fpractice.geeksforgeeks.org%2Fproblems%2Fgenerate-binary-numbers-1587115620%2F1"/>
+    <hyperlink ref="I20" r:id="rId47" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStackConstantSpace.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -10,14 +10,15 @@
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
     <sheet name="Recursion&amp; BackTracking" sheetId="1" r:id="rId2"/>
     <sheet name="Time and Space" sheetId="4" r:id="rId3"/>
-    <sheet name="Stack and Queues" sheetId="3" r:id="rId4"/>
-    <sheet name="DP" sheetId="2" r:id="rId5"/>
-    <sheet name="Linked List" sheetId="5" r:id="rId6"/>
-    <sheet name="Generic Tree" sheetId="6" r:id="rId7"/>
-    <sheet name="Binary Tree" sheetId="7" r:id="rId8"/>
-    <sheet name="Binary Search Tree" sheetId="8" r:id="rId9"/>
-    <sheet name="Hashmap and Heaps" sheetId="9" r:id="rId10"/>
-    <sheet name="Graph" sheetId="10" r:id="rId11"/>
+    <sheet name="Stack" sheetId="3" r:id="rId4"/>
+    <sheet name="Queue" sheetId="12" r:id="rId5"/>
+    <sheet name="DP" sheetId="2" r:id="rId6"/>
+    <sheet name="Linked List" sheetId="5" r:id="rId7"/>
+    <sheet name="Generic Tree" sheetId="6" r:id="rId8"/>
+    <sheet name="Binary Tree" sheetId="7" r:id="rId9"/>
+    <sheet name="Binary Search Tree" sheetId="8" r:id="rId10"/>
+    <sheet name="Hashmap and Heaps" sheetId="9" r:id="rId11"/>
+    <sheet name="Graph" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="470">
   <si>
     <t>TOPIC</t>
   </si>
@@ -200,9 +201,6 @@
   </si>
   <si>
     <t>Minimum Stack  - constant space</t>
-  </si>
-  <si>
-    <t>Normal Queue</t>
   </si>
   <si>
     <t>Dynamic Queue</t>
@@ -1599,6 +1597,15 @@
   </si>
   <si>
     <t>so initially push 1 and then attach 0 and 1 and increament the loop</t>
+  </si>
+  <si>
+    <t>think on terms of tree</t>
+  </si>
+  <si>
+    <t>Normal queue</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water - LeetCode</t>
   </si>
 </sst>
 </file>
@@ -1754,7 +1761,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1842,6 +1849,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1856,7 +1892,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2054,14 +2090,42 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2368,24 +2432,24 @@
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>132</v>
-      </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2394,32 +2458,32 @@
         <v>48</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G4">
         <v>97</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G5">
         <v>65</v>
@@ -2427,7 +2491,7 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G6">
         <v>32</v>
@@ -2450,6 +2514,150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="41.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="47.7109375" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" customWidth="1"/>
+    <col min="10" max="10" width="42.42578125" customWidth="1"/>
+    <col min="11" max="11" width="42.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -2505,7 +2713,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2513,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2521,7 +2729,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2529,7 +2737,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2537,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2545,7 +2753,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2553,7 +2761,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2561,7 +2769,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2569,7 +2777,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2577,7 +2785,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2585,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2593,7 +2801,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2601,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2609,7 +2817,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2617,7 +2825,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2625,7 +2833,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -2684,7 +2892,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2692,7 +2900,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2700,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2708,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2716,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2724,7 +2932,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2732,7 +2940,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2740,7 +2948,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2748,7 +2956,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2756,7 +2964,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2764,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2772,7 +2980,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2780,7 +2988,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2788,7 +2996,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2796,7 +3004,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2804,7 +3012,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2812,7 +3020,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2820,7 +3028,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2828,7 +3036,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2860,10 +3068,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J1" s="11"/>
     </row>
@@ -2873,7 +3081,7 @@
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>31</v>
@@ -2900,10 +3108,10 @@
         <v>38</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2926,13 +3134,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2955,13 +3163,13 @@
         <v>1</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -2984,13 +3192,13 @@
         <v>1</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3013,13 +3221,13 @@
         <v>1</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3042,13 +3250,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3056,19 +3264,19 @@
         <v>6</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3091,16 +3299,16 @@
         <v>1</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3123,16 +3331,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J11" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3155,13 +3363,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3184,16 +3392,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3216,10 +3424,10 @@
         <v>0</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3242,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3265,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3288,7 +3496,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3311,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3337,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3360,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3383,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3406,7 +3614,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -3429,13 +3637,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3458,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3487,13 +3695,13 @@
         <v>1</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K25" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3516,13 +3724,13 @@
         <v>1</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K26" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3545,16 +3753,16 @@
         <v>1</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I27" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="16" t="s">
         <v>117</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3577,13 +3785,13 @@
         <v>1</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K28" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3606,16 +3814,16 @@
         <v>1</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K29" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3638,16 +3846,16 @@
         <v>2</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="16" t="s">
         <v>108</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3670,16 +3878,16 @@
         <v>2</v>
       </c>
       <c r="H31" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="I31" s="10" t="s">
-        <v>106</v>
-      </c>
       <c r="J31" s="10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K31" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="177" customHeight="1" x14ac:dyDescent="0.25">
@@ -3690,7 +3898,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>33</v>
@@ -3702,30 +3910,30 @@
         <v>2</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K32" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K33" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3748,16 +3956,16 @@
         <v>2</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K34" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -3765,13 +3973,13 @@
         <v>31</v>
       </c>
       <c r="D35" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="K35" s="16" t="s">
         <v>399</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>401</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3830,10 +4038,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -3879,7 +4087,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3887,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>34</v>
@@ -3896,16 +4104,16 @@
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3913,7 +4121,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>34</v>
@@ -3922,16 +4130,16 @@
         <v>1</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
@@ -3939,7 +4147,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>34</v>
@@ -3948,10 +4156,10 @@
         <v>1</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
@@ -3959,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>34</v>
@@ -3968,13 +4176,13 @@
         <v>1</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3982,16 +4190,16 @@
         <v>5</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3999,10 +4207,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -4013,7 +4221,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>34</v>
@@ -4022,10 +4230,10 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
@@ -4033,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>34</v>
@@ -4042,13 +4250,13 @@
         <v>1</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K11" s="21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="105" x14ac:dyDescent="0.25">
@@ -4056,7 +4264,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>34</v>
@@ -4065,16 +4273,16 @@
         <v>1</v>
       </c>
       <c r="H12" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="I12" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="K12" s="21" t="s">
         <v>169</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4082,7 +4290,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>34</v>
@@ -4091,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J13" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K13" s="21" t="s">
         <v>172</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -4105,7 +4313,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>34</v>
@@ -4114,13 +4322,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4128,7 +4336,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>34</v>
@@ -4137,13 +4345,13 @@
         <v>1</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="195" x14ac:dyDescent="0.25">
@@ -4151,7 +4359,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>34</v>
@@ -4160,13 +4368,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
@@ -4174,22 +4382,22 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -4197,7 +4405,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>34</v>
@@ -4206,10 +4414,10 @@
         <v>1</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K18" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -4217,7 +4425,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>34</v>
@@ -4226,10 +4434,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K19" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4237,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>34</v>
@@ -4246,10 +4454,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="K20" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -4257,10 +4465,10 @@
         <v>18</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4268,7 +4476,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4279,7 +4487,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4287,7 +4495,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4316,10 +4524,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4338,17 +4546,17 @@
     <row r="1" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:9" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="39" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -4384,7 +4592,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4404,13 +4612,13 @@
         <v>4</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I4" s="32" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -4430,13 +4638,13 @@
         <v>4</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I5" s="32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4444,7 +4652,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>33</v>
@@ -4456,13 +4664,13 @@
         <v>4</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>369</v>
-      </c>
       <c r="I6" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4482,13 +4690,13 @@
         <v>4</v>
       </c>
       <c r="G7" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="I7" s="21" t="s">
         <v>370</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4508,10 +4716,10 @@
         <v>4</v>
       </c>
       <c r="G8" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="I8" s="21" t="s">
         <v>372</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4521,20 +4729,20 @@
       <c r="B9" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="C9" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="76">
         <v>4</v>
       </c>
       <c r="G9" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="I9" s="21" t="s">
         <v>381</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4554,16 +4762,16 @@
         <v>2</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4583,13 +4791,13 @@
         <v>2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4609,13 +4817,13 @@
         <v>2</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="I12" s="16" t="s">
         <v>407</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4625,23 +4833,23 @@
       <c r="B13" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="C13" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="76">
         <v>2</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>411</v>
-      </c>
       <c r="I13" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -4661,13 +4869,13 @@
         <v>2</v>
       </c>
       <c r="G14" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="I14" s="16" t="s">
         <v>451</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -4687,10 +4895,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -4710,10 +4918,10 @@
         <v>2</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4733,10 +4941,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -4756,7 +4964,7 @@
         <v>2</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -4776,13 +4984,13 @@
         <v>2</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4795,156 +5003,17 @@
       <c r="C20" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="72">
+      <c r="D20" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="73">
         <v>1</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>21</v>
-      </c>
-      <c r="B24" s="52" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>22</v>
-      </c>
-      <c r="B25" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>23</v>
-      </c>
-      <c r="B26" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5">
-        <v>24</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>25</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="C28" s="5" t="s">
         <v>464</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="73" t="s">
-        <v>466</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -4959,7 +5028,7 @@
     <row r="32" spans="1:9" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="39" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -4974,22 +5043,22 @@
         <v>1</v>
       </c>
       <c r="B33" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E33" s="2">
-        <v>0</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>378</v>
-      </c>
       <c r="I33" s="32" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4997,10 +5066,10 @@
         <v>2</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>34</v>
@@ -5009,13 +5078,13 @@
         <v>0</v>
       </c>
       <c r="F34" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="I34" s="32" t="s">
         <v>386</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5023,22 +5092,22 @@
         <v>3</v>
       </c>
       <c r="B35" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="I35" s="32" t="s">
         <v>383</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5046,11 +5115,11 @@
         <v>4</v>
       </c>
       <c r="B36" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="D36" s="5" t="s">
         <v>34</v>
       </c>
@@ -5058,14 +5127,14 @@
         <v>0</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H36" s="64"/>
       <c r="I36" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -5073,11 +5142,11 @@
         <v>5</v>
       </c>
       <c r="B37" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>390</v>
-      </c>
       <c r="D37" s="5" t="s">
         <v>34</v>
       </c>
@@ -5085,11 +5154,11 @@
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H37" s="64"/>
       <c r="I37" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5097,25 +5166,25 @@
         <v>6</v>
       </c>
       <c r="B38" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="G38" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="I38" s="32" t="s">
         <v>396</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="I38" s="32" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5123,10 +5192,10 @@
         <v>7</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>34</v>
@@ -5135,10 +5204,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I39" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
@@ -5146,10 +5215,10 @@
         <v>8</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>34</v>
@@ -5158,13 +5227,13 @@
         <v>0</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I40" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5172,25 +5241,25 @@
         <v>9</v>
       </c>
       <c r="B41" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>423</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="2">
-        <v>0</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>424</v>
-      </c>
       <c r="I41" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
@@ -5198,25 +5267,25 @@
         <v>10</v>
       </c>
       <c r="B42" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="G42" s="10" t="s">
-        <v>428</v>
-      </c>
       <c r="I42" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5224,28 +5293,28 @@
         <v>11</v>
       </c>
       <c r="B43" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>430</v>
-      </c>
       <c r="I43" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -5253,10 +5322,10 @@
         <v>12</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>34</v>
@@ -5265,16 +5334,16 @@
         <v>0</v>
       </c>
       <c r="F44" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>439</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>440</v>
-      </c>
       <c r="H44" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5282,25 +5351,25 @@
         <v>13</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="I45" s="16" t="s">
         <v>442</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>445</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5308,10 +5377,15 @@
         <v>14</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="H46" s="10" t="s">
-        <v>447</v>
+    </row>
+    <row r="47" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="16" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>
@@ -5361,8 +5435,8 @@
     <hyperlink ref="I18" r:id="rId43" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/DynamicStack.java"/>
     <hyperlink ref="I17" r:id="rId44" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NormalStack.java"/>
     <hyperlink ref="I19" r:id="rId45" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStack.java"/>
-    <hyperlink ref="B28" r:id="rId46" display="https://auth.geeksforgeeks.org/?to=https%3A%2F%2Fpractice.geeksforgeeks.org%2Fproblems%2Fgenerate-binary-numbers-1587115620%2F1"/>
-    <hyperlink ref="I20" r:id="rId47" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStackConstantSpace.java"/>
+    <hyperlink ref="I20" r:id="rId46" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStackConstantSpace.java"/>
+    <hyperlink ref="B47" r:id="rId47" display="https://leetcode.com/problems/trapping-rain-water/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId48"/>
@@ -5370,6 +5444,252 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="6" max="6" width="42" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" customWidth="1"/>
+    <col min="8" max="8" width="42.5703125" customWidth="1"/>
+    <col min="9" max="9" width="39.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" s="78" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.9">
+      <c r="A2" s="80" t="s">
+        <v>379</v>
+      </c>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="I2" s="79"/>
+    </row>
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="B9" s="52" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="81" t="s">
+        <v>465</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="I11" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:G2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B11" r:id="rId1" display="https://auth.geeksforgeeks.org/?to=https%3A%2F%2Fpractice.geeksforgeeks.org%2Fproblems%2Fgenerate-binary-numbers-1587115620%2F1"/>
+    <hyperlink ref="C1" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Stacks and queues.pdf"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -5426,7 +5746,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -5434,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -5448,7 +5768,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -5462,7 +5782,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -5476,7 +5796,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -5490,7 +5810,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -5504,7 +5824,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -5518,10 +5838,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G10" s="30">
         <v>0</v>
@@ -5532,7 +5852,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -5546,10 +5866,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G12" s="30">
         <v>0</v>
@@ -5560,7 +5880,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -5574,7 +5894,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -5588,7 +5908,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -5602,7 +5922,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
@@ -5616,7 +5936,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -5630,7 +5950,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -5644,7 +5964,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -5658,7 +5978,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -5672,7 +5992,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -5686,7 +6006,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -5700,7 +6020,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
@@ -5714,7 +6034,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -5728,7 +6048,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -5742,7 +6062,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
@@ -5756,7 +6076,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
@@ -5770,7 +6090,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
@@ -5784,7 +6104,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -5798,10 +6118,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G30" s="30">
         <v>0</v>
@@ -5812,10 +6132,10 @@
         <v>28</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G31" s="30">
         <v>0</v>
@@ -5826,7 +6146,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G32" s="30">
         <v>0</v>
@@ -5837,7 +6157,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G33" s="30">
         <v>0</v>
@@ -5848,7 +6168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -5908,7 +6228,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5917,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -5934,7 +6254,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -5951,7 +6271,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -5968,7 +6288,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -5985,7 +6305,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -6002,7 +6322,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -6019,7 +6339,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -6036,7 +6356,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -6053,7 +6373,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -6070,7 +6390,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -6087,7 +6407,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -6104,7 +6424,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
@@ -6121,7 +6441,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -6138,7 +6458,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -6155,7 +6475,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -6172,7 +6492,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -6189,7 +6509,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -6200,7 +6520,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -6211,7 +6531,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
@@ -6222,7 +6542,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -6233,7 +6553,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -6244,7 +6564,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
@@ -6255,7 +6575,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
@@ -6266,7 +6586,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
@@ -6277,7 +6597,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -6288,7 +6608,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -6346,7 +6666,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6354,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6362,7 +6682,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6370,7 +6690,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6378,7 +6698,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6386,7 +6706,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6394,7 +6714,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6402,7 +6722,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6410,7 +6730,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6418,7 +6738,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6426,7 +6746,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6434,7 +6754,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6442,7 +6762,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6450,7 +6770,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6458,7 +6778,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6466,7 +6786,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6474,7 +6794,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6482,7 +6802,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6490,7 +6810,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6498,7 +6818,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6506,7 +6826,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6514,7 +6834,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6522,7 +6842,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -6530,7 +6850,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6538,7 +6858,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6546,7 +6866,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6554,7 +6874,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6562,7 +6882,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6570,7 +6890,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -6578,7 +6898,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -6586,7 +6906,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -6594,7 +6914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -6652,7 +6972,7 @@
         <v>35</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -6660,7 +6980,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6668,7 +6988,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6676,7 +6996,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6684,7 +7004,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6692,7 +7012,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6700,7 +7020,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6708,7 +7028,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6716,7 +7036,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6724,7 +7044,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -6732,7 +7052,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -6740,7 +7060,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6748,7 +7068,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6756,7 +7076,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -6764,7 +7084,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -6772,7 +7092,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -6780,7 +7100,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -6788,7 +7108,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6796,7 +7116,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6804,7 +7124,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6812,151 +7132,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>313</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="41.28515625" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="47.7109375" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" customWidth="1"/>
-    <col min="10" max="10" width="42.42578125" customWidth="1"/>
-    <col min="11" max="11" width="42.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Basics" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="473">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1599,6 +1599,9 @@
     <t>so initially push 1 and then attach 0 and 1 and increament the loop</t>
   </si>
   <si>
+    <t>CP/GFG_GenerateBinaryNumber.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
     <t>think on terms of tree</t>
   </si>
   <si>
@@ -1606,6 +1609,12 @@
   </si>
   <si>
     <t>Trapping Rain Water - LeetCode</t>
+  </si>
+  <si>
+    <t>CP/DynamicQueue.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/NormalQueue.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -3048,7 +3057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -4017,7 +4026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4526,8 +4535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5385,7 +5394,7 @@
     </row>
     <row r="47" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -5447,13 +5456,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
     <col min="7" max="7" width="49.42578125" customWidth="1"/>
@@ -5516,7 +5525,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>33</v>
@@ -5530,7 +5539,9 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="8"/>
+      <c r="I4" s="16" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
@@ -5545,7 +5556,9 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="8"/>
+      <c r="I5" s="16" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
@@ -5673,9 +5686,11 @@
         <v>466</v>
       </c>
       <c r="H11" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5684,6 +5699,9 @@
   <hyperlinks>
     <hyperlink ref="B11" r:id="rId1" display="https://auth.geeksforgeeks.org/?to=https%3A%2F%2Fpractice.geeksforgeeks.org%2Fproblems%2Fgenerate-binary-numbers-1587115620%2F1"/>
     <hyperlink ref="C1" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Stacks and queues.pdf"/>
+    <hyperlink ref="I5" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/DynamicQueue.java"/>
+    <hyperlink ref="I4" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/NormalQueue.java"/>
+    <hyperlink ref="I11" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/GFG_GenerateBinaryNumber.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -11,14 +11,15 @@
     <sheet name="Recursion&amp; BackTracking" sheetId="1" r:id="rId2"/>
     <sheet name="Time and Space" sheetId="4" r:id="rId3"/>
     <sheet name="Stack" sheetId="3" r:id="rId4"/>
-    <sheet name="Queue" sheetId="12" r:id="rId5"/>
-    <sheet name="DP" sheetId="2" r:id="rId6"/>
-    <sheet name="Linked List" sheetId="5" r:id="rId7"/>
-    <sheet name="Generic Tree" sheetId="6" r:id="rId8"/>
-    <sheet name="Binary Tree" sheetId="7" r:id="rId9"/>
-    <sheet name="Binary Search Tree" sheetId="8" r:id="rId10"/>
-    <sheet name="Hashmap and Heaps" sheetId="9" r:id="rId11"/>
-    <sheet name="Graph" sheetId="10" r:id="rId12"/>
+    <sheet name="Leet" sheetId="13" r:id="rId5"/>
+    <sheet name="Queue" sheetId="12" r:id="rId6"/>
+    <sheet name="DP" sheetId="2" r:id="rId7"/>
+    <sheet name="Linked List" sheetId="5" r:id="rId8"/>
+    <sheet name="Generic Tree" sheetId="6" r:id="rId9"/>
+    <sheet name="Binary Tree" sheetId="7" r:id="rId10"/>
+    <sheet name="Binary Search Tree" sheetId="8" r:id="rId11"/>
+    <sheet name="Hashmap and Heaps" sheetId="9" r:id="rId12"/>
+    <sheet name="Graph" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="476">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1615,6 +1616,15 @@
   </si>
   <si>
     <t>CP/NormalQueue.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Maximum Distance Between a Pair of Values - LeetCode</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>2pointer binary search</t>
   </si>
 </sst>
 </file>
@@ -2124,17 +2134,17 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -2524,6 +2534,232 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20:D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="5"/>
+    <col min="4" max="4" width="55.140625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="9" width="39" customWidth="1"/>
+    <col min="10" max="10" width="36.85546875" customWidth="1"/>
+    <col min="11" max="11" width="52.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1"/>
+      <c r="D1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>6</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>7</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>8</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>9</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>10</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>11</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>12</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>13</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>14</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>15</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>16</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>17</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>18</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>19</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>20</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2666,7 +2902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
@@ -2842,7 +3078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
@@ -3057,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4026,8 +4262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4535,7 +4771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -5454,10 +5690,42 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5480,22 +5748,22 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="78" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="83" t="s">
         <v>379</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
       <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="81" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="29" t="s">
@@ -5524,7 +5792,7 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="82" t="s">
         <v>469</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -5679,7 +5947,7 @@
         <v>34</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="81" t="s">
+      <c r="F11" s="80" t="s">
         <v>465</v>
       </c>
       <c r="G11" s="10" t="s">
@@ -5707,12 +5975,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6186,7 +6454,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
@@ -6626,7 +6894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
@@ -6930,230 +7198,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="4" max="4" width="55.140625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="9" width="39" customWidth="1"/>
-    <col min="10" max="10" width="36.85546875" customWidth="1"/>
-    <col min="11" max="11" width="52.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1"/>
-      <c r="D1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="D2"/>
-    </row>
-    <row r="3" spans="1:11" s="22" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="20" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>312</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -3293,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4262,7 +4262,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -5697,6 +5697,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Basics" sheetId="11" r:id="rId1"/>
-    <sheet name="Recursion&amp; BackTracking" sheetId="1" r:id="rId2"/>
-    <sheet name="Time and Space" sheetId="4" r:id="rId3"/>
-    <sheet name="Stack" sheetId="3" r:id="rId4"/>
-    <sheet name="Leet" sheetId="13" r:id="rId5"/>
+    <sheet name="Leet" sheetId="13" r:id="rId1"/>
+    <sheet name="Basics" sheetId="11" r:id="rId2"/>
+    <sheet name="Recursion&amp; BackTracking" sheetId="1" r:id="rId3"/>
+    <sheet name="Time and Space" sheetId="4" r:id="rId4"/>
+    <sheet name="Stack" sheetId="3" r:id="rId5"/>
     <sheet name="Queue" sheetId="12" r:id="rId6"/>
     <sheet name="DP" sheetId="2" r:id="rId7"/>
     <sheet name="Linked List" sheetId="5" r:id="rId8"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="446">
   <si>
     <t>TOPIC</t>
   </si>
@@ -245,15 +245,6 @@
     <t>Solution link</t>
   </si>
   <si>
-    <t>CP/MergeTwoSortedArr.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/Sort01.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/Sorto12.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>segregation approach, when there are 3 types of data you need to sort</t>
   </si>
   <si>
@@ -373,12 +364,6 @@
     <t>always refer this question for backtracking</t>
   </si>
   <si>
-    <t>CP/FloodFill.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/TargetSumSubset.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>level-option,
 at every cell we call top left down right call, using direction array</t>
   </si>
@@ -406,12 +391,6 @@
 find the next level</t>
   </si>
   <si>
-    <t>CP/PrintMazePathWithJumps.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/PrintMazePath.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>level-option method,
 only 3 option, and next level is n-option
  this can also be solved using direction array</t>
@@ -432,21 +411,12 @@
   </si>
   <si>
     <t>Refer this pdf</t>
-  </si>
-  <si>
-    <t>CP/PrintStairPath.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/PrintPermutation.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t xml:space="preserve">level-option method
 if abc is string, the option can be a or b  or c 
 if a selected at current level then pass remaining bc
 similarly for option b and c </t>
-  </si>
-  <si>
-    <t>CP/PrintEncodings.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t>get 1 digit and pass remaining,
@@ -538,20 +508,11 @@
     </r>
   </si>
   <si>
-    <t>CP/NQueenOptionLevelApproach.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/NQueenSubsetApproach.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>Knight traversal using direction arry,for backtracking always refer flood fill,</t>
   </si>
   <si>
     <t>notice . Recursive call will not go till arr.length-1, it will go till arr.lenght 
 if started form 0</t>
-  </si>
-  <si>
-    <t>CP/KnightsTour.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <r>
@@ -585,9 +546,6 @@
     <t>Merge Sort</t>
   </si>
   <si>
-    <t>CP/MergeSort.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>Partition of array</t>
   </si>
   <si>
@@ -603,13 +561,7 @@
 then I will merge manually both array(sr no 3)</t>
   </si>
   <si>
-    <t>CP/PartitionOfArray.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>Quick Sort</t>
-  </si>
-  <si>
-    <t>CP/QuickSort.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t>refer sort 01.segregation approach</t>
@@ -640,19 +592,10 @@
 elsfe k&gt;pivot -&gt;recursive call on right</t>
   </si>
   <si>
-    <t>CP/QuickSelect.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>Target sum pair</t>
   </si>
   <si>
     <t>generic problem for solving any type of pair</t>
-  </si>
-  <si>
-    <t>CP/TargetSumPair.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/PivotInSortedAndRotatedArray.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t>Pivot In Sorted  Rotated Array</t>
@@ -668,13 +611,7 @@
 from this you can also find k(no of rotation done) and largest element and smallest element</t>
   </si>
   <si>
-    <t>CP/BubbleSort.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>Selection sort</t>
-  </si>
-  <si>
-    <t>CP/SelectionSort.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t xml:space="preserve">Considering we start from left to right
@@ -703,26 +640,14 @@
     <t>freqmap, fill the array</t>
   </si>
   <si>
-    <t>CP/InsertionSort.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>swap till you put the largest to end
 similarly do for 2nd largest</t>
   </si>
   <si>
-    <t>CP/CountSort.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/BaseCountSort.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>Count Sort Stability</t>
   </si>
   <si>
     <t>same as base count but handle -ve number</t>
-  </si>
-  <si>
-    <t>CP/CountSortStability.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t>Seive Of Erathosthenes</t>
@@ -1319,16 +1244,7 @@
     <t>Next Greater Element I - LeetCode</t>
   </si>
   <si>
-    <t>CP/Leet_NextGreaterElement_I.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/Leet_DailyTemperature.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>based on nge, but trick here is, there is we can also check circulaly</t>
-  </si>
-  <si>
-    <t>CP/Leet_Next_Greater_Element_II.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t>iterate twice fromm right to left, to see the circular nature
@@ -1342,13 +1258,6 @@
     <t>hard</t>
   </si>
   <si>
-    <t>CP/Leet_Maximal_Rectangle.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursive Approach,
-</t>
-  </si>
-  <si>
     <t xml:space="preserve"> stack appraoch</t>
   </si>
   <si>
@@ -1361,22 +1270,13 @@
     <t>stack approach</t>
   </si>
   <si>
-    <t>CP/Leet_Sliding_Window_Maximum.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>dry for last element, when nge jumps for better understanding the nge jumps</t>
   </si>
   <si>
     <t>pinball problem</t>
   </si>
   <si>
-    <t>CP/PinBall.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>basic path recursion</t>
-  </si>
-  <si>
-    <t>CP/InfixEvaluation.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t>look into how precedence is used and operation is used
@@ -1385,9 +1285,6 @@
 op in stack should be solved first that has high precedence and will be sollved from left ot right</t>
   </si>
   <si>
-    <t>CP/InfixConversion.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>refer infix evaluation</t>
   </si>
   <si>
@@ -1395,9 +1292,6 @@
   </si>
   <si>
     <t>can be solved in 1 stack</t>
-  </si>
-  <si>
-    <t>CP/PostFixEvaluationConversion.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t>2stack are required, WHY? Because we need to look at the precedence of solving,
@@ -1414,9 +1308,6 @@
  for making decision val1 and val2, think for a+b. +ab, ab+</t>
   </si>
   <si>
-    <t>CP/PrefixEvaluationConversion.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>Min Stack - LeetCode</t>
   </si>
   <si>
@@ -1424,9 +1315,6 @@
   </si>
   <si>
     <t>Basic Calculator II - LeetCode</t>
-  </si>
-  <si>
-    <t>CP/Leet_BasicCalculator.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t>maintain sum and stack.
@@ -1443,9 +1331,6 @@
     <t>refer infix evaluation, need to handle multiple digits and -ve sign</t>
   </si>
   <si>
-    <t>CP/Leet_BasicCalculator_II.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>trick is to create arrary at every row,
 then use largest area histogram for that array
 then get max of each row</t>
@@ -1490,18 +1375,6 @@
     <t>Remove All Adjacent Duplicates in String II - LeetCode</t>
   </si>
   <si>
-    <t>CP/Leet_Longest_Valid_Parentheses.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/Leet_ContainerWithMostWater.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/Leet_Simplify_Path.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/Leet_Remove_All_Adjacent_Duplicates_in_String_II.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>stack /recursion
  TLEin leet- Naive recursive solution</t>
   </si>
@@ -1513,9 +1386,6 @@
   </si>
   <si>
     <t>Remove All Adjacent Duplicates In String - LeetCode</t>
-  </si>
-  <si>
-    <t>CP/Leet_RemoveAllAdjacentDuplicatesInString.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t xml:space="preserve">simple stack </t>
@@ -1551,16 +1421,7 @@
             // i is potential candidate</t>
   </si>
   <si>
-    <t>CP/CelebrityProblem.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/Merge_Overlapping_Interval.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>take pair and use comparable and compare end time and based on that update end time and push</t>
-  </si>
-  <si>
-    <t>CP/Smallest_Number_Following_Pattern.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
     <t>you should know traversal
@@ -1570,61 +1431,109 @@
     <t>using arr and int top , visualize implementation</t>
   </si>
   <si>
+    <t>you can use 2 stack or you can use 1 stack of int arr[2]</t>
+  </si>
+  <si>
+    <t>you need to use 1 stack and min variable</t>
+  </si>
+  <si>
+    <t>Generate Binary Numbers </t>
+  </si>
+  <si>
+    <t>gfg</t>
+  </si>
+  <si>
+    <t>all the evens end in 0 and the odds end in 1 in binary code. so each iteration you are just incrementing the string</t>
+  </si>
+  <si>
+    <t>so initially push 1 and then attach 0 and 1 and increament the loop</t>
+  </si>
+  <si>
+    <t>CP/GFG_GenerateBinaryNumber.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>think on terms of tree</t>
+  </si>
+  <si>
+    <t>Normal queue</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water - LeetCode</t>
+  </si>
+  <si>
+    <t>CP/DynamicQueue.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/NormalQueue.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>Maximum Distance Between a Pair of Values - LeetCode</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>2pointer binary search</t>
+  </si>
+  <si>
+    <t>Merge Intervals - LeetCode</t>
+  </si>
+  <si>
+    <t>CP/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/CelebrityProblem.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Merge_Overlapping_Interval.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/PostFixEvaluationConversion.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/PrefixEvaluationConversion.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/InfixEvaluation.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/InfixConversion.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Smallest_Number_Following_Pattern.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/NormalStack.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
     <t>CP/DynamicStack.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
-    <t>CP/NormalStack.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
     <t>CP/MinimumStack.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
-    <t>you can use 2 stack or you can use 1 stack of int arr[2]</t>
-  </si>
-  <si>
-    <t>you need to use 1 stack and min variable</t>
-  </si>
-  <si>
-    <t>Generate Binary Numbers </t>
-  </si>
-  <si>
-    <t>gfg</t>
-  </si>
-  <si>
     <t>CP/MinimumStackConstantSpace.java at main · spartan4cs/CP (github.com)</t>
   </si>
   <si>
-    <t>all the evens end in 0 and the odds end in 1 in binary code. so each iteration you are just incrementing the string</t>
-  </si>
-  <si>
-    <t>so initially push 1 and then attach 0 and 1 and increament the loop</t>
-  </si>
-  <si>
-    <t>CP/GFG_GenerateBinaryNumber.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>think on terms of tree</t>
-  </si>
-  <si>
-    <t>Normal queue</t>
-  </si>
-  <si>
-    <t>Trapping Rain Water - LeetCode</t>
-  </si>
-  <si>
-    <t>CP/DynamicQueue.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>CP/NormalQueue.java at main · spartan4cs/CP (github.com)</t>
-  </si>
-  <si>
-    <t>Maximum Distance Between a Pair of Values - LeetCode</t>
-  </si>
-  <si>
-    <t>topic</t>
-  </si>
-  <si>
-    <t>2pointer binary search</t>
+    <t xml:space="preserve">kiti elementr cover zhale ahe ani tya parynt che konta min he </t>
+  </si>
+  <si>
+    <t>you can solve jat hue and aate hue</t>
+  </si>
+  <si>
+    <t>smart call and bad base case / fuzzy call and good base case</t>
+  </si>
+  <si>
+    <t>CP/FirstIndex.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/LastIndex.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/AllIndices.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>jatana count kar and yetanin add kar</t>
   </si>
 </sst>
 </file>
@@ -2436,99 +2345,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J17"/>
+  <dimension ref="B4:C5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="66.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" style="18" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>48</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="F4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G4">
-        <v>97</v>
-      </c>
-      <c r="J4" s="16" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>440</v>
-      </c>
-      <c r="F5" t="s">
-        <v>136</v>
-      </c>
-      <c r="G5">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
-        <v>137</v>
-      </c>
-      <c r="G6">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="12"/>
+        <v>424</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C5" t="s">
+        <v>425</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J3" r:id="rId1" display="https://www.geeksforgeeks.org/java-tricks-competitive-programming-java-8/"/>
-    <hyperlink ref="J4" r:id="rId2" display="https://www.geeksforgeeks.org/fast-io-in-java-in-competitive-programming/"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2598,7 +2444,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2606,7 +2452,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2614,7 +2460,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2622,7 +2468,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2630,7 +2476,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2638,7 +2484,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2646,7 +2492,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2654,7 +2500,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2662,7 +2508,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2670,7 +2516,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>302</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -2678,7 +2524,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -2686,7 +2532,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>304</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -2694,7 +2540,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>305</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2702,7 +2548,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>306</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2710,7 +2556,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>307</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2718,7 +2564,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>308</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2726,7 +2572,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>309</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2734,7 +2580,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2742,7 +2588,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2750,7 +2596,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2822,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>313</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2830,7 +2676,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>314</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2838,7 +2684,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>315</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2846,7 +2692,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>316</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2854,7 +2700,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2862,7 +2708,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -2870,7 +2716,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>319</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -2878,7 +2724,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>320</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -2886,7 +2732,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>321</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -2894,7 +2740,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2966,7 +2812,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2974,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>324</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2982,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>325</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -2990,7 +2836,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -2998,7 +2844,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3006,7 +2852,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>328</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3014,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>329</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3022,7 +2868,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>330</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3030,7 +2876,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>331</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3038,7 +2884,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>332</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3046,7 +2892,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>333</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3054,7 +2900,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>334</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3062,7 +2908,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>335</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3070,7 +2916,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -3145,7 +2991,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>337</v>
+        <v>312</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -3153,7 +2999,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>339</v>
+        <v>314</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3161,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>340</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3169,7 +3015,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>341</v>
+        <v>316</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3177,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>342</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3185,7 +3031,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3193,7 +3039,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3201,7 +3047,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>345</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3209,7 +3055,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3217,7 +3063,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3225,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3233,7 +3079,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3241,7 +3087,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3249,7 +3095,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3257,7 +3103,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>352</v>
+        <v>327</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3265,7 +3111,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>353</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3273,7 +3119,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3281,7 +3127,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>338</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3291,10 +3137,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="66.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.42578125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>48</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4">
+        <v>97</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" s="12"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="J3" r:id="rId1" display="https://www.geeksforgeeks.org/java-tricks-competitive-programming-java-8/"/>
+    <hyperlink ref="J4" r:id="rId2" display="https://www.geeksforgeeks.org/fast-io-in-java-in-competitive-programming/"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,10 +3257,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J1" s="11"/>
     </row>
@@ -3353,10 +3297,10 @@
         <v>38</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3376,16 +3320,16 @@
         <v>34</v>
       </c>
       <c r="G4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -3405,16 +3349,16 @@
         <v>34</v>
       </c>
       <c r="G5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3434,16 +3378,16 @@
         <v>34</v>
       </c>
       <c r="G6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I6" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3463,16 +3407,16 @@
         <v>34</v>
       </c>
       <c r="G7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3492,16 +3436,16 @@
         <v>34</v>
       </c>
       <c r="G8" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3509,19 +3453,19 @@
         <v>6</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G9" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3541,19 +3485,19 @@
         <v>34</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3573,19 +3517,19 @@
         <v>34</v>
       </c>
       <c r="G11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3605,16 +3549,16 @@
         <v>34</v>
       </c>
       <c r="G12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3634,22 +3578,22 @@
         <v>34</v>
       </c>
       <c r="G13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -3666,13 +3610,19 @@
         <v>34</v>
       </c>
       <c r="G14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>441</v>
       </c>
       <c r="K14" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3692,10 +3642,13 @@
         <v>34</v>
       </c>
       <c r="G15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3715,10 +3668,13 @@
         <v>34</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3738,10 +3694,16 @@
         <v>34</v>
       </c>
       <c r="G17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -3764,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3790,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3813,7 +3775,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3836,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3859,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="90" x14ac:dyDescent="0.25">
@@ -3882,13 +3844,13 @@
         <v>0</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="10" t="s">
         <v>103</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60" x14ac:dyDescent="0.25">
@@ -3911,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3940,14 +3902,12 @@
         <v>1</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>125</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="K25" s="16"/>
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
@@ -3969,14 +3929,12 @@
         <v>1</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="16" t="s">
-        <v>118</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
@@ -3998,17 +3956,15 @@
         <v>1</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" s="16" t="s">
-        <v>117</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="K27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
@@ -4030,14 +3986,12 @@
         <v>1</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>126</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="K28" s="16"/>
     </row>
     <row r="29" spans="1:11" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5">
@@ -4059,17 +4013,15 @@
         <v>1</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29" s="16" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="K29" s="16"/>
     </row>
     <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
@@ -4091,17 +4043,15 @@
         <v>2</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="K30" s="16" t="s">
-        <v>108</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="K30" s="16"/>
     </row>
     <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
@@ -4123,17 +4073,15 @@
         <v>2</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="K31" s="16" t="s">
-        <v>109</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="K31" s="16"/>
     </row>
     <row r="32" spans="1:11" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
@@ -4143,7 +4091,7 @@
         <v>32</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>33</v>
@@ -4155,31 +4103,27 @@
         <v>2</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="K32" s="16" t="s">
-        <v>148</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="K32" s="16"/>
     </row>
     <row r="33" spans="1:11" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D33" s="58" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G33" s="2">
         <v>2</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K33" s="16" t="s">
-        <v>147</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="K33" s="16"/>
     </row>
     <row r="34" spans="1:11" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="5">
@@ -4201,69 +4145,57 @@
         <v>2</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>64</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="K34" s="16" t="s">
-        <v>151</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>31</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>398</v>
+        <v>367</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>400</v>
-      </c>
-      <c r="K35" s="16" t="s">
-        <v>399</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="K35" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintDecreasing.java"/>
-    <hyperlink ref="K5" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintIncreasing.java"/>
-    <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintIncreasingDecreasing.java"/>
-    <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/Factorial.java"/>
-    <hyperlink ref="K8" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PowerLinear.java"/>
-    <hyperlink ref="K10" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintZigZag.java"/>
-    <hyperlink ref="K11" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/TowerOfHanoi.java"/>
-    <hyperlink ref="K9" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PowerLog.java"/>
-    <hyperlink ref="K12" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/DisplayArr.java"/>
-    <hyperlink ref="K13" r:id="rId10" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/DisplayReverse.java"/>
-    <hyperlink ref="K14" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/MaxOfArr.java"/>
-    <hyperlink ref="K30" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/FloodFill.java"/>
-    <hyperlink ref="K31" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/TargetSumSubset.java"/>
-    <hyperlink ref="K27" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintMazePathWithJumps.java"/>
-    <hyperlink ref="K26" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintMazePath.java"/>
-    <hyperlink ref="K25" r:id="rId16" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintStairPath.java"/>
-    <hyperlink ref="K28" r:id="rId17" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintPermutation.java"/>
-    <hyperlink ref="K29" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with arraylist/PrintEncodings.java"/>
-    <hyperlink ref="K33" r:id="rId19" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenOptionLevelApproach.java"/>
-    <hyperlink ref="K32" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/NQueenSubsetApproach.java"/>
-    <hyperlink ref="K34" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/KnightsTour.java"/>
-    <hyperlink ref="E1" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Recursion.pdf"/>
-    <hyperlink ref="K35" r:id="rId23" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/PinBall.java"/>
+    <hyperlink ref="E1" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Recursion.pdf"/>
+    <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintDecreasing.java"/>
+    <hyperlink ref="K5" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintIncreasing.java"/>
+    <hyperlink ref="K6" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintIncreasingDecreasing.java"/>
+    <hyperlink ref="K7" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/Factorial.java"/>
+    <hyperlink ref="K8" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PowerLinear.java"/>
+    <hyperlink ref="K9" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PowerLog.java"/>
+    <hyperlink ref="K10" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/PrintZigZag.java"/>
+    <hyperlink ref="K11" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/intro/TowerOfHanoi.java"/>
+    <hyperlink ref="K12" r:id="rId10" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/DisplayArr.java"/>
+    <hyperlink ref="K13" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/DisplayReverse.java"/>
+    <hyperlink ref="K14" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/MaxOfArr.java"/>
+    <hyperlink ref="K15" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/FirstIndex.java"/>
+    <hyperlink ref="K16" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/LastIndex.java"/>
+    <hyperlink ref="K17" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/AllIndices.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4283,10 +4215,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>373</v>
+        <v>348</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
@@ -4349,17 +4281,15 @@
         <v>1</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" s="21" t="s">
-        <v>71</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="K4" s="21"/>
     </row>
     <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
@@ -4375,17 +4305,15 @@
         <v>1</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="K5" s="21" t="s">
         <v>72</v>
       </c>
+      <c r="K5" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -4403,16 +4331,14 @@
       <c r="I6" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="K6" s="21"/>
     </row>
     <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>34</v>
@@ -4421,30 +4347,28 @@
         <v>1</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="K7" s="21" t="s">
-        <v>155</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>5</v>
       </c>
       <c r="D8" s="69" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G8" s="5">
         <v>0</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -4452,10 +4376,10 @@
         <v>6</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="F9" s="23" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="G9" s="5">
         <v>0</v>
@@ -4466,7 +4390,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>34</v>
@@ -4475,18 +4399,16 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>160</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>34</v>
@@ -4495,21 +4417,19 @@
         <v>1</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>162</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="K11" s="21"/>
     </row>
     <row r="12" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>34</v>
@@ -4518,24 +4438,22 @@
         <v>1</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>169</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>34</v>
@@ -4544,21 +4462,19 @@
         <v>1</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="21" t="s">
-        <v>172</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>34</v>
@@ -4567,21 +4483,19 @@
         <v>1</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>173</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>34</v>
@@ -4590,21 +4504,19 @@
         <v>1</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>178</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>34</v>
@@ -4613,44 +4525,40 @@
         <v>1</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="K16" s="21" t="s">
-        <v>180</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="K17" s="21" t="s">
-        <v>188</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>34</v>
@@ -4659,18 +4567,16 @@
         <v>1</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="K18" s="16" t="s">
-        <v>191</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="K18" s="16"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F19" s="5" t="s">
         <v>34</v>
@@ -4679,18 +4585,16 @@
         <v>1</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>190</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="K19" s="16"/>
     </row>
     <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>34</v>
@@ -4699,21 +4603,19 @@
         <v>1</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="K20" s="16" t="s">
-        <v>194</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="K20" s="16"/>
     </row>
     <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>18</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="I21" s="15" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -4721,7 +4623,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="69" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4732,7 +4634,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4740,39 +4642,24 @@
         <v>21</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/Sorto12.java"/>
-    <hyperlink ref="K4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/Sort01.java"/>
-    <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeTwoSortedArr.java"/>
-    <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/MergeSort.java"/>
-    <hyperlink ref="K10" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PartitionOfArray.java"/>
-    <hyperlink ref="K11" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSort.java"/>
-    <hyperlink ref="K12" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSelect.java"/>
-    <hyperlink ref="K13" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/TargetSumPair.java"/>
-    <hyperlink ref="K14" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/PivotInSortedAndRotatedArray.java"/>
-    <hyperlink ref="K15" r:id="rId10" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BubbleSort.java"/>
-    <hyperlink ref="K16" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/SelectionSort.java"/>
-    <hyperlink ref="K17" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/InsertionSort.java"/>
-    <hyperlink ref="K19" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSort.java"/>
-    <hyperlink ref="K18" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/BaseCountSort.java"/>
-    <hyperlink ref="K20" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/3.TimeComplexity/CountSortStability.java"/>
-    <hyperlink ref="E1" r:id="rId16" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Searching%26Sorting.pdf"/>
+    <hyperlink ref="E1" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Searching%26Sorting.pdf"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34:I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4791,17 +4678,20 @@
     <row r="1" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>374</v>
+        <v>349</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>427</v>
       </c>
       <c r="I1"/>
     </row>
     <row r="2" spans="1:9" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
       <c r="B2" s="39" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="C2" s="33"/>
       <c r="D2" s="33"/>
@@ -4837,7 +4727,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4854,16 +4744,16 @@
         <v>34</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="I4" s="32" t="s">
-        <v>361</v>
+        <v>338</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
@@ -4880,16 +4770,16 @@
         <v>34</v>
       </c>
       <c r="E5" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="I5" s="32" t="s">
-        <v>360</v>
+        <v>339</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="135" x14ac:dyDescent="0.25">
@@ -4897,7 +4787,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>366</v>
+        <v>341</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>33</v>
@@ -4906,16 +4796,16 @@
         <v>34</v>
       </c>
       <c r="E6" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>367</v>
+        <v>342</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="I6" s="21" t="s">
-        <v>365</v>
+        <v>343</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
@@ -4932,16 +4822,16 @@
         <v>34</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="I7" s="21" t="s">
-        <v>370</v>
+        <v>404</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
@@ -4958,13 +4848,13 @@
         <v>34</v>
       </c>
       <c r="E8" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="I8" s="21" t="s">
-        <v>372</v>
+        <v>346</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4981,13 +4871,13 @@
         <v>34</v>
       </c>
       <c r="E9" s="76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>380</v>
-      </c>
-      <c r="I9" s="21" t="s">
-        <v>381</v>
+        <v>355</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5004,19 +4894,19 @@
         <v>34</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>448</v>
+        <v>405</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -5033,16 +4923,16 @@
         <v>34</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>403</v>
+        <v>433</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5059,16 +4949,16 @@
         <v>34</v>
       </c>
       <c r="E12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5085,16 +4975,16 @@
         <v>34</v>
       </c>
       <c r="E13" s="76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="I13" s="32" t="s">
-        <v>412</v>
+        <v>375</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5111,16 +5001,16 @@
         <v>34</v>
       </c>
       <c r="E14" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>449</v>
+        <v>406</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>450</v>
+        <v>407</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5137,13 +5027,13 @@
         <v>34</v>
       </c>
       <c r="E15" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5160,13 +5050,13 @@
         <v>34</v>
       </c>
       <c r="E16" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>455</v>
+        <v>409</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5183,13 +5073,13 @@
         <v>34</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>456</v>
+        <v>410</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5206,13 +5096,13 @@
         <v>34</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -5226,16 +5116,19 @@
         <v>34</v>
       </c>
       <c r="E19" s="2">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>439</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>460</v>
+        <v>411</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5252,13 +5145,13 @@
         <v>34</v>
       </c>
       <c r="E20" s="73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5273,7 +5166,7 @@
     <row r="32" spans="1:9" s="38" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="39" t="s">
-        <v>375</v>
+        <v>350</v>
       </c>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -5288,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>34</v>
@@ -5300,21 +5193,19 @@
         <v>0</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>384</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>2</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>378</v>
+        <v>353</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>34</v>
@@ -5323,21 +5214,19 @@
         <v>0</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="I34" s="32" t="s">
-        <v>386</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>3</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>33</v>
@@ -5349,21 +5238,19 @@
         <v>0</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="I35" s="32" t="s">
-        <v>383</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="I35" s="32"/>
     </row>
     <row r="36" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>4</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>34</v>
@@ -5372,25 +5259,23 @@
         <v>0</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>392</v>
+        <v>362</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>421</v>
+        <v>383</v>
       </c>
       <c r="H36" s="64"/>
-      <c r="I36" s="32" t="s">
-        <v>390</v>
-      </c>
+      <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>5</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>388</v>
+        <v>360</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>34</v>
@@ -5399,22 +5284,20 @@
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>393</v>
+        <v>363</v>
       </c>
       <c r="H37" s="64"/>
-      <c r="I37" s="32" t="s">
-        <v>391</v>
-      </c>
+      <c r="I37" s="32"/>
     </row>
     <row r="38" spans="1:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>6</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>34</v>
@@ -5423,24 +5306,22 @@
         <v>0</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>395</v>
+        <v>365</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="I38" s="32" t="s">
-        <v>396</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="I38" s="32"/>
     </row>
     <row r="39" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>7</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>415</v>
+        <v>379</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>34</v>
@@ -5449,21 +5330,19 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="I39" s="32" t="s">
-        <v>420</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="I39" s="32"/>
     </row>
     <row r="40" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>8</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>34</v>
@@ -5472,24 +5351,22 @@
         <v>0</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>419</v>
+        <v>382</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="I40" s="32" t="s">
-        <v>416</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="I40" s="32"/>
     </row>
     <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>9</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>422</v>
+        <v>384</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>389</v>
+        <v>361</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>34</v>
@@ -5498,24 +5375,22 @@
         <v>0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>424</v>
+        <v>386</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="I41" s="32" t="s">
-        <v>434</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="I41" s="32"/>
     </row>
     <row r="42" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>10</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>425</v>
+        <v>387</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>34</v>
@@ -5524,24 +5399,22 @@
         <v>0</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>426</v>
+        <v>388</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="I42" s="32" t="s">
-        <v>435</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="I42" s="32"/>
     </row>
     <row r="43" spans="1:9" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>11</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>428</v>
+        <v>390</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>34</v>
@@ -5550,27 +5423,25 @@
         <v>0</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>430</v>
+        <v>392</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>431</v>
+        <v>393</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>429</v>
-      </c>
-      <c r="I43" s="32" t="s">
-        <v>436</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="I43" s="32"/>
     </row>
     <row r="44" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>12</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>433</v>
+        <v>395</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>34</v>
@@ -5579,24 +5450,22 @@
         <v>0</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>438</v>
+        <v>396</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>439</v>
+        <v>397</v>
       </c>
       <c r="H44" s="25" t="s">
-        <v>432</v>
-      </c>
-      <c r="I44" s="21" t="s">
-        <v>437</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>13</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>441</v>
+        <v>399</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>33</v>
@@ -5608,118 +5477,75 @@
         <v>0</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="I45" s="16" t="s">
-        <v>442</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>14</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>445</v>
+        <v>402</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>446</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>470</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I5" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/BalancedBracket.java"/>
-    <hyperlink ref="I4" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Duplicatebracket.java"/>
-    <hyperlink ref="I6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NGETR.java"/>
-    <hyperlink ref="I7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/StockSpan.java"/>
-    <hyperlink ref="I8" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/LargestAreaHistogram.java"/>
-    <hyperlink ref="C1" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Stacks and queues.pdf"/>
-    <hyperlink ref="B33" r:id="rId7" display="https://leetcode.com/problems/daily-temperatures/"/>
-    <hyperlink ref="B34" r:id="rId8" display="https://leetcode.com/problems/next-greater-element-ii/"/>
-    <hyperlink ref="I9" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/SlidingWindowMax.java"/>
-    <hyperlink ref="B35" r:id="rId10" display="https://leetcode.com/problems/next-greater-element-i/"/>
-    <hyperlink ref="I35" r:id="rId11" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_NextGreaterElement_I.java"/>
-    <hyperlink ref="I33" r:id="rId12" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_DailyTemperature.java"/>
-    <hyperlink ref="I34" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Next_Greater_Element_II.java"/>
-    <hyperlink ref="B36" r:id="rId14" display="https://leetcode.com/problems/maximal-rectangle/"/>
-    <hyperlink ref="I36" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Maximal_Rectangle.java"/>
-    <hyperlink ref="B37" r:id="rId16" display="https://leetcode.com/problems/maximal-rectangle/"/>
-    <hyperlink ref="B38" r:id="rId17" display="https://leetcode.com/problems/sliding-window-maximum/submissions/"/>
-    <hyperlink ref="I38" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Sliding_Window_Maximum.java"/>
-    <hyperlink ref="I37" r:id="rId19" display="Recursive Approach"/>
-    <hyperlink ref="I10" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixEvaluation.java"/>
-    <hyperlink ref="I11" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixConversion.java"/>
-    <hyperlink ref="I12" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PostFixEvaluationConversion.java"/>
-    <hyperlink ref="I13" r:id="rId23" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/PrefixEvaluationConversion.java"/>
-    <hyperlink ref="B40" r:id="rId24" display="https://leetcode.com/problems/basic-calculator/"/>
-    <hyperlink ref="B39" r:id="rId25" display="https://leetcode.com/problems/basic-calculator-ii/"/>
-    <hyperlink ref="I40" r:id="rId26" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator.java"/>
-    <hyperlink ref="I39" r:id="rId27" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_BasicCalculator_II.java"/>
-    <hyperlink ref="B41" r:id="rId28" display="https://leetcode.com/problems/longest-valid-parentheses/"/>
-    <hyperlink ref="B42" r:id="rId29" display="https://leetcode.com/problems/container-with-most-water/"/>
-    <hyperlink ref="B43" r:id="rId30" display="https://leetcode.com/problems/simplify-path/"/>
-    <hyperlink ref="B44" r:id="rId31" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/"/>
-    <hyperlink ref="I41" r:id="rId32" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Longest_Valid_Parentheses.java"/>
-    <hyperlink ref="I42" r:id="rId33" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_ContainerWithMostWater.java"/>
-    <hyperlink ref="I43" r:id="rId34" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Simplify_Path.java"/>
-    <hyperlink ref="I44" r:id="rId35" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_Remove_All_Adjacent_Duplicates_in_String_II.java"/>
-    <hyperlink ref="B45" r:id="rId36" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/"/>
-    <hyperlink ref="I45" r:id="rId37" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Leet_RemoveAllAdjacentDuplicatesInString.java"/>
-    <hyperlink ref="B46" r:id="rId38" display="https://leetcode.com/problems/maximum-frequency-stack/"/>
-    <hyperlink ref="H19" r:id="rId39" display="https://leetcode.com/problems/min-stack/"/>
-    <hyperlink ref="I14" r:id="rId40" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/CelebrityProblem.java"/>
-    <hyperlink ref="I15" r:id="rId41" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Merge_Overlapping_Interval.java"/>
-    <hyperlink ref="I16" r:id="rId42" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Smallest_Number_Following_Pattern.java"/>
-    <hyperlink ref="I18" r:id="rId43" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/DynamicStack.java"/>
-    <hyperlink ref="I17" r:id="rId44" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/NormalStack.java"/>
-    <hyperlink ref="I19" r:id="rId45" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStack.java"/>
-    <hyperlink ref="I20" r:id="rId46" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStackConstantSpace.java"/>
-    <hyperlink ref="B47" r:id="rId47" display="https://leetcode.com/problems/trapping-rain-water/"/>
+    <hyperlink ref="C1" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Stacks and queues.pdf"/>
+    <hyperlink ref="B33" r:id="rId2" display="https://leetcode.com/problems/daily-temperatures/"/>
+    <hyperlink ref="B34" r:id="rId3" display="https://leetcode.com/problems/next-greater-element-ii/"/>
+    <hyperlink ref="B35" r:id="rId4" display="https://leetcode.com/problems/next-greater-element-i/"/>
+    <hyperlink ref="B36" r:id="rId5" display="https://leetcode.com/problems/maximal-rectangle/"/>
+    <hyperlink ref="B37" r:id="rId6" display="https://leetcode.com/problems/maximal-rectangle/"/>
+    <hyperlink ref="B38" r:id="rId7" display="https://leetcode.com/problems/sliding-window-maximum/submissions/"/>
+    <hyperlink ref="B40" r:id="rId8" display="https://leetcode.com/problems/basic-calculator/"/>
+    <hyperlink ref="B39" r:id="rId9" display="https://leetcode.com/problems/basic-calculator-ii/"/>
+    <hyperlink ref="B41" r:id="rId10" display="https://leetcode.com/problems/longest-valid-parentheses/"/>
+    <hyperlink ref="B42" r:id="rId11" display="https://leetcode.com/problems/container-with-most-water/"/>
+    <hyperlink ref="B43" r:id="rId12" display="https://leetcode.com/problems/simplify-path/"/>
+    <hyperlink ref="B44" r:id="rId13" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string-ii/"/>
+    <hyperlink ref="B45" r:id="rId14" display="https://leetcode.com/problems/remove-all-adjacent-duplicates-in-string/"/>
+    <hyperlink ref="B46" r:id="rId15" display="https://leetcode.com/problems/maximum-frequency-stack/"/>
+    <hyperlink ref="H19" r:id="rId16" display="https://leetcode.com/problems/min-stack/"/>
+    <hyperlink ref="B47" r:id="rId17" display="https://leetcode.com/problems/trapping-rain-water/"/>
+    <hyperlink ref="B48" r:id="rId18" display="https://leetcode.com/problems/merge-intervals/"/>
+    <hyperlink ref="G1" r:id="rId19" display="https://github.com/spartan4cs/CP/tree/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues"/>
+    <hyperlink ref="I4" r:id="rId20" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/Duplicatebracket.java"/>
+    <hyperlink ref="I6" r:id="rId21" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/NGETR.java"/>
+    <hyperlink ref="I7" r:id="rId22" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/StockSpan.java"/>
+    <hyperlink ref="I8" r:id="rId23" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/LargestAreaHistogram.java"/>
+    <hyperlink ref="I9" r:id="rId24" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/SlidingWindowMax.java"/>
+    <hyperlink ref="I5" r:id="rId25" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/BalancedBracket.java"/>
+    <hyperlink ref="I14" r:id="rId26" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/CelebrityProblem.java"/>
+    <hyperlink ref="I15" r:id="rId27" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/Merge_Overlapping_Interval.java"/>
+    <hyperlink ref="I12" r:id="rId28" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/PostFixEvaluationConversion.java"/>
+    <hyperlink ref="I13" r:id="rId29" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/PrefixEvaluationConversion.java"/>
+    <hyperlink ref="I10" r:id="rId30" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixEvaluation.java"/>
+    <hyperlink ref="I11" r:id="rId31" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/InfixConversion.java"/>
+    <hyperlink ref="I16" r:id="rId32" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/Smallest_Number_Following_Pattern.java"/>
+    <hyperlink ref="I17" r:id="rId33" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/NormalStack.java"/>
+    <hyperlink ref="I18" r:id="rId34" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/DynamicStack.java"/>
+    <hyperlink ref="I19" r:id="rId35" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStack.java"/>
+    <hyperlink ref="I20" r:id="rId36" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/MinimumStackConstantSpace.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="63.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="C5" t="s">
-        <v>475</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://leetcode.com/problems/maximum-distance-between-a-pair-of-values/"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -5728,7 +5554,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5743,16 +5569,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>374</v>
+        <v>349</v>
       </c>
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="78" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.9">
       <c r="A2" s="83" t="s">
-        <v>379</v>
+        <v>354</v>
       </c>
       <c r="B2" s="83"/>
       <c r="C2" s="83"/>
@@ -5788,7 +5614,7 @@
         <v>35</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -5796,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>469</v>
+        <v>419</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>33</v>
@@ -5811,7 +5637,7 @@
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
       <c r="I4" s="16" t="s">
-        <v>472</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -5828,7 +5654,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
       <c r="I5" s="16" t="s">
-        <v>471</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -5894,7 +5720,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -5941,26 +5767,26 @@
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>462</v>
+        <v>413</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>463</v>
+        <v>414</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="80" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>468</v>
+        <v>418</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5869,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -6057,7 +5883,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -6071,7 +5897,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -6085,7 +5911,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -6099,7 +5925,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -6113,7 +5939,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -6127,10 +5953,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="E10" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G10" s="30">
         <v>0</v>
@@ -6141,7 +5967,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -6155,10 +5981,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G12" s="30">
         <v>0</v>
@@ -6169,7 +5995,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -6183,7 +6009,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -6197,7 +6023,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -6211,7 +6037,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
@@ -6225,7 +6051,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>220</v>
+        <v>195</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -6239,7 +6065,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -6253,7 +6079,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -6267,7 +6093,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -6281,7 +6107,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -6295,7 +6121,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -6309,7 +6135,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
@@ -6323,7 +6149,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -6337,7 +6163,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -6351,7 +6177,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="28" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
@@ -6365,7 +6191,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
@@ -6379,7 +6205,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
@@ -6393,7 +6219,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -6407,10 +6233,10 @@
         <v>27</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G30" s="30">
         <v>0</v>
@@ -6421,10 +6247,10 @@
         <v>28</v>
       </c>
       <c r="D31" s="28" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="E31" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="G31" s="30">
         <v>0</v>
@@ -6435,7 +6261,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="G32" s="30">
         <v>0</v>
@@ -6446,7 +6272,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="G33" s="30">
         <v>0</v>
@@ -6526,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
         <v>33</v>
@@ -6543,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="41" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="E6" t="s">
         <v>33</v>
@@ -6560,7 +6386,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="41" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="E7" t="s">
         <v>33</v>
@@ -6577,7 +6403,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="E8" t="s">
         <v>33</v>
@@ -6594,7 +6420,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="41" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="E9" t="s">
         <v>33</v>
@@ -6611,7 +6437,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="41" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="E10" t="s">
         <v>33</v>
@@ -6628,7 +6454,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="41" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="E11" t="s">
         <v>33</v>
@@ -6645,7 +6471,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="E12" t="s">
         <v>33</v>
@@ -6662,7 +6488,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="41" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -6679,7 +6505,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="42" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="E14" t="s">
         <v>33</v>
@@ -6696,7 +6522,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="43" t="s">
-        <v>280</v>
+        <v>255</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -6713,7 +6539,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="43" t="s">
-        <v>281</v>
+        <v>256</v>
       </c>
       <c r="E16" t="s">
         <v>33</v>
@@ -6730,7 +6556,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="43" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -6747,7 +6573,7 @@
         <v>14</v>
       </c>
       <c r="D18" s="43" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
       <c r="E18" t="s">
         <v>33</v>
@@ -6764,7 +6590,7 @@
         <v>15</v>
       </c>
       <c r="D19" s="43" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="E19" t="s">
         <v>33</v>
@@ -6781,7 +6607,7 @@
         <v>16</v>
       </c>
       <c r="D20" s="43" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="E20" t="s">
         <v>33</v>
@@ -6798,7 +6624,7 @@
         <v>17</v>
       </c>
       <c r="D21" s="43" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
         <v>33</v>
@@ -6809,7 +6635,7 @@
         <v>18</v>
       </c>
       <c r="D22" s="43" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
@@ -6820,7 +6646,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="43" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="E23" t="s">
         <v>33</v>
@@ -6831,7 +6657,7 @@
         <v>20</v>
       </c>
       <c r="D24" s="43" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="E24" t="s">
         <v>33</v>
@@ -6842,7 +6668,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="43" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
         <v>33</v>
@@ -6853,7 +6679,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="43" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="E26" t="s">
         <v>33</v>
@@ -6864,7 +6690,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="E27" t="s">
         <v>33</v>
@@ -6875,7 +6701,7 @@
         <v>24</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E28" t="s">
         <v>33</v>
@@ -6886,7 +6712,7 @@
         <v>25</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
         <v>33</v>
@@ -6963,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6971,7 +6797,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6979,7 +6805,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>242</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6987,7 +6813,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>243</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6995,7 +6821,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -7003,7 +6829,7 @@
         <v>6</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>245</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -7011,7 +6837,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>246</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -7019,7 +6845,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -7027,7 +6853,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -7035,7 +6861,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>249</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -7043,7 +6869,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>250</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -7051,7 +6877,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>251</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -7059,7 +6885,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>252</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -7067,7 +6893,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -7075,7 +6901,7 @@
         <v>15</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -7083,7 +6909,7 @@
         <v>16</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -7091,7 +6917,7 @@
         <v>17</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -7099,7 +6925,7 @@
         <v>18</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -7107,7 +6933,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -7115,7 +6941,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -7123,7 +6949,7 @@
         <v>21</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -7131,7 +6957,7 @@
         <v>22</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -7139,7 +6965,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -7147,7 +6973,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="25" t="s">
-        <v>263</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -7155,7 +6981,7 @@
         <v>25</v>
       </c>
       <c r="D28" s="25" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -7163,7 +6989,7 @@
         <v>26</v>
       </c>
       <c r="D29" s="25" t="s">
-        <v>265</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -7171,7 +6997,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -7179,7 +7005,7 @@
         <v>28</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -7187,7 +7013,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="25" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -7195,7 +7021,7 @@
         <v>30</v>
       </c>
       <c r="D33" s="25" t="s">
-        <v>269</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Leet" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="448">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1534,6 +1534,12 @@
   </si>
   <si>
     <t>jatana count kar and yetanin add kar</t>
+  </si>
+  <si>
+    <t>CP/QueueToStackAdapter_PopEfficient.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/QueueToStackAdapter_PushEfficient.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -2049,11 +2055,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3237,7 +3243,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -5553,13 +5559,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="22" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="42" customWidth="1"/>
     <col min="7" max="7" width="49.42578125" customWidth="1"/>
@@ -5577,18 +5583,18 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="78" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="82" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
       <c r="I2" s="79"/>
     </row>
-    <row r="3" spans="1:9" s="18" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" s="18" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="29" t="s">
         <v>52</v>
       </c>
@@ -5617,11 +5623,11 @@
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="83" t="s">
         <v>419</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -5640,7 +5646,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -5657,7 +5663,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -5676,9 +5682,11 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I6" s="16" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -5697,9 +5705,11 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="I7" s="16" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -5762,11 +5772,11 @@
       <c r="H10" s="11"/>
       <c r="I10" s="8"/>
     </row>
-    <row r="11" spans="1:9" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="21" t="s">
         <v>413</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -5799,6 +5809,8 @@
     <hyperlink ref="I5" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/DynamicQueue.java"/>
     <hyperlink ref="I4" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/NormalQueue.java"/>
     <hyperlink ref="I11" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/GFG_GenerateBinaryNumber.java"/>
+    <hyperlink ref="I7" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/QueueToStackAdapter_PopEfficient.java"/>
+    <hyperlink ref="I6" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/QueueToStackAdapter_PushEfficient.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Leet" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="456">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1540,6 +1540,30 @@
   </si>
   <si>
     <t>CP/QueueToStackAdapter_PushEfficient.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/TwoStackInArray.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/StackToQueueAdapter_RemoveEfficient.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/StackTOQueueAdapter_AddEfficient.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>queue order preserve rakhta he</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/efficiently-implement-k-stacks-single-array/</t>
+  </si>
+  <si>
+    <t>K'th Smallest/Largest Element in Unsorted Array | Set 1 - GeeksforGeeks</t>
+  </si>
+  <si>
+    <t>Minimize the Heights II | Practice | GeeksforGeeks</t>
+  </si>
+  <si>
+    <t>Binary search using recursion to get index and boolean value</t>
   </si>
 </sst>
 </file>
@@ -1826,7 +1850,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2055,11 +2079,14 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4198,10 +4225,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:K1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4273,60 +4300,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D6" s="25" t="s">
         <v>65</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>2</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
-        <v>3</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>66</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>34</v>
@@ -4334,17 +4318,23 @@
       <c r="G6" s="5">
         <v>1</v>
       </c>
+      <c r="H6" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="I6" s="15" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="K6" s="21"/>
     </row>
-    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>34</v>
@@ -4352,90 +4342,93 @@
       <c r="G7" s="5">
         <v>1</v>
       </c>
+      <c r="H7" s="15" t="s">
+        <v>74</v>
+      </c>
       <c r="I7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="21"/>
+    </row>
+    <row r="8" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>3</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>4</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5">
+        <v>1</v>
+      </c>
+      <c r="I9" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J9" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
-        <v>5</v>
-      </c>
-      <c r="D8" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>6</v>
-      </c>
-      <c r="D9" s="69" t="s">
-        <v>170</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
+      <c r="K9" s="21"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
+        <v>5</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>6</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>7</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D12" s="25" t="s">
         <v>142</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>8</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>9</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>151</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>34</v>
@@ -4443,23 +4436,17 @@
       <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>152</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="K12" s="21"/>
     </row>
-    <row r="13" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>34</v>
@@ -4468,19 +4455,19 @@
         <v>1</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K13" s="21"/>
     </row>
-    <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>34</v>
@@ -4488,20 +4475,23 @@
       <c r="G14" s="5">
         <v>1</v>
       </c>
+      <c r="H14" s="15" t="s">
+        <v>152</v>
+      </c>
       <c r="I14" s="15" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>34</v>
@@ -4509,20 +4499,20 @@
       <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>174</v>
-      </c>
       <c r="I15" s="15" t="s">
-        <v>167</v>
+        <v>173</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="K15" s="21"/>
     </row>
-    <row r="16" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>34</v>
@@ -4531,40 +4521,40 @@
         <v>1</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="G17" s="5">
         <v>1</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>176</v>
+      <c r="H17" s="15" t="s">
+        <v>174</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K17" s="21"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F18" s="5" t="s">
         <v>34</v>
@@ -4573,34 +4563,40 @@
         <v>1</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="G19" s="5">
         <v>1</v>
       </c>
+      <c r="H19" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="I19" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K19" s="16"/>
-    </row>
-    <row r="20" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>34</v>
@@ -4609,45 +4605,81 @@
         <v>1</v>
       </c>
       <c r="I20" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>16</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>17</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
         <v>18</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D23" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I23" s="15" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
         <v>19</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D24" s="69" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="70"/>
-    </row>
-    <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
+    <row r="25" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="70"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
         <v>20</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D26" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
         <v>21</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D27" s="26" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4664,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34:I45"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5557,10 +5589,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5583,15 +5615,15 @@
       <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:9" s="78" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.9">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="84" t="s">
         <v>354</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
       <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" s="18" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5627,7 +5659,7 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="82" t="s">
         <v>419</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -5639,7 +5671,9 @@
       <c r="E4" s="2">
         <v>0</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>451</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
       <c r="I4" s="16" t="s">
@@ -5728,7 +5762,9 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
-      <c r="I8" s="8"/>
+      <c r="I8" s="16" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
@@ -5749,9 +5785,11 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9" s="16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -5768,9 +5806,13 @@
         <v>0</v>
       </c>
       <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="83" t="s">
+        <v>452</v>
+      </c>
       <c r="H10" s="11"/>
-      <c r="I10" s="8"/>
+      <c r="I10" s="16" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
@@ -5797,6 +5839,16 @@
       </c>
       <c r="I11" s="16" t="s">
         <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="16" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -5811,6 +5863,12 @@
     <hyperlink ref="I11" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/GFG_GenerateBinaryNumber.java"/>
     <hyperlink ref="I7" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/QueueToStackAdapter_PopEfficient.java"/>
     <hyperlink ref="I6" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/QueueToStackAdapter_PushEfficient.java"/>
+    <hyperlink ref="I10" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/TwoStackInArray.java"/>
+    <hyperlink ref="I9" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/StackToQueueAdapter_RemoveEfficient.java"/>
+    <hyperlink ref="I8" r:id="rId10" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/4.StacksAnd Queues/Queue/StackTOQueueAdapter_AddEfficient.java"/>
+    <hyperlink ref="G10" r:id="rId11"/>
+    <hyperlink ref="B14" r:id="rId12" display="https://www.geeksforgeeks.org/kth-smallestlargest-element-unsorted-array/"/>
+    <hyperlink ref="B15" r:id="rId13" display="https://practice.geeksforgeeks.org/problems/minimize-the-heights3351/1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Leet" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="457">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1564,6 +1564,9 @@
   </si>
   <si>
     <t>Binary search using recursion to get index and boolean value</t>
+  </si>
+  <si>
+    <t>CP/LinkListCreationDemo.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -4227,7 +4230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -6357,8 +6360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21:F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6367,7 +6370,7 @@
     <col min="2" max="2" width="9.42578125" customWidth="1"/>
     <col min="4" max="4" width="51.85546875" customWidth="1"/>
     <col min="7" max="7" width="24.7109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="41" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
     <col min="9" max="9" width="42.7109375" customWidth="1"/>
     <col min="10" max="10" width="36.140625" customWidth="1"/>
     <col min="11" max="11" width="29.85546875" customWidth="1"/>
@@ -6416,7 +6419,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="30">
         <v>1</v>
@@ -6433,6 +6440,9 @@
       <c r="G5" s="5">
         <v>0</v>
       </c>
+      <c r="K5" s="16" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
@@ -6450,6 +6460,9 @@
       <c r="G6" s="5">
         <v>0</v>
       </c>
+      <c r="K6" s="16" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="30">
@@ -6467,6 +6480,9 @@
       <c r="G7" s="5">
         <v>0</v>
       </c>
+      <c r="K7" s="16" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
@@ -6484,6 +6500,9 @@
       <c r="G8" s="5">
         <v>0</v>
       </c>
+      <c r="K8" s="16" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="30">
@@ -6501,6 +6520,9 @@
       <c r="G9" s="5">
         <v>0</v>
       </c>
+      <c r="K9" s="16" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="30">
@@ -6518,6 +6540,9 @@
       <c r="G10" s="5">
         <v>0</v>
       </c>
+      <c r="K10" s="16" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="30">
@@ -6535,6 +6560,9 @@
       <c r="G11" s="5">
         <v>0</v>
       </c>
+      <c r="K11" s="16" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="30">
@@ -6552,8 +6580,11 @@
       <c r="G12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="16" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30">
         <v>9</v>
       </c>
@@ -6570,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30">
         <v>10</v>
       </c>
@@ -6789,6 +6820,17 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/5.LinkedList/LinkListCreationDemo.java"/>
+    <hyperlink ref="K5" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/5.LinkedList/LinkListCreationDemo.java"/>
+    <hyperlink ref="K6" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/5.LinkedList/LinkListCreationDemo.java"/>
+    <hyperlink ref="K7" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/5.LinkedList/LinkListCreationDemo.java"/>
+    <hyperlink ref="K8" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/5.LinkedList/LinkListCreationDemo.java"/>
+    <hyperlink ref="K9" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/5.LinkedList/LinkListCreationDemo.java"/>
+    <hyperlink ref="K10" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/5.LinkedList/LinkListCreationDemo.java"/>
+    <hyperlink ref="K11" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/5.LinkedList/LinkListCreationDemo.java"/>
+    <hyperlink ref="K12" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/5.LinkedList/LinkListCreationDemo.java"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -6361,7 +6361,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6438,7 +6438,7 @@
         <v>34</v>
       </c>
       <c r="G5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>456</v>
@@ -6458,7 +6458,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>456</v>
@@ -6478,7 +6478,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>456</v>
@@ -6498,7 +6498,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>456</v>
@@ -6518,7 +6518,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>456</v>
@@ -6538,7 +6538,7 @@
         <v>34</v>
       </c>
       <c r="G10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>456</v>
@@ -6558,7 +6558,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>456</v>
@@ -6578,7 +6578,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>456</v>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Leet" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="459">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1567,6 +1567,12 @@
   </si>
   <si>
     <t>CP/LinkListCreationDemo.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>hackerrank</t>
+  </si>
+  <si>
+    <t>Recursive Digit Sum | HackerRank</t>
   </si>
 </sst>
 </file>
@@ -3271,16 +3277,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="5" customWidth="1"/>
     <col min="3" max="3" width="4" style="8" customWidth="1"/>
     <col min="4" max="4" width="40.85546875" style="25" customWidth="1"/>
     <col min="5" max="5" width="15.42578125" style="5" customWidth="1"/>
@@ -3646,7 +3652,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="10" t="s">
         <v>101</v>
@@ -3678,7 +3684,7 @@
         <v>34</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>101</v>
@@ -3704,7 +3710,7 @@
         <v>34</v>
       </c>
       <c r="G16" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H16" s="10" t="s">
         <v>101</v>
@@ -3730,7 +3736,7 @@
         <v>34</v>
       </c>
       <c r="G17" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" s="10" t="s">
         <v>101</v>
@@ -4202,6 +4208,17 @@
         <v>368</v>
       </c>
       <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>33</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>458</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4220,9 +4237,10 @@
     <hyperlink ref="K15" r:id="rId13" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/FirstIndex.java"/>
     <hyperlink ref="K16" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/LastIndex.java"/>
     <hyperlink ref="K17" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/AllIndices.java"/>
+    <hyperlink ref="D36" r:id="rId16" display="https://www.hackerrank.com/challenges/recursive-digit-sum/problem?h_l=interview&amp;playlist_slugs%5B%5D=interview-preparation-kit&amp;playlist_slugs%5B%5D=recursion-backtracking"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId16"/>
+  <pageSetup orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -4230,7 +4248,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -4699,7 +4717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -6360,7 +6378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="462">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1273,9 +1273,6 @@
     <t>dry for last element, when nge jumps for better understanding the nge jumps</t>
   </si>
   <si>
-    <t>pinball problem</t>
-  </si>
-  <si>
     <t>basic path recursion</t>
   </si>
   <si>
@@ -1573,6 +1570,18 @@
   </si>
   <si>
     <t>Recursive Digit Sum | HackerRank</t>
+  </si>
+  <si>
+    <t>CP/HackerRankRecursiveDigit_sum.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/PinBall.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/PinBall.txt at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>interview</t>
   </si>
 </sst>
 </file>
@@ -2400,15 +2409,15 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -3242,7 +3251,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F5" t="s">
         <v>126</v>
@@ -3279,8 +3288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3658,10 +3667,10 @@
         <v>101</v>
       </c>
       <c r="I14" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="J14" s="10" t="s">
         <v>440</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>441</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>99</v>
@@ -3690,7 +3699,7 @@
         <v>101</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3716,7 +3725,7 @@
         <v>101</v>
       </c>
       <c r="K16" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3742,10 +3751,10 @@
         <v>101</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K17" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -4197,26 +4206,34 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>31</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="B35" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="H35" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="K35" s="16"/>
+      <c r="K35" s="16" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="K36" s="16" t="s">
         <v>458</v>
       </c>
     </row>
@@ -4238,9 +4255,12 @@
     <hyperlink ref="K16" r:id="rId14" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/LastIndex.java"/>
     <hyperlink ref="K17" r:id="rId15" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion in arrrays/AllIndices.java"/>
     <hyperlink ref="D36" r:id="rId16" display="https://www.hackerrank.com/challenges/recursive-digit-sum/problem?h_l=interview&amp;playlist_slugs%5B%5D=interview-preparation-kit&amp;playlist_slugs%5B%5D=recursion-backtracking"/>
+    <hyperlink ref="K36" r:id="rId17" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/HackerRankRecursiveDigit_sum.java"/>
+    <hyperlink ref="K35" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/PinBall.java"/>
+    <hyperlink ref="D35" r:id="rId19" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/PinBall.txt"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId17"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -4323,7 +4343,7 @@
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="D4" s="25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4743,7 +4763,7 @@
         <v>349</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I1"/>
     </row>
@@ -4887,7 +4907,7 @@
         <v>344</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I7" s="16" t="s">
         <v>345</v>
@@ -4956,16 +4976,16 @@
         <v>3</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4985,13 +5005,13 @@
         <v>3</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -5011,13 +5031,13 @@
         <v>3</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5037,13 +5057,13 @@
         <v>3</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="G13" s="10" t="s">
-        <v>375</v>
-      </c>
       <c r="I13" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="105" x14ac:dyDescent="0.25">
@@ -5063,13 +5083,13 @@
         <v>3</v>
       </c>
       <c r="G14" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H14" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="H14" s="10" t="s">
-        <v>407</v>
-      </c>
       <c r="I14" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
@@ -5089,10 +5109,10 @@
         <v>3</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5112,10 +5132,10 @@
         <v>3</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5135,10 +5155,10 @@
         <v>3</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -5158,7 +5178,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -5178,16 +5198,16 @@
         <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5207,10 +5227,10 @@
         <v>3</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -5321,7 +5341,7 @@
         <v>362</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H36" s="64"/>
       <c r="I36" s="32"/>
@@ -5377,7 +5397,7 @@
         <v>7</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>212</v>
@@ -5389,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I39" s="32"/>
     </row>
@@ -5398,7 +5418,7 @@
         <v>8</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>361</v>
@@ -5410,10 +5430,10 @@
         <v>0</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I40" s="32"/>
     </row>
@@ -5422,7 +5442,7 @@
         <v>9</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>361</v>
@@ -5434,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I41" s="32"/>
     </row>
@@ -5446,7 +5466,7 @@
         <v>10</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>212</v>
@@ -5458,10 +5478,10 @@
         <v>0</v>
       </c>
       <c r="F42" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>388</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>389</v>
       </c>
       <c r="I42" s="32"/>
     </row>
@@ -5470,7 +5490,7 @@
         <v>11</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>212</v>
@@ -5482,13 +5502,13 @@
         <v>0</v>
       </c>
       <c r="F43" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="G43" s="10" t="s">
-        <v>393</v>
-      </c>
       <c r="H43" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I43" s="32"/>
     </row>
@@ -5497,7 +5517,7 @@
         <v>12</v>
       </c>
       <c r="B44" s="21" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>212</v>
@@ -5509,13 +5529,13 @@
         <v>0</v>
       </c>
       <c r="F44" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="G44" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="G44" s="10" t="s">
-        <v>397</v>
-      </c>
       <c r="H44" s="25" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I44" s="21"/>
     </row>
@@ -5524,22 +5544,22 @@
         <v>13</v>
       </c>
       <c r="B45" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>399</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E45" s="2">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10" t="s">
+      <c r="G45" s="10" t="s">
         <v>400</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>401</v>
       </c>
       <c r="I45" s="16"/>
     </row>
@@ -5548,20 +5568,20 @@
         <v>14</v>
       </c>
       <c r="B46" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="H46" s="10" t="s">
         <v>402</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -5681,7 +5701,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>33</v>
@@ -5693,12 +5713,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
       <c r="I4" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -5715,7 +5735,7 @@
       <c r="G5" s="10"/>
       <c r="H5" s="11"/>
       <c r="I5" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -5738,7 +5758,7 @@
       <c r="G6" s="10"/>
       <c r="H6" s="11"/>
       <c r="I6" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5761,7 +5781,7 @@
       <c r="G7" s="10"/>
       <c r="H7" s="11"/>
       <c r="I7" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -5784,7 +5804,7 @@
       <c r="G8" s="10"/>
       <c r="H8" s="11"/>
       <c r="I8" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -5807,7 +5827,7 @@
       <c r="G9" s="10"/>
       <c r="H9" s="11"/>
       <c r="I9" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5828,11 +5848,11 @@
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="83" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H10" s="11"/>
       <c r="I10" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5840,36 +5860,36 @@
         <v>8</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>414</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="80" t="s">
+        <v>414</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H11" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="I11" s="16" t="s">
         <v>416</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -6439,7 +6459,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K4" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -6459,7 +6479,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -6479,7 +6499,7 @@
         <v>1</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -6499,7 +6519,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -6519,7 +6539,7 @@
         <v>1</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -6539,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -6559,7 +6579,7 @@
         <v>1</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -6579,7 +6599,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -6599,7 +6619,7 @@
         <v>1</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.25">

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Leet" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="466">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1582,6 +1582,18 @@
   </si>
   <si>
     <t>interview</t>
+  </si>
+  <si>
+    <t>CP/Sort01.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/Sorto12.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/MergeTwoSortedArr.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/MergeSort.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -3288,8 +3300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4091,7 +4103,7 @@
         <v>34</v>
       </c>
       <c r="G30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="10" t="s">
         <v>115</v>
@@ -4121,7 +4133,7 @@
         <v>34</v>
       </c>
       <c r="G31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" s="10" t="s">
         <v>101</v>
@@ -4268,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4345,6 +4357,7 @@
       <c r="D4" s="25" t="s">
         <v>454</v>
       </c>
+      <c r="K4" s="16"/>
     </row>
     <row r="6" spans="1:11" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
@@ -4357,7 +4370,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" s="15" t="s">
         <v>73</v>
@@ -4368,7 +4381,9 @@
       <c r="J6" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="21"/>
+      <c r="K6" s="16" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
@@ -4381,7 +4396,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="15" t="s">
         <v>74</v>
@@ -4392,7 +4407,9 @@
       <c r="J7" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="K7" s="21"/>
+      <c r="K7" s="16" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
@@ -4410,7 +4427,9 @@
       <c r="I8" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="K8" s="21"/>
+      <c r="K8" s="16" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
@@ -4431,7 +4450,9 @@
       <c r="J9" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="K9" s="21"/>
+      <c r="K9" s="16" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
@@ -4727,9 +4748,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E1" r:id="rId1" display="https://github.com/spartan4cs/CP/blob/main/1.  Pepcoding/TSP2/Level1/Searching%26Sorting.pdf"/>
+    <hyperlink ref="K6" r:id="rId2" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/Sort01.java"/>
+    <hyperlink ref="K7" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/Sorto12.java"/>
+    <hyperlink ref="K8" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/MergeTwoSortedArr.java"/>
+    <hyperlink ref="K9" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/MergeSort.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="468">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1594,6 +1594,12 @@
   </si>
   <si>
     <t>CP/MergeSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/SeiveOfErathothenes.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/PartitionOfArray.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -1880,7 +1886,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2117,6 +2123,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="9" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4280,8 +4289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4475,14 +4484,17 @@
       <c r="A11" s="13">
         <v>6</v>
       </c>
-      <c r="D11" s="69" t="s">
+      <c r="D11" s="85" t="s">
         <v>170</v>
       </c>
       <c r="F11" s="23" t="s">
-        <v>144</v>
+        <v>34</v>
       </c>
       <c r="G11" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -4501,7 +4513,9 @@
       <c r="I12" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="K12" s="21"/>
+      <c r="K12" s="16" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
@@ -4752,9 +4766,11 @@
     <hyperlink ref="K7" r:id="rId3" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/Sorto12.java"/>
     <hyperlink ref="K8" r:id="rId4" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/MergeTwoSortedArr.java"/>
     <hyperlink ref="K9" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/MergeSort.java"/>
+    <hyperlink ref="K11" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/SeiveOfErathothenes.java"/>
+    <hyperlink ref="K12" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/PartitionOfArray.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="472">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1600,6 +1600,21 @@
   </si>
   <si>
     <t>CP/PartitionOfArray.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>CP/QuickSort.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t>j will point at 1st greater to pivot
+I will point at 1st unsolved</t>
+  </si>
+  <si>
+    <t>partition makes sures that pivot comes to correct position
+j will point at 1st greater to pivot
+I will point at 1st unsolved</t>
+  </si>
+  <si>
+    <t>CP/QuickSelect.java at main · spartan4cs/CP (github.com)</t>
   </si>
 </sst>
 </file>
@@ -1886,7 +1901,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2126,6 +2141,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -4289,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4431,7 +4449,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="15" t="s">
         <v>68</v>
@@ -4451,7 +4469,7 @@
         <v>34</v>
       </c>
       <c r="G9" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="15" t="s">
         <v>145</v>
@@ -4480,18 +4498,21 @@
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>6</v>
       </c>
       <c r="D11" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="86" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>469</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>466</v>
@@ -4508,7 +4529,7 @@
         <v>34</v>
       </c>
       <c r="G12" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="15" t="s">
         <v>147</v>
@@ -4528,7 +4549,10 @@
         <v>34</v>
       </c>
       <c r="G13" s="5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>470</v>
       </c>
       <c r="I13" s="15" t="s">
         <v>150</v>
@@ -4536,7 +4560,9 @@
       <c r="J13" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="K13" s="21"/>
+      <c r="K13" s="16" t="s">
+        <v>468</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
@@ -4560,7 +4586,9 @@
       <c r="J14" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="16" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
@@ -4768,9 +4796,11 @@
     <hyperlink ref="K9" r:id="rId5" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/MergeSort.java"/>
     <hyperlink ref="K11" r:id="rId6" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/SeiveOfErathothenes.java"/>
     <hyperlink ref="K12" r:id="rId7" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/PartitionOfArray.java"/>
+    <hyperlink ref="K13" r:id="rId8" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSort.java"/>
+    <hyperlink ref="K14" r:id="rId9" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/3.TimeComplexity/QuickSelect.java"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Leet" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="473">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1615,6 +1615,51 @@
   </si>
   <si>
     <t>CP/QuickSelect.java at main · spartan4cs/CP (github.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">understand the traverse in backward direction </t>
+  </si>
+  <si>
+    <t>understand the traverse in backward direction</t>
+  </si>
+  <si>
+    <t>understand the traverse o  backward diliction</t>
+  </si>
+  <si>
+    <t>understand the traverse f  backward diktction</t>
+  </si>
+  <si>
+    <t>understand the traverse f  backward dimiction</t>
+  </si>
+  <si>
+    <t>understand the traverse or backward dimection</t>
+  </si>
+  <si>
+    <t>understand the traverse  L backward dimection</t>
+  </si>
+  <si>
+    <t>understand the traverse or backward direction</t>
+  </si>
+  <si>
+    <t>understand the traverse in backward diodction</t>
+  </si>
+  <si>
+    <t>understand the traverse n  backward dik ction</t>
+  </si>
+  <si>
+    <t>understand the traverse ev backward didiction</t>
+  </si>
+  <si>
+    <t>understand the traverse is backward diisction</t>
+  </si>
+  <si>
+    <t>understand the traverse  L backward difoction</t>
+  </si>
+  <si>
+    <t>understand the traverse wo backward diadction</t>
+  </si>
+  <si>
+    <t>understand the traverse f  backward diinction</t>
   </si>
 </sst>
 </file>
@@ -4307,8 +4352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4575,7 +4620,7 @@
         <v>34</v>
       </c>
       <c r="G14" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="15" t="s">
         <v>152</v>
@@ -5704,7 +5749,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6469,8 +6514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,6 +6753,9 @@
       </c>
       <c r="G13" s="5">
         <v>0</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="475">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1620,46 +1620,10 @@
     <t xml:space="preserve">understand the traverse in backward direction </t>
   </si>
   <si>
-    <t>understand the traverse in backward direction</t>
-  </si>
-  <si>
-    <t>understand the traverse o  backward diliction</t>
-  </si>
-  <si>
-    <t>understand the traverse f  backward diktction</t>
-  </si>
-  <si>
-    <t>understand the traverse f  backward dimiction</t>
-  </si>
-  <si>
-    <t>understand the traverse or backward dimection</t>
-  </si>
-  <si>
-    <t>understand the traverse  L backward dimection</t>
-  </si>
-  <si>
-    <t>understand the traverse or backward direction</t>
-  </si>
-  <si>
-    <t>understand the traverse in backward diodction</t>
-  </si>
-  <si>
-    <t>understand the traverse n  backward dik ction</t>
-  </si>
-  <si>
-    <t>understand the traverse ev backward didiction</t>
-  </si>
-  <si>
-    <t>understand the traverse is backward diisction</t>
-  </si>
-  <si>
-    <t>understand the traverse  L backward difoction</t>
-  </si>
-  <si>
-    <t>understand the traverse wo backward diadction</t>
-  </si>
-  <si>
-    <t>understand the traverse f  backward diinction</t>
+    <t>addfirst, removefirst</t>
+  </si>
+  <si>
+    <t>addlast remove first</t>
   </si>
 </sst>
 </file>
@@ -6515,7 +6479,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6789,7 +6753,10 @@
         <v>34</v>
       </c>
       <c r="G15" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -6806,7 +6773,10 @@
         <v>34</v>
       </c>
       <c r="G16" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -6823,7 +6793,7 @@
         <v>34</v>
       </c>
       <c r="G17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -6840,7 +6810,7 @@
         <v>34</v>
       </c>
       <c r="G18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="478">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1624,6 +1624,16 @@
   </si>
   <si>
     <t>addlast remove first</t>
+  </si>
+  <si>
+    <t>use prev=null and curr =head
+traverse and change the link</t>
+  </si>
+  <si>
+    <t>slow =2 * fast</t>
+  </si>
+  <si>
+    <t>move fast k times and then move slow and fast together</t>
   </si>
 </sst>
 </file>
@@ -6479,7 +6489,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H13" sqref="H13:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6716,7 +6726,7 @@
         <v>34</v>
       </c>
       <c r="G13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>472</v>
@@ -6736,7 +6746,10 @@
         <v>34</v>
       </c>
       <c r="G14" s="5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -6755,7 +6768,7 @@
       <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="18" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6775,11 +6788,11 @@
       <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="18" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="30">
         <v>13</v>
       </c>
@@ -6795,8 +6808,11 @@
       <c r="G17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="30">
         <v>14</v>
       </c>
@@ -6812,8 +6828,11 @@
       <c r="G18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="18" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="30">
         <v>15</v>
       </c>
@@ -6830,7 +6849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="30">
         <v>16</v>
       </c>
@@ -6847,7 +6866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="30">
         <v>17</v>
       </c>
@@ -6858,7 +6877,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="30">
         <v>18</v>
       </c>
@@ -6869,7 +6888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="30">
         <v>19</v>
       </c>
@@ -6880,7 +6899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="30">
         <v>20</v>
       </c>
@@ -6891,7 +6910,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="30">
         <v>21</v>
       </c>
@@ -6902,7 +6921,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="30">
         <v>22</v>
       </c>
@@ -6913,7 +6932,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="30">
         <v>23</v>
       </c>
@@ -6924,7 +6943,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="30">
         <v>24</v>
       </c>
@@ -6935,7 +6954,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30">
         <v>25</v>
       </c>

--- a/Revision.xlsx
+++ b/Revision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="9090" tabRatio="852" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Leet" sheetId="13" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="479">
   <si>
     <t>TOPIC</t>
   </si>
@@ -1634,6 +1634,9 @@
   </si>
   <si>
     <t>move fast k times and then move slow and fast together</t>
+  </si>
+  <si>
+    <t>Pep_Combination_Sum | TSP1+TSP2 : Test1 Question | Contests | HackerRank</t>
   </si>
 </sst>
 </file>
@@ -1920,7 +1923,7 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2163,6 +2166,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -3344,10 +3350,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4293,6 +4299,17 @@
       </c>
       <c r="K36" s="16" t="s">
         <v>458</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>34</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="D37" s="87" t="s">
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -4316,9 +4333,10 @@
     <hyperlink ref="K36" r:id="rId17" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/HackerRankRecursiveDigit_sum.java"/>
     <hyperlink ref="K35" r:id="rId18" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/PinBall.java"/>
     <hyperlink ref="D35" r:id="rId19" display="https://github.com/spartan4cs/CP/blob/main/2.Pepcoding/TSP2/Level1/2.Recursion And Backtracking/recursion with backtracking/PinBall.txt"/>
+    <hyperlink ref="D37" r:id="rId20" display="https://www.hackerrank.com/contests/tsp1tsp2-test1/challenges/pep-combination-sum/problem"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -4327,7 +4345,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6488,8 +6506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13:H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
